--- a/1_Plasma_Pipette/3_Firmware/Plasma_Gen_MCU_PinMap_20171227.xlsx
+++ b/1_Plasma_Pipette/3_Firmware/Plasma_Gen_MCU_PinMap_20171227.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12975" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Pin-map V1.0" sheetId="6" r:id="rId1"/>
-    <sheet name="Pin-map V2.0" sheetId="9" r:id="rId2"/>
+    <sheet name="Pipette V1.0" sheetId="9" r:id="rId2"/>
     <sheet name="TIMER" sheetId="7" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="8" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Pin-map V1.0'!$B$15:$T$79</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Pin-map V2.0'!$B$15:$T$79</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Pipette V1.0'!$B$15:$O$79</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual" calcCompleted="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="333">
   <si>
     <t>Function</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1251,10 +1251,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Plasma V2.0 Portable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>HW_ID0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1280,10 +1276,6 @@
   </si>
   <si>
     <t>ADC_IN9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Plasma V2.0 External</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1295,20 +1287,48 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>Gas input detection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIGH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>GAS_IN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Gas input detection</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HIGH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GAS_IN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Pipette V1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Power On key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I/O</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>TC</t>
+  </si>
+  <si>
+    <t>FT</t>
+  </si>
+  <si>
+    <t>RST</t>
+  </si>
+  <si>
+    <t>TTa</t>
+  </si>
+  <si>
+    <t>FTf</t>
+  </si>
+  <si>
+    <t>B</t>
   </si>
 </sst>
 </file>
@@ -1453,12 +1473,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF66CC"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1679,12 +1699,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2050,50 +2083,41 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2110,44 +2134,68 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2165,9 +2213,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2386,7 +2431,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2421,7 +2466,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2675,10 +2720,10 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B3" s="157" t="s">
+      <c r="B3" s="135" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="158"/>
+      <c r="C3" s="136"/>
       <c r="D3" s="2">
         <v>128</v>
       </c>
@@ -2697,10 +2742,10 @@
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="159" t="s">
+      <c r="B4" s="137" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="160"/>
+      <c r="C4" s="138"/>
       <c r="D4" s="3">
         <v>16</v>
       </c>
@@ -2720,10 +2765,10 @@
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B5" s="159" t="s">
+      <c r="B5" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="160"/>
+      <c r="C5" s="138"/>
       <c r="D5" s="3">
         <v>48</v>
       </c>
@@ -2745,10 +2790,10 @@
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="159" t="s">
+      <c r="B6" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="160"/>
+      <c r="C6" s="138"/>
       <c r="D6" s="3" t="s">
         <v>10</v>
       </c>
@@ -2765,10 +2810,10 @@
       <c r="I6" s="15"/>
     </row>
     <row r="7" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="161" t="s">
+      <c r="B7" s="139" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="162"/>
+      <c r="C7" s="140"/>
       <c r="D7" s="4" t="s">
         <v>13</v>
       </c>
@@ -2837,28 +2882,28 @@
     </row>
     <row r="13" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="14" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="150" t="s">
+      <c r="B14" s="147" t="s">
         <v>109</v>
       </c>
-      <c r="C14" s="151"/>
-      <c r="D14" s="151" t="s">
+      <c r="C14" s="141"/>
+      <c r="D14" s="141" t="s">
         <v>94</v>
       </c>
-      <c r="E14" s="151" t="s">
+      <c r="E14" s="141" t="s">
         <v>96</v>
       </c>
-      <c r="F14" s="163"/>
-      <c r="G14" s="153" t="s">
+      <c r="F14" s="142"/>
+      <c r="G14" s="131" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="154"/>
-      <c r="I14" s="153" t="s">
+      <c r="H14" s="132"/>
+      <c r="I14" s="131" t="s">
         <v>93</v>
       </c>
-      <c r="J14" s="155"/>
-      <c r="K14" s="155"/>
-      <c r="L14" s="155"/>
-      <c r="M14" s="156"/>
+      <c r="J14" s="133"/>
+      <c r="K14" s="133"/>
+      <c r="L14" s="133"/>
+      <c r="M14" s="134"/>
     </row>
     <row r="15" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="6" t="s">
@@ -2867,7 +2912,7 @@
       <c r="C15" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="D15" s="152"/>
+      <c r="D15" s="148"/>
       <c r="E15" s="14" t="s">
         <v>179</v>
       </c>
@@ -2906,10 +2951,10 @@
       <c r="D16" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="E16" s="146" t="s">
+      <c r="E16" s="143" t="s">
         <v>107</v>
       </c>
-      <c r="F16" s="147"/>
+      <c r="F16" s="144"/>
       <c r="G16" s="41"/>
       <c r="H16" s="97"/>
       <c r="I16" s="111"/>
@@ -3098,10 +3143,10 @@
       <c r="D22" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="E22" s="148" t="s">
+      <c r="E22" s="145" t="s">
         <v>108</v>
       </c>
-      <c r="F22" s="149"/>
+      <c r="F22" s="146"/>
       <c r="G22" s="39" t="s">
         <v>206</v>
       </c>
@@ -3266,10 +3311,10 @@
       <c r="D27" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="E27" s="142" t="s">
+      <c r="E27" s="149" t="s">
         <v>120</v>
       </c>
-      <c r="F27" s="143"/>
+      <c r="F27" s="150"/>
       <c r="G27" s="24"/>
       <c r="H27" s="101"/>
       <c r="I27" s="24"/>
@@ -3288,10 +3333,10 @@
       <c r="D28" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="E28" s="142" t="s">
+      <c r="E28" s="149" t="s">
         <v>121</v>
       </c>
-      <c r="F28" s="143"/>
+      <c r="F28" s="150"/>
       <c r="G28" s="24"/>
       <c r="H28" s="101"/>
       <c r="I28" s="24"/>
@@ -3446,10 +3491,10 @@
       <c r="D33" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="E33" s="142" t="s">
+      <c r="E33" s="149" t="s">
         <v>126</v>
       </c>
-      <c r="F33" s="143"/>
+      <c r="F33" s="150"/>
       <c r="G33" s="24"/>
       <c r="H33" s="101"/>
       <c r="I33" s="24"/>
@@ -3468,10 +3513,10 @@
       <c r="D34" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="E34" s="142" t="s">
+      <c r="E34" s="149" t="s">
         <v>107</v>
       </c>
-      <c r="F34" s="143"/>
+      <c r="F34" s="150"/>
       <c r="G34" s="24"/>
       <c r="H34" s="101"/>
       <c r="I34" s="24"/>
@@ -3868,10 +3913,10 @@
       <c r="D46" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="E46" s="142" t="s">
+      <c r="E46" s="149" t="s">
         <v>126</v>
       </c>
-      <c r="F46" s="143"/>
+      <c r="F46" s="150"/>
       <c r="G46" s="24"/>
       <c r="H46" s="101"/>
       <c r="I46" s="24"/>
@@ -3890,10 +3935,10 @@
       <c r="D47" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="E47" s="142" t="s">
+      <c r="E47" s="149" t="s">
         <v>107</v>
       </c>
-      <c r="F47" s="143"/>
+      <c r="F47" s="150"/>
       <c r="G47" s="24"/>
       <c r="H47" s="101"/>
       <c r="I47" s="24"/>
@@ -4398,10 +4443,10 @@
       <c r="D62" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="E62" s="142" t="s">
+      <c r="E62" s="149" t="s">
         <v>126</v>
       </c>
-      <c r="F62" s="143"/>
+      <c r="F62" s="150"/>
       <c r="G62" s="24"/>
       <c r="H62" s="101"/>
       <c r="I62" s="24"/>
@@ -4420,10 +4465,10 @@
       <c r="D63" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="E63" s="142" t="s">
+      <c r="E63" s="149" t="s">
         <v>107</v>
       </c>
-      <c r="F63" s="143"/>
+      <c r="F63" s="150"/>
       <c r="G63" s="24"/>
       <c r="H63" s="101"/>
       <c r="I63" s="24"/>
@@ -4816,10 +4861,10 @@
       <c r="D75" s="40" t="s">
         <v>156</v>
       </c>
-      <c r="E75" s="142" t="s">
+      <c r="E75" s="149" t="s">
         <v>175</v>
       </c>
-      <c r="F75" s="143"/>
+      <c r="F75" s="150"/>
       <c r="G75" s="24" t="s">
         <v>224</v>
       </c>
@@ -4916,10 +4961,10 @@
       <c r="D78" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="E78" s="142" t="s">
+      <c r="E78" s="149" t="s">
         <v>126</v>
       </c>
-      <c r="F78" s="143"/>
+      <c r="F78" s="150"/>
       <c r="G78" s="24"/>
       <c r="H78" s="101"/>
       <c r="I78" s="24"/>
@@ -4938,10 +4983,10 @@
       <c r="D79" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="E79" s="144" t="s">
+      <c r="E79" s="151" t="s">
         <v>107</v>
       </c>
-      <c r="F79" s="145"/>
+      <c r="F79" s="152"/>
       <c r="G79" s="25"/>
       <c r="H79" s="107"/>
       <c r="I79" s="25"/>
@@ -5001,6 +5046,21 @@
   </sheetData>
   <autoFilter ref="B15:T79"/>
   <mergeCells count="23">
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E27:F27"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="I14:M14"/>
     <mergeCell ref="B3:C3"/>
@@ -5009,21 +5069,6 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="E75:F75"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5033,10 +5078,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:R95"/>
+  <dimension ref="B1:M95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P38" sqref="P38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5053,20 +5098,15 @@
     <col min="11" max="11" width="11.625" style="5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19.75" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="22.375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="14.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.625" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22.375" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="1"/>
+    <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="2" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="28" t="s">
         <v>2</v>
       </c>
@@ -5078,13 +5118,12 @@
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B3" s="157" t="s">
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B3" s="135" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="158"/>
+      <c r="C3" s="136"/>
       <c r="D3" s="2">
         <v>128</v>
       </c>
@@ -5101,15 +5140,12 @@
       <c r="I3" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="N3" s="29" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B4" s="159" t="s">
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B4" s="137" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="160"/>
+      <c r="C4" s="138"/>
       <c r="D4" s="3">
         <v>16</v>
       </c>
@@ -5127,15 +5163,12 @@
       <c r="I4" s="15" t="s">
         <v>298</v>
       </c>
-      <c r="N4" s="15" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B5" s="159" t="s">
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B5" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="160"/>
+      <c r="C5" s="138"/>
       <c r="D5" s="3">
         <v>48</v>
       </c>
@@ -5155,15 +5188,12 @@
       <c r="I5" s="15" t="s">
         <v>299</v>
       </c>
-      <c r="N5" s="15" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B6" s="159" t="s">
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B6" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="160"/>
+      <c r="C6" s="138"/>
       <c r="D6" s="3" t="s">
         <v>10</v>
       </c>
@@ -5178,13 +5208,12 @@
         <v>16000000</v>
       </c>
       <c r="I6" s="15"/>
-      <c r="N6" s="15"/>
-    </row>
-    <row r="7" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="161" t="s">
+    </row>
+    <row r="7" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="139" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="162"/>
+      <c r="C7" s="140"/>
       <c r="D7" s="4" t="s">
         <v>13</v>
       </c>
@@ -5200,9 +5229,8 @@
       <c r="I7" s="15" t="s">
         <v>302</v>
       </c>
-      <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="G8" s="16" t="s">
         <v>87</v>
       </c>
@@ -5210,9 +5238,8 @@
         <v>80000</v>
       </c>
       <c r="I8" s="15"/>
-      <c r="N8" s="1"/>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="G9" s="36" t="s">
         <v>88</v>
       </c>
@@ -5223,9 +5250,8 @@
       <c r="I9" s="15" t="s">
         <v>303</v>
       </c>
-      <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="G10" s="16" t="s">
         <v>89</v>
       </c>
@@ -5233,9 +5259,8 @@
         <v>50</v>
       </c>
       <c r="I10" s="15"/>
-      <c r="N10" s="1"/>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="G11" s="16" t="s">
         <v>90</v>
       </c>
@@ -5244,9 +5269,8 @@
         <v>99.5</v>
       </c>
       <c r="I11" s="15"/>
-      <c r="N11" s="1"/>
-    </row>
-    <row r="12" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G12" s="38" t="s">
         <v>91</v>
       </c>
@@ -5255,48 +5279,40 @@
         <v>1.2500000000000001E-5</v>
       </c>
       <c r="I12" s="30"/>
-      <c r="N12" s="1"/>
-    </row>
-    <row r="13" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="150" t="s">
+    </row>
+    <row r="13" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="147" t="s">
         <v>109</v>
       </c>
-      <c r="C14" s="151"/>
-      <c r="D14" s="151" t="s">
+      <c r="C14" s="141"/>
+      <c r="D14" s="141" t="s">
         <v>94</v>
       </c>
-      <c r="E14" s="151" t="s">
+      <c r="E14" s="141" t="s">
         <v>96</v>
       </c>
-      <c r="F14" s="163"/>
-      <c r="G14" s="153" t="s">
+      <c r="F14" s="142"/>
+      <c r="G14" s="131" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="154"/>
-      <c r="I14" s="153" t="s">
-        <v>311</v>
-      </c>
-      <c r="J14" s="155"/>
-      <c r="K14" s="155"/>
-      <c r="L14" s="155"/>
-      <c r="M14" s="156"/>
-      <c r="N14" s="153" t="s">
-        <v>319</v>
-      </c>
-      <c r="O14" s="155"/>
-      <c r="P14" s="155"/>
-      <c r="Q14" s="155"/>
-      <c r="R14" s="156"/>
-    </row>
-    <row r="15" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H14" s="132"/>
+      <c r="I14" s="131" t="s">
+        <v>323</v>
+      </c>
+      <c r="J14" s="133"/>
+      <c r="K14" s="133"/>
+      <c r="L14" s="133"/>
+      <c r="M14" s="134"/>
+    </row>
+    <row r="15" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C15" s="95" t="s">
-        <v>111</v>
-      </c>
-      <c r="D15" s="152"/>
+      <c r="C15" s="164" t="s">
+        <v>325</v>
+      </c>
+      <c r="D15" s="148"/>
       <c r="E15" s="95" t="s">
         <v>179</v>
       </c>
@@ -5324,36 +5340,21 @@
       <c r="M15" s="110" t="s">
         <v>310</v>
       </c>
-      <c r="N15" s="108" t="s">
-        <v>16</v>
-      </c>
-      <c r="O15" s="109" t="s">
-        <v>1</v>
-      </c>
-      <c r="P15" s="109" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q15" s="109" t="s">
-        <v>230</v>
-      </c>
-      <c r="R15" s="110" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="16" spans="2:18" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="2:13" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B16" s="17">
         <v>1</v>
       </c>
-      <c r="C16" s="92">
-        <v>1</v>
+      <c r="C16" s="156" t="s">
+        <v>326</v>
       </c>
       <c r="D16" s="92" t="s">
         <v>95</v>
       </c>
-      <c r="E16" s="146" t="s">
+      <c r="E16" s="143" t="s">
         <v>107</v>
       </c>
-      <c r="F16" s="147"/>
+      <c r="F16" s="144"/>
       <c r="G16" s="41"/>
       <c r="H16" s="97"/>
       <c r="I16" s="111"/>
@@ -5361,18 +5362,13 @@
       <c r="K16" s="112"/>
       <c r="L16" s="113"/>
       <c r="M16" s="114"/>
-      <c r="N16" s="111"/>
-      <c r="O16" s="112"/>
-      <c r="P16" s="112"/>
-      <c r="Q16" s="113"/>
-      <c r="R16" s="114"/>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="22">
         <v>2</v>
       </c>
-      <c r="C17" s="93">
-        <v>2</v>
+      <c r="C17" s="160" t="s">
+        <v>327</v>
       </c>
       <c r="D17" s="93" t="s">
         <v>46</v>
@@ -5400,24 +5396,13 @@
       </c>
       <c r="L17" s="3"/>
       <c r="M17" s="15"/>
-      <c r="N17" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="15"/>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="22">
         <v>3</v>
       </c>
-      <c r="C18" s="93">
-        <v>3</v>
+      <c r="C18" s="160" t="s">
+        <v>327</v>
       </c>
       <c r="D18" s="93" t="s">
         <v>81</v>
@@ -5445,24 +5430,13 @@
       </c>
       <c r="L18" s="3"/>
       <c r="M18" s="15"/>
-      <c r="N18" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="15"/>
-    </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="22">
         <v>4</v>
       </c>
-      <c r="C19" s="93">
-        <v>4</v>
+      <c r="C19" s="160" t="s">
+        <v>327</v>
       </c>
       <c r="D19" s="93" t="s">
         <v>82</v>
@@ -5490,24 +5464,13 @@
       </c>
       <c r="L19" s="3"/>
       <c r="M19" s="15"/>
-      <c r="N19" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="15"/>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="22">
         <v>5</v>
       </c>
-      <c r="C20" s="93">
-        <v>5</v>
+      <c r="C20" s="161" t="s">
+        <v>328</v>
       </c>
       <c r="D20" s="93" t="s">
         <v>99</v>
@@ -5535,24 +5498,13 @@
       </c>
       <c r="L20" s="3"/>
       <c r="M20" s="15"/>
-      <c r="N20" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="15"/>
-    </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="22">
         <v>6</v>
       </c>
-      <c r="C21" s="93">
-        <v>6</v>
+      <c r="C21" s="161" t="s">
+        <v>328</v>
       </c>
       <c r="D21" s="93" t="s">
         <v>100</v>
@@ -5580,32 +5532,21 @@
       </c>
       <c r="L21" s="3"/>
       <c r="M21" s="15"/>
-      <c r="N21" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="15"/>
-    </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="22">
         <v>7</v>
       </c>
-      <c r="C22" s="93">
-        <v>7</v>
+      <c r="C22" s="159" t="s">
+        <v>329</v>
       </c>
       <c r="D22" s="93" t="s">
         <v>101</v>
       </c>
-      <c r="E22" s="148" t="s">
+      <c r="E22" s="145" t="s">
         <v>108</v>
       </c>
-      <c r="F22" s="149"/>
+      <c r="F22" s="146"/>
       <c r="G22" s="39" t="s">
         <v>101</v>
       </c>
@@ -5623,24 +5564,13 @@
       </c>
       <c r="L22" s="3"/>
       <c r="M22" s="15"/>
-      <c r="N22" s="115" t="s">
-        <v>101</v>
-      </c>
-      <c r="O22" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="P22" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="15"/>
-    </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="22">
         <v>8</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>40</v>
+      <c r="C23" s="162" t="s">
+        <v>330</v>
       </c>
       <c r="D23" s="93" t="s">
         <v>23</v>
@@ -5655,37 +5585,26 @@
         <v>204</v>
       </c>
       <c r="H23" s="127" t="s">
+        <v>319</v>
+      </c>
+      <c r="I23" s="128" t="s">
+        <v>322</v>
+      </c>
+      <c r="J23" s="129" t="s">
+        <v>320</v>
+      </c>
+      <c r="K23" s="129" t="s">
         <v>321</v>
-      </c>
-      <c r="I23" s="128" t="s">
-        <v>325</v>
-      </c>
-      <c r="J23" s="129" t="s">
-        <v>323</v>
-      </c>
-      <c r="K23" s="129" t="s">
-        <v>324</v>
       </c>
       <c r="L23" s="3"/>
       <c r="M23" s="15"/>
-      <c r="N23" s="128" t="s">
-        <v>322</v>
-      </c>
-      <c r="O23" s="129" t="s">
-        <v>323</v>
-      </c>
-      <c r="P23" s="129" t="s">
-        <v>324</v>
-      </c>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="15"/>
-    </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="22">
         <v>9</v>
       </c>
-      <c r="C24" s="7" t="s">
-        <v>40</v>
+      <c r="C24" s="162" t="s">
+        <v>330</v>
       </c>
       <c r="D24" s="20" t="s">
         <v>22</v>
@@ -5713,24 +5632,13 @@
       </c>
       <c r="L24" s="3"/>
       <c r="M24" s="15"/>
-      <c r="N24" s="131" t="s">
-        <v>203</v>
-      </c>
-      <c r="O24" s="132" t="s">
-        <v>202</v>
-      </c>
-      <c r="P24" s="133" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q24" s="134"/>
-      <c r="R24" s="135"/>
-    </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="22">
         <v>10</v>
       </c>
-      <c r="C25" s="7" t="s">
-        <v>40</v>
+      <c r="C25" s="162" t="s">
+        <v>330</v>
       </c>
       <c r="D25" s="20" t="s">
         <v>18</v>
@@ -5758,24 +5666,13 @@
       </c>
       <c r="L25" s="3"/>
       <c r="M25" s="15"/>
-      <c r="N25" s="131" t="s">
-        <v>205</v>
-      </c>
-      <c r="O25" s="132" t="s">
-        <v>202</v>
-      </c>
-      <c r="P25" s="133" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q25" s="134"/>
-      <c r="R25" s="135"/>
-    </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="22">
         <v>11</v>
       </c>
-      <c r="C26" s="7" t="s">
-        <v>40</v>
+      <c r="C26" s="162" t="s">
+        <v>330</v>
       </c>
       <c r="D26" s="20" t="s">
         <v>80</v>
@@ -5803,32 +5700,21 @@
       </c>
       <c r="L26" s="3"/>
       <c r="M26" s="15"/>
-      <c r="N26" s="131" t="s">
-        <v>225</v>
-      </c>
-      <c r="O26" s="132" t="s">
-        <v>229</v>
-      </c>
-      <c r="P26" s="133" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q26" s="134"/>
-      <c r="R26" s="135"/>
-    </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="24">
         <v>12</v>
       </c>
-      <c r="C27" s="32">
-        <v>8</v>
+      <c r="C27" s="155" t="s">
+        <v>326</v>
       </c>
       <c r="D27" s="90" t="s">
         <v>118</v>
       </c>
-      <c r="E27" s="142" t="s">
+      <c r="E27" s="149" t="s">
         <v>120</v>
       </c>
-      <c r="F27" s="143"/>
+      <c r="F27" s="150"/>
       <c r="G27" s="24"/>
       <c r="H27" s="101"/>
       <c r="I27" s="24"/>
@@ -5836,26 +5722,21 @@
       <c r="K27" s="90"/>
       <c r="L27" s="19"/>
       <c r="M27" s="15"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="90"/>
-      <c r="P27" s="90"/>
-      <c r="Q27" s="19"/>
-      <c r="R27" s="15"/>
-    </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="24">
         <v>13</v>
       </c>
-      <c r="C28" s="32">
-        <v>9</v>
+      <c r="C28" s="155" t="s">
+        <v>326</v>
       </c>
       <c r="D28" s="90" t="s">
         <v>119</v>
       </c>
-      <c r="E28" s="142" t="s">
+      <c r="E28" s="149" t="s">
         <v>121</v>
       </c>
-      <c r="F28" s="143"/>
+      <c r="F28" s="150"/>
       <c r="G28" s="24"/>
       <c r="H28" s="101"/>
       <c r="I28" s="24"/>
@@ -5863,18 +5744,13 @@
       <c r="K28" s="90"/>
       <c r="L28" s="19"/>
       <c r="M28" s="15"/>
-      <c r="N28" s="24"/>
-      <c r="O28" s="90"/>
-      <c r="P28" s="90"/>
-      <c r="Q28" s="19"/>
-      <c r="R28" s="15"/>
-    </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="22">
         <v>14</v>
       </c>
-      <c r="C29" s="33">
-        <v>10</v>
+      <c r="C29" s="162" t="s">
+        <v>330</v>
       </c>
       <c r="D29" s="93" t="s">
         <v>72</v>
@@ -5902,24 +5778,13 @@
       </c>
       <c r="L29" s="3"/>
       <c r="M29" s="15"/>
-      <c r="N29" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="15"/>
-    </row>
-    <row r="30" spans="2:18" ht="33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="2:13" ht="33" x14ac:dyDescent="0.3">
       <c r="B30" s="22">
         <v>15</v>
       </c>
-      <c r="C30" s="33">
-        <v>11</v>
+      <c r="C30" s="162" t="s">
+        <v>330</v>
       </c>
       <c r="D30" s="93" t="s">
         <v>73</v>
@@ -5937,38 +5802,25 @@
         <v>20</v>
       </c>
       <c r="I30" s="128" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J30" s="129" t="s">
+        <v>313</v>
+      </c>
+      <c r="K30" s="129" t="s">
         <v>314</v>
-      </c>
-      <c r="K30" s="129" t="s">
-        <v>315</v>
       </c>
       <c r="L30" s="3"/>
       <c r="M30" s="43" t="s">
-        <v>316</v>
-      </c>
-      <c r="N30" s="128" t="s">
-        <v>312</v>
-      </c>
-      <c r="O30" s="129" t="s">
-        <v>314</v>
-      </c>
-      <c r="P30" s="129" t="s">
         <v>315</v>
       </c>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="43" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="22">
         <v>16</v>
       </c>
-      <c r="C31" s="33">
-        <v>12</v>
+      <c r="C31" s="165" t="s">
+        <v>330</v>
       </c>
       <c r="D31" s="93" t="s">
         <v>74</v>
@@ -5986,38 +5838,25 @@
         <v>20</v>
       </c>
       <c r="I31" s="128" t="s">
+        <v>312</v>
+      </c>
+      <c r="J31" s="129" t="s">
         <v>313</v>
       </c>
-      <c r="J31" s="129" t="s">
+      <c r="K31" s="129" t="s">
         <v>314</v>
-      </c>
-      <c r="K31" s="129" t="s">
-        <v>315</v>
       </c>
       <c r="L31" s="3"/>
       <c r="M31" s="43" t="s">
-        <v>316</v>
-      </c>
-      <c r="N31" s="128" t="s">
-        <v>313</v>
-      </c>
-      <c r="O31" s="129" t="s">
-        <v>314</v>
-      </c>
-      <c r="P31" s="129" t="s">
         <v>315</v>
       </c>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="43" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" s="22">
         <v>17</v>
       </c>
-      <c r="C32" s="33">
-        <v>13</v>
+      <c r="C32" s="167" t="s">
+        <v>330</v>
       </c>
       <c r="D32" s="93" t="s">
         <v>75</v>
@@ -6045,32 +5884,21 @@
       </c>
       <c r="L32" s="3"/>
       <c r="M32" s="15"/>
-      <c r="N32" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="15"/>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33" s="24">
         <v>18</v>
       </c>
-      <c r="C33" s="32" t="s">
-        <v>40</v>
+      <c r="C33" s="155" t="s">
+        <v>326</v>
       </c>
       <c r="D33" s="90" t="s">
         <v>150</v>
       </c>
-      <c r="E33" s="142" t="s">
+      <c r="E33" s="149" t="s">
         <v>126</v>
       </c>
-      <c r="F33" s="143"/>
+      <c r="F33" s="150"/>
       <c r="G33" s="24"/>
       <c r="H33" s="101"/>
       <c r="I33" s="24"/>
@@ -6078,26 +5906,21 @@
       <c r="K33" s="90"/>
       <c r="L33" s="19"/>
       <c r="M33" s="15"/>
-      <c r="N33" s="24"/>
-      <c r="O33" s="90"/>
-      <c r="P33" s="90"/>
-      <c r="Q33" s="19"/>
-      <c r="R33" s="15"/>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="24">
         <v>19</v>
       </c>
-      <c r="C34" s="32" t="s">
-        <v>40</v>
+      <c r="C34" s="155" t="s">
+        <v>326</v>
       </c>
       <c r="D34" s="90" t="s">
         <v>95</v>
       </c>
-      <c r="E34" s="142" t="s">
+      <c r="E34" s="149" t="s">
         <v>107</v>
       </c>
-      <c r="F34" s="143"/>
+      <c r="F34" s="150"/>
       <c r="G34" s="24"/>
       <c r="H34" s="101"/>
       <c r="I34" s="24"/>
@@ -6105,18 +5928,13 @@
       <c r="K34" s="90"/>
       <c r="L34" s="19"/>
       <c r="M34" s="15"/>
-      <c r="N34" s="24"/>
-      <c r="O34" s="90"/>
-      <c r="P34" s="90"/>
-      <c r="Q34" s="19"/>
-      <c r="R34" s="15"/>
-    </row>
-    <row r="35" spans="2:18" ht="33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="2:13" ht="33" x14ac:dyDescent="0.3">
       <c r="B35" s="22">
         <v>20</v>
       </c>
-      <c r="C35" s="93">
-        <v>14</v>
+      <c r="C35" s="162" t="s">
+        <v>330</v>
       </c>
       <c r="D35" s="93" t="s">
         <v>24</v>
@@ -6144,24 +5962,13 @@
       </c>
       <c r="L35" s="3"/>
       <c r="M35" s="15"/>
-      <c r="N35" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q35" s="3"/>
-      <c r="R35" s="15"/>
-    </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B36" s="22">
         <v>21</v>
       </c>
-      <c r="C36" s="93">
-        <v>15</v>
+      <c r="C36" s="162" t="s">
+        <v>330</v>
       </c>
       <c r="D36" s="93" t="s">
         <v>25</v>
@@ -6189,24 +5996,13 @@
       </c>
       <c r="L36" s="3"/>
       <c r="M36" s="15"/>
-      <c r="N36" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q36" s="3"/>
-      <c r="R36" s="15"/>
-    </row>
-    <row r="37" spans="2:18" ht="49.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="2:13" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B37" s="22">
         <v>22</v>
       </c>
-      <c r="C37" s="93">
-        <v>16</v>
+      <c r="C37" s="162" t="s">
+        <v>330</v>
       </c>
       <c r="D37" s="27" t="s">
         <v>49</v>
@@ -6234,24 +6030,13 @@
       </c>
       <c r="L37" s="118"/>
       <c r="M37" s="15"/>
-      <c r="N37" s="131" t="s">
-        <v>51</v>
-      </c>
-      <c r="O37" s="132" t="s">
-        <v>52</v>
-      </c>
-      <c r="P37" s="132" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q37" s="136"/>
-      <c r="R37" s="135"/>
-    </row>
-    <row r="38" spans="2:18" ht="49.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="2:13" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B38" s="22">
         <v>23</v>
       </c>
-      <c r="C38" s="93">
-        <v>17</v>
+      <c r="C38" s="162" t="s">
+        <v>330</v>
       </c>
       <c r="D38" s="93" t="s">
         <v>68</v>
@@ -6279,24 +6064,13 @@
       </c>
       <c r="L38" s="3"/>
       <c r="M38" s="15"/>
-      <c r="N38" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q38" s="3"/>
-      <c r="R38" s="15"/>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B39" s="22">
         <v>24</v>
       </c>
-      <c r="C39" s="7" t="s">
-        <v>40</v>
+      <c r="C39" s="162" t="s">
+        <v>330</v>
       </c>
       <c r="D39" s="93" t="s">
         <v>69</v>
@@ -6324,24 +6098,13 @@
       </c>
       <c r="L39" s="3"/>
       <c r="M39" s="15"/>
-      <c r="N39" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="O39" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P39" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q39" s="3"/>
-      <c r="R39" s="15"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B40" s="22">
         <v>25</v>
       </c>
-      <c r="C40" s="7" t="s">
-        <v>40</v>
+      <c r="C40" s="162" t="s">
+        <v>330</v>
       </c>
       <c r="D40" s="20" t="s">
         <v>31</v>
@@ -6362,7 +6125,7 @@
         <v>196</v>
       </c>
       <c r="J40" s="83" t="s">
-        <v>188</v>
+        <v>324</v>
       </c>
       <c r="K40" s="83" t="s">
         <v>189</v>
@@ -6371,26 +6134,13 @@
       <c r="M40" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="N40" s="137" t="s">
-        <v>196</v>
-      </c>
-      <c r="O40" s="138" t="s">
-        <v>188</v>
-      </c>
-      <c r="P40" s="138" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q40" s="134"/>
-      <c r="R40" s="135" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="41" spans="2:18" ht="33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="2:13" ht="33" x14ac:dyDescent="0.3">
       <c r="B41" s="22">
         <v>26</v>
       </c>
-      <c r="C41" s="93">
-        <v>18</v>
+      <c r="C41" s="162" t="s">
+        <v>330</v>
       </c>
       <c r="D41" s="20" t="s">
         <v>26</v>
@@ -6418,24 +6168,13 @@
       </c>
       <c r="L41" s="120"/>
       <c r="M41" s="15"/>
-      <c r="N41" s="131" t="s">
-        <v>187</v>
-      </c>
-      <c r="O41" s="132" t="s">
-        <v>197</v>
-      </c>
-      <c r="P41" s="132" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q41" s="134"/>
-      <c r="R41" s="135"/>
-    </row>
-    <row r="42" spans="2:18" ht="33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="2:13" ht="33" x14ac:dyDescent="0.3">
       <c r="B42" s="22">
         <v>27</v>
       </c>
-      <c r="C42" s="93">
-        <v>19</v>
+      <c r="C42" s="162" t="s">
+        <v>330</v>
       </c>
       <c r="D42" s="20" t="s">
         <v>28</v>
@@ -6453,7 +6192,7 @@
         <v>20</v>
       </c>
       <c r="I42" s="119" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="J42" s="83" t="s">
         <v>219</v>
@@ -6462,29 +6201,16 @@
         <v>40</v>
       </c>
       <c r="L42" s="122" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M42" s="123"/>
-      <c r="N42" s="137" t="s">
-        <v>317</v>
-      </c>
-      <c r="O42" s="138" t="s">
-        <v>219</v>
-      </c>
-      <c r="P42" s="139" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q42" s="140" t="s">
-        <v>318</v>
-      </c>
-      <c r="R42" s="141"/>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B43" s="22">
         <v>28</v>
       </c>
-      <c r="C43" s="93">
-        <v>20</v>
+      <c r="C43" s="163" t="s">
+        <v>328</v>
       </c>
       <c r="D43" s="93" t="s">
         <v>29</v>
@@ -6512,24 +6238,13 @@
       </c>
       <c r="L43" s="3"/>
       <c r="M43" s="15"/>
-      <c r="N43" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="O43" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P43" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q43" s="3"/>
-      <c r="R43" s="15"/>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B44" s="22">
         <v>29</v>
       </c>
-      <c r="C44" s="93">
-        <v>21</v>
+      <c r="C44" s="163" t="s">
+        <v>328</v>
       </c>
       <c r="D44" s="93" t="s">
         <v>30</v>
@@ -6557,24 +6272,13 @@
       </c>
       <c r="L44" s="3"/>
       <c r="M44" s="15"/>
-      <c r="N44" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="O44" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P44" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q44" s="3"/>
-      <c r="R44" s="15"/>
-    </row>
-    <row r="45" spans="2:18" ht="33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="2:13" ht="33" x14ac:dyDescent="0.3">
       <c r="B45" s="22">
         <v>30</v>
       </c>
-      <c r="C45" s="93">
-        <v>22</v>
+      <c r="C45" s="163" t="s">
+        <v>328</v>
       </c>
       <c r="D45" s="93" t="s">
         <v>70</v>
@@ -6602,32 +6306,21 @@
       </c>
       <c r="L45" s="3"/>
       <c r="M45" s="15"/>
-      <c r="N45" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="O45" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q45" s="3"/>
-      <c r="R45" s="15"/>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B46" s="24">
         <v>31</v>
       </c>
-      <c r="C46" s="90">
-        <v>23</v>
+      <c r="C46" s="153" t="s">
+        <v>326</v>
       </c>
       <c r="D46" s="90" t="s">
         <v>150</v>
       </c>
-      <c r="E46" s="142" t="s">
+      <c r="E46" s="149" t="s">
         <v>126</v>
       </c>
-      <c r="F46" s="143"/>
+      <c r="F46" s="150"/>
       <c r="G46" s="24"/>
       <c r="H46" s="101"/>
       <c r="I46" s="24"/>
@@ -6635,26 +6328,21 @@
       <c r="K46" s="90"/>
       <c r="L46" s="19"/>
       <c r="M46" s="15"/>
-      <c r="N46" s="24"/>
-      <c r="O46" s="90"/>
-      <c r="P46" s="90"/>
-      <c r="Q46" s="19"/>
-      <c r="R46" s="15"/>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B47" s="24">
         <v>32</v>
       </c>
-      <c r="C47" s="90">
-        <v>24</v>
+      <c r="C47" s="154" t="s">
+        <v>326</v>
       </c>
       <c r="D47" s="90" t="s">
         <v>95</v>
       </c>
-      <c r="E47" s="142" t="s">
+      <c r="E47" s="149" t="s">
         <v>107</v>
       </c>
-      <c r="F47" s="143"/>
+      <c r="F47" s="150"/>
       <c r="G47" s="24"/>
       <c r="H47" s="101"/>
       <c r="I47" s="24"/>
@@ -6662,18 +6350,13 @@
       <c r="K47" s="90"/>
       <c r="L47" s="19"/>
       <c r="M47" s="15"/>
-      <c r="N47" s="24"/>
-      <c r="O47" s="90"/>
-      <c r="P47" s="90"/>
-      <c r="Q47" s="19"/>
-      <c r="R47" s="15"/>
-    </row>
-    <row r="48" spans="2:18" ht="49.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="2:13" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B48" s="22">
         <v>33</v>
       </c>
-      <c r="C48" s="93">
-        <v>25</v>
+      <c r="C48" s="168" t="s">
+        <v>328</v>
       </c>
       <c r="D48" s="20" t="s">
         <v>77</v>
@@ -6703,26 +6386,13 @@
       <c r="M48" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="N48" s="131" t="s">
-        <v>223</v>
-      </c>
-      <c r="O48" s="132" t="s">
-        <v>219</v>
-      </c>
-      <c r="P48" s="132" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q48" s="136"/>
-      <c r="R48" s="135" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="49" spans="2:18" ht="33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="2:13" ht="33" x14ac:dyDescent="0.3">
       <c r="B49" s="22">
         <v>34</v>
       </c>
-      <c r="C49" s="93">
-        <v>26</v>
+      <c r="C49" s="163" t="s">
+        <v>331</v>
       </c>
       <c r="D49" s="93" t="s">
         <v>78</v>
@@ -6750,24 +6420,13 @@
       </c>
       <c r="L49" s="3"/>
       <c r="M49" s="15"/>
-      <c r="N49" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="O49" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P49" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q49" s="3"/>
-      <c r="R49" s="15"/>
-    </row>
-    <row r="50" spans="2:18" ht="49.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="2:13" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B50" s="22">
         <v>35</v>
       </c>
-      <c r="C50" s="93">
-        <v>27</v>
+      <c r="C50" s="163" t="s">
+        <v>331</v>
       </c>
       <c r="D50" s="93" t="s">
         <v>79</v>
@@ -6795,24 +6454,13 @@
       </c>
       <c r="L50" s="3"/>
       <c r="M50" s="15"/>
-      <c r="N50" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="O50" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P50" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q50" s="3"/>
-      <c r="R50" s="15"/>
-    </row>
-    <row r="51" spans="2:18" ht="33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="2:13" ht="33" x14ac:dyDescent="0.3">
       <c r="B51" s="22">
         <v>36</v>
       </c>
-      <c r="C51" s="93">
-        <v>28</v>
+      <c r="C51" s="163" t="s">
+        <v>328</v>
       </c>
       <c r="D51" s="20" t="s">
         <v>38</v>
@@ -6844,28 +6492,13 @@
       <c r="M51" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="N51" s="116" t="s">
-        <v>218</v>
-      </c>
-      <c r="O51" s="45" t="s">
-        <v>201</v>
-      </c>
-      <c r="P51" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q51" s="124" t="s">
-        <v>233</v>
-      </c>
-      <c r="R51" s="15" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="52" spans="2:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B52" s="22">
         <v>37</v>
       </c>
-      <c r="C52" s="7" t="s">
-        <v>40</v>
+      <c r="C52" s="163" t="s">
+        <v>328</v>
       </c>
       <c r="D52" s="93" t="s">
         <v>33</v>
@@ -6893,24 +6526,13 @@
       </c>
       <c r="L52" s="3"/>
       <c r="M52" s="15"/>
-      <c r="N52" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="O52" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P52" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q52" s="3"/>
-      <c r="R52" s="15"/>
-    </row>
-    <row r="53" spans="2:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B53" s="22">
         <v>38</v>
       </c>
-      <c r="C53" s="7" t="s">
-        <v>40</v>
+      <c r="C53" s="163" t="s">
+        <v>328</v>
       </c>
       <c r="D53" s="20" t="s">
         <v>34</v>
@@ -6942,28 +6564,13 @@
       <c r="M53" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="N53" s="119" t="s">
-        <v>243</v>
-      </c>
-      <c r="O53" s="83" t="s">
-        <v>201</v>
-      </c>
-      <c r="P53" s="83" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q53" s="125" t="s">
-        <v>241</v>
-      </c>
-      <c r="R53" s="15" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="54" spans="2:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B54" s="22">
         <v>39</v>
       </c>
-      <c r="C54" s="7" t="s">
-        <v>40</v>
+      <c r="C54" s="163" t="s">
+        <v>328</v>
       </c>
       <c r="D54" s="93" t="s">
         <v>35</v>
@@ -6991,24 +6598,13 @@
       </c>
       <c r="L54" s="3"/>
       <c r="M54" s="15"/>
-      <c r="N54" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="O54" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P54" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q54" s="3"/>
-      <c r="R54" s="15"/>
-    </row>
-    <row r="55" spans="2:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B55" s="22">
         <v>40</v>
       </c>
-      <c r="C55" s="7" t="s">
-        <v>40</v>
+      <c r="C55" s="163" t="s">
+        <v>328</v>
       </c>
       <c r="D55" s="93" t="s">
         <v>36</v>
@@ -7036,24 +6632,13 @@
       </c>
       <c r="L55" s="3"/>
       <c r="M55" s="15"/>
-      <c r="N55" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="O55" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P55" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q55" s="3"/>
-      <c r="R55" s="15"/>
-    </row>
-    <row r="56" spans="2:18" ht="33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="2:13" ht="33" x14ac:dyDescent="0.3">
       <c r="B56" s="22">
         <v>41</v>
       </c>
-      <c r="C56" s="93">
-        <v>29</v>
+      <c r="C56" s="163" t="s">
+        <v>328</v>
       </c>
       <c r="D56" s="27" t="s">
         <v>76</v>
@@ -7081,24 +6666,13 @@
       </c>
       <c r="L56" s="118"/>
       <c r="M56" s="15"/>
-      <c r="N56" s="117" t="s">
-        <v>216</v>
-      </c>
-      <c r="O56" s="87" t="s">
-        <v>215</v>
-      </c>
-      <c r="P56" s="87" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q56" s="118"/>
-      <c r="R56" s="15"/>
-    </row>
-    <row r="57" spans="2:18" ht="33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="2:13" ht="33" x14ac:dyDescent="0.3">
       <c r="B57" s="22">
         <v>42</v>
       </c>
-      <c r="C57" s="93">
-        <v>30</v>
+      <c r="C57" s="163" t="s">
+        <v>328</v>
       </c>
       <c r="D57" s="48" t="s">
         <v>62</v>
@@ -7126,24 +6700,13 @@
       </c>
       <c r="L57" s="52"/>
       <c r="M57" s="15"/>
-      <c r="N57" s="51" t="s">
-        <v>209</v>
-      </c>
-      <c r="O57" s="48" t="s">
-        <v>200</v>
-      </c>
-      <c r="P57" s="54" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q57" s="52"/>
-      <c r="R57" s="15"/>
-    </row>
-    <row r="58" spans="2:18" ht="33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="2:13" ht="33" x14ac:dyDescent="0.3">
       <c r="B58" s="22">
         <v>43</v>
       </c>
-      <c r="C58" s="93">
-        <v>31</v>
+      <c r="C58" s="163" t="s">
+        <v>328</v>
       </c>
       <c r="D58" s="48" t="s">
         <v>43</v>
@@ -7171,24 +6734,13 @@
       </c>
       <c r="L58" s="52"/>
       <c r="M58" s="15"/>
-      <c r="N58" s="51" t="s">
-        <v>210</v>
-      </c>
-      <c r="O58" s="48" t="s">
-        <v>200</v>
-      </c>
-      <c r="P58" s="54" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q58" s="52"/>
-      <c r="R58" s="15"/>
-    </row>
-    <row r="59" spans="2:18" ht="33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="2:13" ht="33" x14ac:dyDescent="0.3">
       <c r="B59" s="22">
         <v>44</v>
       </c>
-      <c r="C59" s="93">
-        <v>32</v>
+      <c r="C59" s="163" t="s">
+        <v>328</v>
       </c>
       <c r="D59" s="27" t="s">
         <v>44</v>
@@ -7216,24 +6768,13 @@
       </c>
       <c r="L59" s="118"/>
       <c r="M59" s="15"/>
-      <c r="N59" s="117" t="s">
-        <v>217</v>
-      </c>
-      <c r="O59" s="87" t="s">
-        <v>215</v>
-      </c>
-      <c r="P59" s="87" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q59" s="118"/>
-      <c r="R59" s="15"/>
-    </row>
-    <row r="60" spans="2:18" ht="33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="2:13" ht="33" x14ac:dyDescent="0.3">
       <c r="B60" s="22">
         <v>45</v>
       </c>
-      <c r="C60" s="93">
-        <v>33</v>
+      <c r="C60" s="163" t="s">
+        <v>328</v>
       </c>
       <c r="D60" s="20" t="s">
         <v>39</v>
@@ -7261,24 +6802,13 @@
       </c>
       <c r="L60" s="124"/>
       <c r="M60" s="15"/>
-      <c r="N60" s="116" t="s">
-        <v>208</v>
-      </c>
-      <c r="O60" s="45" t="s">
-        <v>181</v>
-      </c>
-      <c r="P60" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q60" s="124"/>
-      <c r="R60" s="15"/>
-    </row>
-    <row r="61" spans="2:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B61" s="22">
         <v>46</v>
       </c>
-      <c r="C61" s="93">
-        <v>34</v>
+      <c r="C61" s="163" t="s">
+        <v>328</v>
       </c>
       <c r="D61" s="55" t="s">
         <v>60</v>
@@ -7306,32 +6836,21 @@
       </c>
       <c r="L61" s="59"/>
       <c r="M61" s="15"/>
-      <c r="N61" s="58" t="s">
-        <v>61</v>
-      </c>
-      <c r="O61" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="P61" s="60" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q61" s="59"/>
-      <c r="R61" s="15"/>
-    </row>
-    <row r="62" spans="2:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B62" s="24">
         <v>47</v>
       </c>
-      <c r="C62" s="90">
-        <v>35</v>
+      <c r="C62" s="153" t="s">
+        <v>326</v>
       </c>
       <c r="D62" s="90" t="s">
         <v>150</v>
       </c>
-      <c r="E62" s="142" t="s">
+      <c r="E62" s="149" t="s">
         <v>126</v>
       </c>
-      <c r="F62" s="143"/>
+      <c r="F62" s="150"/>
       <c r="G62" s="24"/>
       <c r="H62" s="101"/>
       <c r="I62" s="24"/>
@@ -7339,26 +6858,21 @@
       <c r="K62" s="90"/>
       <c r="L62" s="19"/>
       <c r="M62" s="15"/>
-      <c r="N62" s="24"/>
-      <c r="O62" s="90"/>
-      <c r="P62" s="90"/>
-      <c r="Q62" s="19"/>
-      <c r="R62" s="15"/>
-    </row>
-    <row r="63" spans="2:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B63" s="24">
         <v>48</v>
       </c>
-      <c r="C63" s="90">
-        <v>36</v>
+      <c r="C63" s="154" t="s">
+        <v>326</v>
       </c>
       <c r="D63" s="90" t="s">
         <v>95</v>
       </c>
-      <c r="E63" s="142" t="s">
+      <c r="E63" s="149" t="s">
         <v>107</v>
       </c>
-      <c r="F63" s="143"/>
+      <c r="F63" s="150"/>
       <c r="G63" s="24"/>
       <c r="H63" s="101"/>
       <c r="I63" s="24"/>
@@ -7366,18 +6880,13 @@
       <c r="K63" s="90"/>
       <c r="L63" s="19"/>
       <c r="M63" s="15"/>
-      <c r="N63" s="24"/>
-      <c r="O63" s="90"/>
-      <c r="P63" s="90"/>
-      <c r="Q63" s="19"/>
-      <c r="R63" s="15"/>
-    </row>
-    <row r="64" spans="2:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B64" s="22">
         <v>49</v>
       </c>
-      <c r="C64" s="93">
-        <v>37</v>
+      <c r="C64" s="166" t="s">
+        <v>328</v>
       </c>
       <c r="D64" s="55" t="s">
         <v>56</v>
@@ -7405,24 +6914,13 @@
       </c>
       <c r="L64" s="59"/>
       <c r="M64" s="15"/>
-      <c r="N64" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="O64" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="P64" s="60" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q64" s="59"/>
-      <c r="R64" s="15"/>
-    </row>
-    <row r="65" spans="2:18" ht="33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="2:13" ht="33" x14ac:dyDescent="0.3">
       <c r="B65" s="22">
         <v>50</v>
       </c>
-      <c r="C65" s="93">
-        <v>38</v>
+      <c r="C65" s="163" t="s">
+        <v>328</v>
       </c>
       <c r="D65" s="93" t="s">
         <v>53</v>
@@ -7450,24 +6948,13 @@
       </c>
       <c r="L65" s="3"/>
       <c r="M65" s="15"/>
-      <c r="N65" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="O65" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P65" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q65" s="3"/>
-      <c r="R65" s="15"/>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B66" s="22">
         <v>51</v>
       </c>
-      <c r="C66" s="7" t="s">
-        <v>40</v>
+      <c r="C66" s="163" t="s">
+        <v>328</v>
       </c>
       <c r="D66" s="20" t="s">
         <v>45</v>
@@ -7495,24 +6982,13 @@
       </c>
       <c r="L66" s="124"/>
       <c r="M66" s="15"/>
-      <c r="N66" s="116" t="s">
-        <v>192</v>
-      </c>
-      <c r="O66" s="45" t="s">
-        <v>195</v>
-      </c>
-      <c r="P66" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q66" s="124"/>
-      <c r="R66" s="15"/>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B67" s="22">
         <v>52</v>
       </c>
-      <c r="C67" s="7" t="s">
-        <v>40</v>
+      <c r="C67" s="163" t="s">
+        <v>328</v>
       </c>
       <c r="D67" s="20" t="s">
         <v>42</v>
@@ -7540,24 +7016,13 @@
       </c>
       <c r="L67" s="124"/>
       <c r="M67" s="15"/>
-      <c r="N67" s="116" t="s">
-        <v>191</v>
-      </c>
-      <c r="O67" s="45" t="s">
-        <v>194</v>
-      </c>
-      <c r="P67" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q67" s="124"/>
-      <c r="R67" s="15"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B68" s="22">
         <v>53</v>
       </c>
-      <c r="C68" s="7" t="s">
-        <v>40</v>
+      <c r="C68" s="163" t="s">
+        <v>328</v>
       </c>
       <c r="D68" s="20" t="s">
         <v>41</v>
@@ -7585,24 +7050,13 @@
       </c>
       <c r="L68" s="124"/>
       <c r="M68" s="15"/>
-      <c r="N68" s="116" t="s">
-        <v>190</v>
-      </c>
-      <c r="O68" s="45" t="s">
-        <v>193</v>
-      </c>
-      <c r="P68" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q68" s="124"/>
-      <c r="R68" s="15"/>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B69" s="22">
         <v>54</v>
       </c>
-      <c r="C69" s="7" t="s">
-        <v>40</v>
+      <c r="C69" s="163" t="s">
+        <v>328</v>
       </c>
       <c r="D69" s="93" t="s">
         <v>71</v>
@@ -7630,24 +7084,13 @@
       </c>
       <c r="L69" s="3"/>
       <c r="M69" s="15"/>
-      <c r="N69" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="O69" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P69" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q69" s="3"/>
-      <c r="R69" s="15"/>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B70" s="22">
         <v>55</v>
       </c>
-      <c r="C70" s="93">
-        <v>39</v>
+      <c r="C70" s="163" t="s">
+        <v>328</v>
       </c>
       <c r="D70" s="93" t="s">
         <v>54</v>
@@ -7675,24 +7118,13 @@
       </c>
       <c r="L70" s="3"/>
       <c r="M70" s="15"/>
-      <c r="N70" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="O70" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P70" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q70" s="3"/>
-      <c r="R70" s="15"/>
-    </row>
-    <row r="71" spans="2:18" ht="33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="2:13" ht="33" x14ac:dyDescent="0.3">
       <c r="B71" s="22">
         <v>56</v>
       </c>
-      <c r="C71" s="93">
-        <v>40</v>
+      <c r="C71" s="163" t="s">
+        <v>328</v>
       </c>
       <c r="D71" s="93" t="s">
         <v>55</v>
@@ -7720,24 +7152,13 @@
       </c>
       <c r="L71" s="3"/>
       <c r="M71" s="15"/>
-      <c r="N71" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="O71" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P71" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q71" s="3"/>
-      <c r="R71" s="15"/>
-    </row>
-    <row r="72" spans="2:18" ht="33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="2:13" ht="33" x14ac:dyDescent="0.3">
       <c r="B72" s="22">
         <v>57</v>
       </c>
-      <c r="C72" s="93">
-        <v>41</v>
+      <c r="C72" s="163" t="s">
+        <v>328</v>
       </c>
       <c r="D72" s="93" t="s">
         <v>63</v>
@@ -7765,24 +7186,13 @@
       </c>
       <c r="L72" s="3"/>
       <c r="M72" s="15"/>
-      <c r="N72" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="O72" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P72" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q72" s="3"/>
-      <c r="R72" s="15"/>
-    </row>
-    <row r="73" spans="2:18" ht="33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="2:13" ht="33" x14ac:dyDescent="0.3">
       <c r="B73" s="22">
         <v>58</v>
       </c>
-      <c r="C73" s="93">
-        <v>42</v>
+      <c r="C73" s="163" t="s">
+        <v>331</v>
       </c>
       <c r="D73" s="93" t="s">
         <v>64</v>
@@ -7810,24 +7220,13 @@
       </c>
       <c r="L73" s="3"/>
       <c r="M73" s="15"/>
-      <c r="N73" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="O73" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P73" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q73" s="3"/>
-      <c r="R73" s="15"/>
-    </row>
-    <row r="74" spans="2:18" ht="33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="2:13" ht="33" x14ac:dyDescent="0.3">
       <c r="B74" s="22">
         <v>59</v>
       </c>
-      <c r="C74" s="93">
-        <v>43</v>
+      <c r="C74" s="163" t="s">
+        <v>331</v>
       </c>
       <c r="D74" s="93" t="s">
         <v>66</v>
@@ -7855,32 +7254,21 @@
       </c>
       <c r="L74" s="3"/>
       <c r="M74" s="15"/>
-      <c r="N74" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="O74" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P74" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q74" s="3"/>
-      <c r="R74" s="15"/>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B75" s="24">
         <v>60</v>
       </c>
-      <c r="C75" s="90">
-        <v>44</v>
+      <c r="C75" s="153" t="s">
+        <v>332</v>
       </c>
       <c r="D75" s="90" t="s">
         <v>156</v>
       </c>
-      <c r="E75" s="142" t="s">
+      <c r="E75" s="149" t="s">
         <v>175</v>
       </c>
-      <c r="F75" s="143"/>
+      <c r="F75" s="150"/>
       <c r="G75" s="24" t="s">
         <v>224</v>
       </c>
@@ -7892,20 +7280,13 @@
       <c r="K75" s="90"/>
       <c r="L75" s="3"/>
       <c r="M75" s="15"/>
-      <c r="N75" s="24" t="s">
-        <v>224</v>
-      </c>
-      <c r="O75" s="90"/>
-      <c r="P75" s="90"/>
-      <c r="Q75" s="3"/>
-      <c r="R75" s="15"/>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B76" s="22">
         <v>61</v>
       </c>
-      <c r="C76" s="93">
-        <v>45</v>
+      <c r="C76" s="163" t="s">
+        <v>331</v>
       </c>
       <c r="D76" s="20" t="s">
         <v>48</v>
@@ -7937,28 +7318,13 @@
       <c r="M76" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="N76" s="116" t="s">
-        <v>234</v>
-      </c>
-      <c r="O76" s="45" t="s">
-        <v>214</v>
-      </c>
-      <c r="P76" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q76" s="45" t="s">
-        <v>231</v>
-      </c>
-      <c r="R76" s="15" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="77" spans="2:18" ht="49.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="2:13" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B77" s="22">
         <v>62</v>
       </c>
-      <c r="C77" s="93">
-        <v>46</v>
+      <c r="C77" s="163" t="s">
+        <v>331</v>
       </c>
       <c r="D77" s="20" t="s">
         <v>47</v>
@@ -7973,7 +7339,7 @@
         <v>37</v>
       </c>
       <c r="H77" s="100" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="I77" s="116" t="s">
         <v>207</v>
@@ -7988,34 +7354,21 @@
       <c r="M77" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="N77" s="131" t="s">
-        <v>207</v>
-      </c>
-      <c r="O77" s="132" t="s">
-        <v>228</v>
-      </c>
-      <c r="P77" s="132" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q77" s="136"/>
-      <c r="R77" s="135" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="78" spans="2:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B78" s="24">
         <v>63</v>
       </c>
-      <c r="C78" s="90">
-        <v>47</v>
+      <c r="C78" s="153" t="s">
+        <v>326</v>
       </c>
       <c r="D78" s="90" t="s">
         <v>150</v>
       </c>
-      <c r="E78" s="142" t="s">
+      <c r="E78" s="149" t="s">
         <v>126</v>
       </c>
-      <c r="F78" s="143"/>
+      <c r="F78" s="150"/>
       <c r="G78" s="24"/>
       <c r="H78" s="101"/>
       <c r="I78" s="24"/>
@@ -8023,26 +7376,21 @@
       <c r="K78" s="90"/>
       <c r="L78" s="19"/>
       <c r="M78" s="15"/>
-      <c r="N78" s="24"/>
-      <c r="O78" s="90"/>
-      <c r="P78" s="90"/>
-      <c r="Q78" s="19"/>
-      <c r="R78" s="15"/>
-    </row>
-    <row r="79" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="79" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B79" s="25">
         <v>64</v>
       </c>
-      <c r="C79" s="91">
-        <v>48</v>
+      <c r="C79" s="154" t="s">
+        <v>326</v>
       </c>
       <c r="D79" s="91" t="s">
         <v>95</v>
       </c>
-      <c r="E79" s="144" t="s">
+      <c r="E79" s="151" t="s">
         <v>107</v>
       </c>
-      <c r="F79" s="145"/>
+      <c r="F79" s="152"/>
       <c r="G79" s="25"/>
       <c r="H79" s="107"/>
       <c r="I79" s="25"/>
@@ -8050,69 +7398,97 @@
       <c r="K79" s="91"/>
       <c r="L79" s="44"/>
       <c r="M79" s="30"/>
-      <c r="N79" s="25"/>
-      <c r="O79" s="91"/>
-      <c r="P79" s="91"/>
-      <c r="Q79" s="44"/>
-      <c r="R79" s="30"/>
-    </row>
-    <row r="84" spans="5:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="G83" s="158" t="s">
+        <v>245</v>
+      </c>
+      <c r="H83" s="103" t="s">
+        <v>222</v>
+      </c>
+      <c r="I83" s="119" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="84" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
-    </row>
-    <row r="85" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="G84" s="158" t="s">
+        <v>246</v>
+      </c>
+      <c r="H84" s="103" t="s">
+        <v>20</v>
+      </c>
+      <c r="I84" s="119" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="85" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
-    </row>
-    <row r="86" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="G85" s="157" t="s">
+        <v>37</v>
+      </c>
+      <c r="H85" s="100" t="s">
+        <v>318</v>
+      </c>
+      <c r="I85" s="116" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="86" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
     </row>
-    <row r="87" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
     </row>
-    <row r="88" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
     </row>
-    <row r="89" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
     </row>
-    <row r="90" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
     </row>
-    <row r="91" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
     </row>
-    <row r="92" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
     </row>
-    <row r="93" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
     </row>
-    <row r="94" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
     </row>
-    <row r="95" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="B15:T79"/>
-  <mergeCells count="24">
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
+  <autoFilter ref="B15:O79"/>
+  <mergeCells count="23">
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="I14:M14"/>
     <mergeCell ref="E46:F46"/>
     <mergeCell ref="E47:F47"/>
     <mergeCell ref="D14:D15"/>
@@ -8120,17 +7496,12 @@
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="E22:F22"/>
-    <mergeCell ref="N14:R14"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="I14:M14"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1_Plasma_Pipette/3_Firmware/Plasma_Gen_MCU_PinMap_20171227.xlsx
+++ b/1_Plasma_Pipette/3_Firmware/Plasma_Gen_MCU_PinMap_20171227.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12975" activeTab="1"/>
@@ -16,7 +16,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Pin-map V1.0'!$B$15:$T$79</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Pipette V1.0'!$B$15:$O$79</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -1334,7 +1334,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
@@ -2083,119 +2083,119 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2213,6 +2213,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2431,7 +2434,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2466,7 +2469,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2720,10 +2723,10 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B3" s="135" t="s">
+      <c r="B3" s="162" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="136"/>
+      <c r="C3" s="163"/>
       <c r="D3" s="2">
         <v>128</v>
       </c>
@@ -2742,10 +2745,10 @@
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="137" t="s">
+      <c r="B4" s="164" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="138"/>
+      <c r="C4" s="165"/>
       <c r="D4" s="3">
         <v>16</v>
       </c>
@@ -2765,10 +2768,10 @@
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B5" s="137" t="s">
+      <c r="B5" s="164" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="138"/>
+      <c r="C5" s="165"/>
       <c r="D5" s="3">
         <v>48</v>
       </c>
@@ -2790,10 +2793,10 @@
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="137" t="s">
+      <c r="B6" s="164" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="138"/>
+      <c r="C6" s="165"/>
       <c r="D6" s="3" t="s">
         <v>10</v>
       </c>
@@ -2810,10 +2813,10 @@
       <c r="I6" s="15"/>
     </row>
     <row r="7" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="139" t="s">
+      <c r="B7" s="166" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="140"/>
+      <c r="C7" s="167"/>
       <c r="D7" s="4" t="s">
         <v>13</v>
       </c>
@@ -2882,28 +2885,28 @@
     </row>
     <row r="13" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="14" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="147" t="s">
+      <c r="B14" s="155" t="s">
         <v>109</v>
       </c>
-      <c r="C14" s="141"/>
-      <c r="D14" s="141" t="s">
+      <c r="C14" s="156"/>
+      <c r="D14" s="156" t="s">
         <v>94</v>
       </c>
-      <c r="E14" s="141" t="s">
+      <c r="E14" s="156" t="s">
         <v>96</v>
       </c>
-      <c r="F14" s="142"/>
-      <c r="G14" s="131" t="s">
+      <c r="F14" s="168"/>
+      <c r="G14" s="158" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="132"/>
-      <c r="I14" s="131" t="s">
+      <c r="H14" s="159"/>
+      <c r="I14" s="158" t="s">
         <v>93</v>
       </c>
-      <c r="J14" s="133"/>
-      <c r="K14" s="133"/>
-      <c r="L14" s="133"/>
-      <c r="M14" s="134"/>
+      <c r="J14" s="160"/>
+      <c r="K14" s="160"/>
+      <c r="L14" s="160"/>
+      <c r="M14" s="161"/>
     </row>
     <row r="15" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="6" t="s">
@@ -2912,7 +2915,7 @@
       <c r="C15" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="D15" s="148"/>
+      <c r="D15" s="157"/>
       <c r="E15" s="14" t="s">
         <v>179</v>
       </c>
@@ -2951,10 +2954,10 @@
       <c r="D16" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="E16" s="143" t="s">
+      <c r="E16" s="151" t="s">
         <v>107</v>
       </c>
-      <c r="F16" s="144"/>
+      <c r="F16" s="152"/>
       <c r="G16" s="41"/>
       <c r="H16" s="97"/>
       <c r="I16" s="111"/>
@@ -3143,10 +3146,10 @@
       <c r="D22" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="E22" s="145" t="s">
+      <c r="E22" s="153" t="s">
         <v>108</v>
       </c>
-      <c r="F22" s="146"/>
+      <c r="F22" s="154"/>
       <c r="G22" s="39" t="s">
         <v>206</v>
       </c>
@@ -3311,10 +3314,10 @@
       <c r="D27" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="E27" s="149" t="s">
+      <c r="E27" s="147" t="s">
         <v>120</v>
       </c>
-      <c r="F27" s="150"/>
+      <c r="F27" s="148"/>
       <c r="G27" s="24"/>
       <c r="H27" s="101"/>
       <c r="I27" s="24"/>
@@ -3333,10 +3336,10 @@
       <c r="D28" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="E28" s="149" t="s">
+      <c r="E28" s="147" t="s">
         <v>121</v>
       </c>
-      <c r="F28" s="150"/>
+      <c r="F28" s="148"/>
       <c r="G28" s="24"/>
       <c r="H28" s="101"/>
       <c r="I28" s="24"/>
@@ -3491,10 +3494,10 @@
       <c r="D33" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="E33" s="149" t="s">
+      <c r="E33" s="147" t="s">
         <v>126</v>
       </c>
-      <c r="F33" s="150"/>
+      <c r="F33" s="148"/>
       <c r="G33" s="24"/>
       <c r="H33" s="101"/>
       <c r="I33" s="24"/>
@@ -3513,10 +3516,10 @@
       <c r="D34" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="E34" s="149" t="s">
+      <c r="E34" s="147" t="s">
         <v>107</v>
       </c>
-      <c r="F34" s="150"/>
+      <c r="F34" s="148"/>
       <c r="G34" s="24"/>
       <c r="H34" s="101"/>
       <c r="I34" s="24"/>
@@ -3913,10 +3916,10 @@
       <c r="D46" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="E46" s="149" t="s">
+      <c r="E46" s="147" t="s">
         <v>126</v>
       </c>
-      <c r="F46" s="150"/>
+      <c r="F46" s="148"/>
       <c r="G46" s="24"/>
       <c r="H46" s="101"/>
       <c r="I46" s="24"/>
@@ -3935,10 +3938,10 @@
       <c r="D47" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="E47" s="149" t="s">
+      <c r="E47" s="147" t="s">
         <v>107</v>
       </c>
-      <c r="F47" s="150"/>
+      <c r="F47" s="148"/>
       <c r="G47" s="24"/>
       <c r="H47" s="101"/>
       <c r="I47" s="24"/>
@@ -4443,10 +4446,10 @@
       <c r="D62" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="E62" s="149" t="s">
+      <c r="E62" s="147" t="s">
         <v>126</v>
       </c>
-      <c r="F62" s="150"/>
+      <c r="F62" s="148"/>
       <c r="G62" s="24"/>
       <c r="H62" s="101"/>
       <c r="I62" s="24"/>
@@ -4465,10 +4468,10 @@
       <c r="D63" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="E63" s="149" t="s">
+      <c r="E63" s="147" t="s">
         <v>107</v>
       </c>
-      <c r="F63" s="150"/>
+      <c r="F63" s="148"/>
       <c r="G63" s="24"/>
       <c r="H63" s="101"/>
       <c r="I63" s="24"/>
@@ -4861,10 +4864,10 @@
       <c r="D75" s="40" t="s">
         <v>156</v>
       </c>
-      <c r="E75" s="149" t="s">
+      <c r="E75" s="147" t="s">
         <v>175</v>
       </c>
-      <c r="F75" s="150"/>
+      <c r="F75" s="148"/>
       <c r="G75" s="24" t="s">
         <v>224</v>
       </c>
@@ -4961,10 +4964,10 @@
       <c r="D78" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="E78" s="149" t="s">
+      <c r="E78" s="147" t="s">
         <v>126</v>
       </c>
-      <c r="F78" s="150"/>
+      <c r="F78" s="148"/>
       <c r="G78" s="24"/>
       <c r="H78" s="101"/>
       <c r="I78" s="24"/>
@@ -4983,10 +4986,10 @@
       <c r="D79" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="E79" s="151" t="s">
+      <c r="E79" s="149" t="s">
         <v>107</v>
       </c>
-      <c r="F79" s="152"/>
+      <c r="F79" s="150"/>
       <c r="G79" s="25"/>
       <c r="H79" s="107"/>
       <c r="I79" s="25"/>
@@ -5046,21 +5049,6 @@
   </sheetData>
   <autoFilter ref="B15:T79"/>
   <mergeCells count="23">
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E27:F27"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="I14:M14"/>
     <mergeCell ref="B3:C3"/>
@@ -5069,6 +5057,21 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="E75:F75"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5080,8 +5083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P38" sqref="P38"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J73" sqref="J73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5120,10 +5123,10 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B3" s="135" t="s">
+      <c r="B3" s="162" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="136"/>
+      <c r="C3" s="163"/>
       <c r="D3" s="2">
         <v>128</v>
       </c>
@@ -5142,10 +5145,10 @@
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="137" t="s">
+      <c r="B4" s="164" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="138"/>
+      <c r="C4" s="165"/>
       <c r="D4" s="3">
         <v>16</v>
       </c>
@@ -5165,10 +5168,10 @@
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B5" s="137" t="s">
+      <c r="B5" s="164" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="138"/>
+      <c r="C5" s="165"/>
       <c r="D5" s="3">
         <v>48</v>
       </c>
@@ -5190,10 +5193,10 @@
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="137" t="s">
+      <c r="B6" s="164" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="138"/>
+      <c r="C6" s="165"/>
       <c r="D6" s="3" t="s">
         <v>10</v>
       </c>
@@ -5210,10 +5213,10 @@
       <c r="I6" s="15"/>
     </row>
     <row r="7" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="139" t="s">
+      <c r="B7" s="166" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="140"/>
+      <c r="C7" s="167"/>
       <c r="D7" s="4" t="s">
         <v>13</v>
       </c>
@@ -5282,37 +5285,37 @@
     </row>
     <row r="13" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="14" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="147" t="s">
+      <c r="B14" s="155" t="s">
         <v>109</v>
       </c>
-      <c r="C14" s="141"/>
-      <c r="D14" s="141" t="s">
+      <c r="C14" s="156"/>
+      <c r="D14" s="156" t="s">
         <v>94</v>
       </c>
-      <c r="E14" s="141" t="s">
+      <c r="E14" s="156" t="s">
         <v>96</v>
       </c>
-      <c r="F14" s="142"/>
-      <c r="G14" s="131" t="s">
+      <c r="F14" s="168"/>
+      <c r="G14" s="158" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="132"/>
-      <c r="I14" s="131" t="s">
+      <c r="H14" s="159"/>
+      <c r="I14" s="158" t="s">
         <v>323</v>
       </c>
-      <c r="J14" s="133"/>
-      <c r="K14" s="133"/>
-      <c r="L14" s="133"/>
-      <c r="M14" s="134"/>
+      <c r="J14" s="160"/>
+      <c r="K14" s="160"/>
+      <c r="L14" s="160"/>
+      <c r="M14" s="161"/>
     </row>
     <row r="15" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C15" s="164" t="s">
+      <c r="C15" s="142" t="s">
         <v>325</v>
       </c>
-      <c r="D15" s="148"/>
+      <c r="D15" s="157"/>
       <c r="E15" s="95" t="s">
         <v>179</v>
       </c>
@@ -5345,16 +5348,16 @@
       <c r="B16" s="17">
         <v>1</v>
       </c>
-      <c r="C16" s="156" t="s">
+      <c r="C16" s="134" t="s">
         <v>326</v>
       </c>
       <c r="D16" s="92" t="s">
         <v>95</v>
       </c>
-      <c r="E16" s="143" t="s">
+      <c r="E16" s="151" t="s">
         <v>107</v>
       </c>
-      <c r="F16" s="144"/>
+      <c r="F16" s="152"/>
       <c r="G16" s="41"/>
       <c r="H16" s="97"/>
       <c r="I16" s="111"/>
@@ -5367,7 +5370,7 @@
       <c r="B17" s="22">
         <v>2</v>
       </c>
-      <c r="C17" s="160" t="s">
+      <c r="C17" s="138" t="s">
         <v>327</v>
       </c>
       <c r="D17" s="93" t="s">
@@ -5401,7 +5404,7 @@
       <c r="B18" s="22">
         <v>3</v>
       </c>
-      <c r="C18" s="160" t="s">
+      <c r="C18" s="138" t="s">
         <v>327</v>
       </c>
       <c r="D18" s="93" t="s">
@@ -5435,7 +5438,7 @@
       <c r="B19" s="22">
         <v>4</v>
       </c>
-      <c r="C19" s="160" t="s">
+      <c r="C19" s="138" t="s">
         <v>327</v>
       </c>
       <c r="D19" s="93" t="s">
@@ -5469,7 +5472,7 @@
       <c r="B20" s="22">
         <v>5</v>
       </c>
-      <c r="C20" s="161" t="s">
+      <c r="C20" s="139" t="s">
         <v>328</v>
       </c>
       <c r="D20" s="93" t="s">
@@ -5503,7 +5506,7 @@
       <c r="B21" s="22">
         <v>6</v>
       </c>
-      <c r="C21" s="161" t="s">
+      <c r="C21" s="139" t="s">
         <v>328</v>
       </c>
       <c r="D21" s="93" t="s">
@@ -5537,16 +5540,16 @@
       <c r="B22" s="22">
         <v>7</v>
       </c>
-      <c r="C22" s="159" t="s">
+      <c r="C22" s="137" t="s">
         <v>329</v>
       </c>
       <c r="D22" s="93" t="s">
         <v>101</v>
       </c>
-      <c r="E22" s="145" t="s">
+      <c r="E22" s="153" t="s">
         <v>108</v>
       </c>
-      <c r="F22" s="146"/>
+      <c r="F22" s="154"/>
       <c r="G22" s="39" t="s">
         <v>101</v>
       </c>
@@ -5569,7 +5572,7 @@
       <c r="B23" s="22">
         <v>8</v>
       </c>
-      <c r="C23" s="162" t="s">
+      <c r="C23" s="140" t="s">
         <v>330</v>
       </c>
       <c r="D23" s="93" t="s">
@@ -5603,7 +5606,7 @@
       <c r="B24" s="22">
         <v>9</v>
       </c>
-      <c r="C24" s="162" t="s">
+      <c r="C24" s="140" t="s">
         <v>330</v>
       </c>
       <c r="D24" s="20" t="s">
@@ -5637,7 +5640,7 @@
       <c r="B25" s="22">
         <v>10</v>
       </c>
-      <c r="C25" s="162" t="s">
+      <c r="C25" s="140" t="s">
         <v>330</v>
       </c>
       <c r="D25" s="20" t="s">
@@ -5671,7 +5674,7 @@
       <c r="B26" s="22">
         <v>11</v>
       </c>
-      <c r="C26" s="162" t="s">
+      <c r="C26" s="140" t="s">
         <v>330</v>
       </c>
       <c r="D26" s="20" t="s">
@@ -5705,16 +5708,16 @@
       <c r="B27" s="24">
         <v>12</v>
       </c>
-      <c r="C27" s="155" t="s">
+      <c r="C27" s="133" t="s">
         <v>326</v>
       </c>
       <c r="D27" s="90" t="s">
         <v>118</v>
       </c>
-      <c r="E27" s="149" t="s">
+      <c r="E27" s="147" t="s">
         <v>120</v>
       </c>
-      <c r="F27" s="150"/>
+      <c r="F27" s="148"/>
       <c r="G27" s="24"/>
       <c r="H27" s="101"/>
       <c r="I27" s="24"/>
@@ -5727,16 +5730,16 @@
       <c r="B28" s="24">
         <v>13</v>
       </c>
-      <c r="C28" s="155" t="s">
+      <c r="C28" s="133" t="s">
         <v>326</v>
       </c>
       <c r="D28" s="90" t="s">
         <v>119</v>
       </c>
-      <c r="E28" s="149" t="s">
+      <c r="E28" s="147" t="s">
         <v>121</v>
       </c>
-      <c r="F28" s="150"/>
+      <c r="F28" s="148"/>
       <c r="G28" s="24"/>
       <c r="H28" s="101"/>
       <c r="I28" s="24"/>
@@ -5749,7 +5752,7 @@
       <c r="B29" s="22">
         <v>14</v>
       </c>
-      <c r="C29" s="162" t="s">
+      <c r="C29" s="140" t="s">
         <v>330</v>
       </c>
       <c r="D29" s="93" t="s">
@@ -5783,7 +5786,7 @@
       <c r="B30" s="22">
         <v>15</v>
       </c>
-      <c r="C30" s="162" t="s">
+      <c r="C30" s="140" t="s">
         <v>330</v>
       </c>
       <c r="D30" s="93" t="s">
@@ -5819,7 +5822,7 @@
       <c r="B31" s="22">
         <v>16</v>
       </c>
-      <c r="C31" s="165" t="s">
+      <c r="C31" s="143" t="s">
         <v>330</v>
       </c>
       <c r="D31" s="93" t="s">
@@ -5855,7 +5858,7 @@
       <c r="B32" s="22">
         <v>17</v>
       </c>
-      <c r="C32" s="167" t="s">
+      <c r="C32" s="145" t="s">
         <v>330</v>
       </c>
       <c r="D32" s="93" t="s">
@@ -5889,16 +5892,16 @@
       <c r="B33" s="24">
         <v>18</v>
       </c>
-      <c r="C33" s="155" t="s">
+      <c r="C33" s="133" t="s">
         <v>326</v>
       </c>
       <c r="D33" s="90" t="s">
         <v>150</v>
       </c>
-      <c r="E33" s="149" t="s">
+      <c r="E33" s="147" t="s">
         <v>126</v>
       </c>
-      <c r="F33" s="150"/>
+      <c r="F33" s="148"/>
       <c r="G33" s="24"/>
       <c r="H33" s="101"/>
       <c r="I33" s="24"/>
@@ -5911,16 +5914,16 @@
       <c r="B34" s="24">
         <v>19</v>
       </c>
-      <c r="C34" s="155" t="s">
+      <c r="C34" s="133" t="s">
         <v>326</v>
       </c>
       <c r="D34" s="90" t="s">
         <v>95</v>
       </c>
-      <c r="E34" s="149" t="s">
+      <c r="E34" s="147" t="s">
         <v>107</v>
       </c>
-      <c r="F34" s="150"/>
+      <c r="F34" s="148"/>
       <c r="G34" s="24"/>
       <c r="H34" s="101"/>
       <c r="I34" s="24"/>
@@ -5933,7 +5936,7 @@
       <c r="B35" s="22">
         <v>20</v>
       </c>
-      <c r="C35" s="162" t="s">
+      <c r="C35" s="140" t="s">
         <v>330</v>
       </c>
       <c r="D35" s="93" t="s">
@@ -5967,7 +5970,7 @@
       <c r="B36" s="22">
         <v>21</v>
       </c>
-      <c r="C36" s="162" t="s">
+      <c r="C36" s="140" t="s">
         <v>330</v>
       </c>
       <c r="D36" s="93" t="s">
@@ -6001,7 +6004,7 @@
       <c r="B37" s="22">
         <v>22</v>
       </c>
-      <c r="C37" s="162" t="s">
+      <c r="C37" s="140" t="s">
         <v>330</v>
       </c>
       <c r="D37" s="27" t="s">
@@ -6035,7 +6038,7 @@
       <c r="B38" s="22">
         <v>23</v>
       </c>
-      <c r="C38" s="162" t="s">
+      <c r="C38" s="140" t="s">
         <v>330</v>
       </c>
       <c r="D38" s="93" t="s">
@@ -6069,7 +6072,7 @@
       <c r="B39" s="22">
         <v>24</v>
       </c>
-      <c r="C39" s="162" t="s">
+      <c r="C39" s="140" t="s">
         <v>330</v>
       </c>
       <c r="D39" s="93" t="s">
@@ -6103,7 +6106,7 @@
       <c r="B40" s="22">
         <v>25</v>
       </c>
-      <c r="C40" s="162" t="s">
+      <c r="C40" s="140" t="s">
         <v>330</v>
       </c>
       <c r="D40" s="20" t="s">
@@ -6139,7 +6142,7 @@
       <c r="B41" s="22">
         <v>26</v>
       </c>
-      <c r="C41" s="162" t="s">
+      <c r="C41" s="140" t="s">
         <v>330</v>
       </c>
       <c r="D41" s="20" t="s">
@@ -6173,7 +6176,7 @@
       <c r="B42" s="22">
         <v>27</v>
       </c>
-      <c r="C42" s="162" t="s">
+      <c r="C42" s="140" t="s">
         <v>330</v>
       </c>
       <c r="D42" s="20" t="s">
@@ -6209,7 +6212,7 @@
       <c r="B43" s="22">
         <v>28</v>
       </c>
-      <c r="C43" s="163" t="s">
+      <c r="C43" s="141" t="s">
         <v>328</v>
       </c>
       <c r="D43" s="93" t="s">
@@ -6243,7 +6246,7 @@
       <c r="B44" s="22">
         <v>29</v>
       </c>
-      <c r="C44" s="163" t="s">
+      <c r="C44" s="141" t="s">
         <v>328</v>
       </c>
       <c r="D44" s="93" t="s">
@@ -6277,7 +6280,7 @@
       <c r="B45" s="22">
         <v>30</v>
       </c>
-      <c r="C45" s="163" t="s">
+      <c r="C45" s="141" t="s">
         <v>328</v>
       </c>
       <c r="D45" s="93" t="s">
@@ -6311,16 +6314,16 @@
       <c r="B46" s="24">
         <v>31</v>
       </c>
-      <c r="C46" s="153" t="s">
+      <c r="C46" s="131" t="s">
         <v>326</v>
       </c>
       <c r="D46" s="90" t="s">
         <v>150</v>
       </c>
-      <c r="E46" s="149" t="s">
+      <c r="E46" s="147" t="s">
         <v>126</v>
       </c>
-      <c r="F46" s="150"/>
+      <c r="F46" s="148"/>
       <c r="G46" s="24"/>
       <c r="H46" s="101"/>
       <c r="I46" s="24"/>
@@ -6333,16 +6336,16 @@
       <c r="B47" s="24">
         <v>32</v>
       </c>
-      <c r="C47" s="154" t="s">
+      <c r="C47" s="132" t="s">
         <v>326</v>
       </c>
       <c r="D47" s="90" t="s">
         <v>95</v>
       </c>
-      <c r="E47" s="149" t="s">
+      <c r="E47" s="147" t="s">
         <v>107</v>
       </c>
-      <c r="F47" s="150"/>
+      <c r="F47" s="148"/>
       <c r="G47" s="24"/>
       <c r="H47" s="101"/>
       <c r="I47" s="24"/>
@@ -6355,7 +6358,7 @@
       <c r="B48" s="22">
         <v>33</v>
       </c>
-      <c r="C48" s="168" t="s">
+      <c r="C48" s="146" t="s">
         <v>328</v>
       </c>
       <c r="D48" s="20" t="s">
@@ -6391,7 +6394,7 @@
       <c r="B49" s="22">
         <v>34</v>
       </c>
-      <c r="C49" s="163" t="s">
+      <c r="C49" s="141" t="s">
         <v>331</v>
       </c>
       <c r="D49" s="93" t="s">
@@ -6425,7 +6428,7 @@
       <c r="B50" s="22">
         <v>35</v>
       </c>
-      <c r="C50" s="163" t="s">
+      <c r="C50" s="141" t="s">
         <v>331</v>
       </c>
       <c r="D50" s="93" t="s">
@@ -6459,7 +6462,7 @@
       <c r="B51" s="22">
         <v>36</v>
       </c>
-      <c r="C51" s="163" t="s">
+      <c r="C51" s="141" t="s">
         <v>328</v>
       </c>
       <c r="D51" s="20" t="s">
@@ -6497,7 +6500,7 @@
       <c r="B52" s="22">
         <v>37</v>
       </c>
-      <c r="C52" s="163" t="s">
+      <c r="C52" s="141" t="s">
         <v>328</v>
       </c>
       <c r="D52" s="93" t="s">
@@ -6531,7 +6534,7 @@
       <c r="B53" s="22">
         <v>38</v>
       </c>
-      <c r="C53" s="163" t="s">
+      <c r="C53" s="141" t="s">
         <v>328</v>
       </c>
       <c r="D53" s="20" t="s">
@@ -6569,7 +6572,7 @@
       <c r="B54" s="22">
         <v>39</v>
       </c>
-      <c r="C54" s="163" t="s">
+      <c r="C54" s="141" t="s">
         <v>328</v>
       </c>
       <c r="D54" s="93" t="s">
@@ -6603,7 +6606,7 @@
       <c r="B55" s="22">
         <v>40</v>
       </c>
-      <c r="C55" s="163" t="s">
+      <c r="C55" s="141" t="s">
         <v>328</v>
       </c>
       <c r="D55" s="93" t="s">
@@ -6637,7 +6640,7 @@
       <c r="B56" s="22">
         <v>41</v>
       </c>
-      <c r="C56" s="163" t="s">
+      <c r="C56" s="141" t="s">
         <v>328</v>
       </c>
       <c r="D56" s="27" t="s">
@@ -6671,7 +6674,7 @@
       <c r="B57" s="22">
         <v>42</v>
       </c>
-      <c r="C57" s="163" t="s">
+      <c r="C57" s="141" t="s">
         <v>328</v>
       </c>
       <c r="D57" s="48" t="s">
@@ -6705,7 +6708,7 @@
       <c r="B58" s="22">
         <v>43</v>
       </c>
-      <c r="C58" s="163" t="s">
+      <c r="C58" s="141" t="s">
         <v>328</v>
       </c>
       <c r="D58" s="48" t="s">
@@ -6739,7 +6742,7 @@
       <c r="B59" s="22">
         <v>44</v>
       </c>
-      <c r="C59" s="163" t="s">
+      <c r="C59" s="141" t="s">
         <v>328</v>
       </c>
       <c r="D59" s="27" t="s">
@@ -6773,7 +6776,7 @@
       <c r="B60" s="22">
         <v>45</v>
       </c>
-      <c r="C60" s="163" t="s">
+      <c r="C60" s="141" t="s">
         <v>328</v>
       </c>
       <c r="D60" s="20" t="s">
@@ -6807,7 +6810,7 @@
       <c r="B61" s="22">
         <v>46</v>
       </c>
-      <c r="C61" s="163" t="s">
+      <c r="C61" s="141" t="s">
         <v>328</v>
       </c>
       <c r="D61" s="55" t="s">
@@ -6841,16 +6844,16 @@
       <c r="B62" s="24">
         <v>47</v>
       </c>
-      <c r="C62" s="153" t="s">
+      <c r="C62" s="131" t="s">
         <v>326</v>
       </c>
       <c r="D62" s="90" t="s">
         <v>150</v>
       </c>
-      <c r="E62" s="149" t="s">
+      <c r="E62" s="147" t="s">
         <v>126</v>
       </c>
-      <c r="F62" s="150"/>
+      <c r="F62" s="148"/>
       <c r="G62" s="24"/>
       <c r="H62" s="101"/>
       <c r="I62" s="24"/>
@@ -6863,16 +6866,16 @@
       <c r="B63" s="24">
         <v>48</v>
       </c>
-      <c r="C63" s="154" t="s">
+      <c r="C63" s="132" t="s">
         <v>326</v>
       </c>
       <c r="D63" s="90" t="s">
         <v>95</v>
       </c>
-      <c r="E63" s="149" t="s">
+      <c r="E63" s="147" t="s">
         <v>107</v>
       </c>
-      <c r="F63" s="150"/>
+      <c r="F63" s="148"/>
       <c r="G63" s="24"/>
       <c r="H63" s="101"/>
       <c r="I63" s="24"/>
@@ -6885,7 +6888,7 @@
       <c r="B64" s="22">
         <v>49</v>
       </c>
-      <c r="C64" s="166" t="s">
+      <c r="C64" s="144" t="s">
         <v>328</v>
       </c>
       <c r="D64" s="55" t="s">
@@ -6919,7 +6922,7 @@
       <c r="B65" s="22">
         <v>50</v>
       </c>
-      <c r="C65" s="163" t="s">
+      <c r="C65" s="141" t="s">
         <v>328</v>
       </c>
       <c r="D65" s="93" t="s">
@@ -6953,7 +6956,7 @@
       <c r="B66" s="22">
         <v>51</v>
       </c>
-      <c r="C66" s="163" t="s">
+      <c r="C66" s="141" t="s">
         <v>328</v>
       </c>
       <c r="D66" s="20" t="s">
@@ -6987,7 +6990,7 @@
       <c r="B67" s="22">
         <v>52</v>
       </c>
-      <c r="C67" s="163" t="s">
+      <c r="C67" s="141" t="s">
         <v>328</v>
       </c>
       <c r="D67" s="20" t="s">
@@ -7021,7 +7024,7 @@
       <c r="B68" s="22">
         <v>53</v>
       </c>
-      <c r="C68" s="163" t="s">
+      <c r="C68" s="141" t="s">
         <v>328</v>
       </c>
       <c r="D68" s="20" t="s">
@@ -7055,7 +7058,7 @@
       <c r="B69" s="22">
         <v>54</v>
       </c>
-      <c r="C69" s="163" t="s">
+      <c r="C69" s="141" t="s">
         <v>328</v>
       </c>
       <c r="D69" s="93" t="s">
@@ -7089,7 +7092,7 @@
       <c r="B70" s="22">
         <v>55</v>
       </c>
-      <c r="C70" s="163" t="s">
+      <c r="C70" s="141" t="s">
         <v>328</v>
       </c>
       <c r="D70" s="93" t="s">
@@ -7123,7 +7126,7 @@
       <c r="B71" s="22">
         <v>56</v>
       </c>
-      <c r="C71" s="163" t="s">
+      <c r="C71" s="141" t="s">
         <v>328</v>
       </c>
       <c r="D71" s="93" t="s">
@@ -7157,7 +7160,7 @@
       <c r="B72" s="22">
         <v>57</v>
       </c>
-      <c r="C72" s="163" t="s">
+      <c r="C72" s="141" t="s">
         <v>328</v>
       </c>
       <c r="D72" s="93" t="s">
@@ -7191,7 +7194,7 @@
       <c r="B73" s="22">
         <v>58</v>
       </c>
-      <c r="C73" s="163" t="s">
+      <c r="C73" s="141" t="s">
         <v>331</v>
       </c>
       <c r="D73" s="93" t="s">
@@ -7225,7 +7228,7 @@
       <c r="B74" s="22">
         <v>59</v>
       </c>
-      <c r="C74" s="163" t="s">
+      <c r="C74" s="141" t="s">
         <v>331</v>
       </c>
       <c r="D74" s="93" t="s">
@@ -7259,16 +7262,16 @@
       <c r="B75" s="24">
         <v>60</v>
       </c>
-      <c r="C75" s="153" t="s">
+      <c r="C75" s="131" t="s">
         <v>332</v>
       </c>
       <c r="D75" s="90" t="s">
         <v>156</v>
       </c>
-      <c r="E75" s="149" t="s">
+      <c r="E75" s="147" t="s">
         <v>175</v>
       </c>
-      <c r="F75" s="150"/>
+      <c r="F75" s="148"/>
       <c r="G75" s="24" t="s">
         <v>224</v>
       </c>
@@ -7285,7 +7288,7 @@
       <c r="B76" s="22">
         <v>61</v>
       </c>
-      <c r="C76" s="163" t="s">
+      <c r="C76" s="141" t="s">
         <v>331</v>
       </c>
       <c r="D76" s="20" t="s">
@@ -7323,7 +7326,7 @@
       <c r="B77" s="22">
         <v>62</v>
       </c>
-      <c r="C77" s="163" t="s">
+      <c r="C77" s="141" t="s">
         <v>331</v>
       </c>
       <c r="D77" s="20" t="s">
@@ -7359,16 +7362,16 @@
       <c r="B78" s="24">
         <v>63</v>
       </c>
-      <c r="C78" s="153" t="s">
+      <c r="C78" s="131" t="s">
         <v>326</v>
       </c>
       <c r="D78" s="90" t="s">
         <v>150</v>
       </c>
-      <c r="E78" s="149" t="s">
+      <c r="E78" s="147" t="s">
         <v>126</v>
       </c>
-      <c r="F78" s="150"/>
+      <c r="F78" s="148"/>
       <c r="G78" s="24"/>
       <c r="H78" s="101"/>
       <c r="I78" s="24"/>
@@ -7381,16 +7384,16 @@
       <c r="B79" s="25">
         <v>64</v>
       </c>
-      <c r="C79" s="154" t="s">
+      <c r="C79" s="132" t="s">
         <v>326</v>
       </c>
       <c r="D79" s="91" t="s">
         <v>95</v>
       </c>
-      <c r="E79" s="151" t="s">
+      <c r="E79" s="149" t="s">
         <v>107</v>
       </c>
-      <c r="F79" s="152"/>
+      <c r="F79" s="150"/>
       <c r="G79" s="25"/>
       <c r="H79" s="107"/>
       <c r="I79" s="25"/>
@@ -7400,7 +7403,7 @@
       <c r="M79" s="30"/>
     </row>
     <row r="83" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="G83" s="158" t="s">
+      <c r="G83" s="136" t="s">
         <v>245</v>
       </c>
       <c r="H83" s="103" t="s">
@@ -7413,7 +7416,7 @@
     <row r="84" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
-      <c r="G84" s="158" t="s">
+      <c r="G84" s="136" t="s">
         <v>246</v>
       </c>
       <c r="H84" s="103" t="s">
@@ -7426,7 +7429,7 @@
     <row r="85" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
-      <c r="G85" s="157" t="s">
+      <c r="G85" s="135" t="s">
         <v>37</v>
       </c>
       <c r="H85" s="100" t="s">
@@ -7479,16 +7482,12 @@
   </sheetData>
   <autoFilter ref="B15:O79"/>
   <mergeCells count="23">
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="I14:M14"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
     <mergeCell ref="E46:F46"/>
     <mergeCell ref="E47:F47"/>
     <mergeCell ref="D14:D15"/>
@@ -7496,12 +7495,16 @@
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="E22:F22"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="I14:M14"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="E79:F79"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1_Plasma_Pipette/3_Firmware/Plasma_Gen_MCU_PinMap_20171227.xlsx
+++ b/1_Plasma_Pipette/3_Firmware/Plasma_Gen_MCU_PinMap_20171227.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12975" activeTab="1"/>
@@ -16,12 +16,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Pin-map V1.0'!$B$15:$T$79</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Pipette V1.0'!$B$15:$O$79</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="353">
   <si>
     <t>Function</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1251,14 +1251,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>HW_ID0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HW_ID1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>HW Version</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1267,15 +1259,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>V2.0 추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CHG_STA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ADC_IN9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pipette V1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Power On key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I/O</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>TC</t>
+  </si>
+  <si>
+    <t>FT</t>
+  </si>
+  <si>
+    <t>RST</t>
+  </si>
+  <si>
+    <t>TTa</t>
+  </si>
+  <si>
+    <t>FTf</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>STA_LED_B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STA_LED_G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STA_LED_R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POWER LED-Red</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1283,62 +1319,106 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>PULL-UP</t>
+    <t>ADC_IN7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC_IN14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No-PULL</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Gas input detection</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HIGH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GAS_IN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pipette V1.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Power On key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I/O</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>TC</t>
-  </si>
-  <si>
-    <t>FT</t>
-  </si>
-  <si>
-    <t>RST</t>
-  </si>
-  <si>
-    <t>TTa</t>
-  </si>
-  <si>
-    <t>FTf</t>
-  </si>
-  <si>
-    <t>B</t>
+    <t>LED_LOW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED_MED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED_HIGH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plsma Level Low</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plsma Level Middle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plsma Level High</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GAS_EN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas S/V On Signal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPIO_EXTI6_Falling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEY_DOWN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEY_UP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plasma Level control</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPIO_EXTI4_Falling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HW_ID0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HW_ID1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEY_PWR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BAT_ADC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BATT_THERM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USART1_TX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1400,17 +1480,8 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1474,6 +1545,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1717,7 +1794,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="169">
+  <cellXfs count="200">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1844,9 +1921,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2068,18 +2142,6 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2101,9 +2163,6 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2119,29 +2178,47 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2158,44 +2235,137 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2434,7 +2604,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2469,7 +2639,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2723,10 +2893,10 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B3" s="162" t="s">
+      <c r="B3" s="143" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="163"/>
+      <c r="C3" s="144"/>
       <c r="D3" s="2">
         <v>128</v>
       </c>
@@ -2745,10 +2915,10 @@
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="164" t="s">
+      <c r="B4" s="145" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="165"/>
+      <c r="C4" s="146"/>
       <c r="D4" s="3">
         <v>16</v>
       </c>
@@ -2768,10 +2938,10 @@
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B5" s="164" t="s">
+      <c r="B5" s="145" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="165"/>
+      <c r="C5" s="146"/>
       <c r="D5" s="3">
         <v>48</v>
       </c>
@@ -2793,10 +2963,10 @@
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="164" t="s">
+      <c r="B6" s="145" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="165"/>
+      <c r="C6" s="146"/>
       <c r="D6" s="3" t="s">
         <v>10</v>
       </c>
@@ -2813,10 +2983,10 @@
       <c r="I6" s="15"/>
     </row>
     <row r="7" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="166" t="s">
+      <c r="B7" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="167"/>
+      <c r="C7" s="148"/>
       <c r="D7" s="4" t="s">
         <v>13</v>
       </c>
@@ -2888,25 +3058,25 @@
       <c r="B14" s="155" t="s">
         <v>109</v>
       </c>
-      <c r="C14" s="156"/>
-      <c r="D14" s="156" t="s">
+      <c r="C14" s="149"/>
+      <c r="D14" s="149" t="s">
         <v>94</v>
       </c>
-      <c r="E14" s="156" t="s">
+      <c r="E14" s="149" t="s">
         <v>96</v>
       </c>
-      <c r="F14" s="168"/>
-      <c r="G14" s="158" t="s">
+      <c r="F14" s="150"/>
+      <c r="G14" s="139" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="159"/>
-      <c r="I14" s="158" t="s">
+      <c r="H14" s="140"/>
+      <c r="I14" s="139" t="s">
         <v>93</v>
       </c>
-      <c r="J14" s="160"/>
-      <c r="K14" s="160"/>
-      <c r="L14" s="160"/>
-      <c r="M14" s="161"/>
+      <c r="J14" s="141"/>
+      <c r="K14" s="141"/>
+      <c r="L14" s="141"/>
+      <c r="M14" s="142"/>
     </row>
     <row r="15" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="6" t="s">
@@ -2915,7 +3085,7 @@
       <c r="C15" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="D15" s="157"/>
+      <c r="D15" s="156"/>
       <c r="E15" s="14" t="s">
         <v>179</v>
       </c>
@@ -2925,22 +3095,22 @@
       <c r="G15" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="H15" s="96" t="s">
+      <c r="H15" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="I15" s="108" t="s">
+      <c r="I15" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="109" t="s">
+      <c r="J15" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="K15" s="109" t="s">
+      <c r="K15" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="L15" s="109" t="s">
+      <c r="L15" s="108" t="s">
         <v>230</v>
       </c>
-      <c r="M15" s="110" t="s">
+      <c r="M15" s="109" t="s">
         <v>310</v>
       </c>
     </row>
@@ -2959,12 +3129,12 @@
       </c>
       <c r="F16" s="152"/>
       <c r="G16" s="41"/>
-      <c r="H16" s="97"/>
-      <c r="I16" s="111"/>
-      <c r="J16" s="112"/>
-      <c r="K16" s="112"/>
-      <c r="L16" s="113"/>
-      <c r="M16" s="114"/>
+      <c r="H16" s="96"/>
+      <c r="I16" s="110"/>
+      <c r="J16" s="111"/>
+      <c r="K16" s="111"/>
+      <c r="L16" s="112"/>
+      <c r="M16" s="113"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="22">
@@ -2985,7 +3155,7 @@
       <c r="G17" s="23" t="s">
         <v>305</v>
       </c>
-      <c r="H17" s="98" t="s">
+      <c r="H17" s="97" t="s">
         <v>306</v>
       </c>
       <c r="I17" s="23" t="s">
@@ -3019,7 +3189,7 @@
       <c r="G18" s="23" t="s">
         <v>305</v>
       </c>
-      <c r="H18" s="98" t="s">
+      <c r="H18" s="97" t="s">
         <v>306</v>
       </c>
       <c r="I18" s="23" t="s">
@@ -3053,7 +3223,7 @@
       <c r="G19" s="23" t="s">
         <v>305</v>
       </c>
-      <c r="H19" s="98" t="s">
+      <c r="H19" s="97" t="s">
         <v>306</v>
       </c>
       <c r="I19" s="23" t="s">
@@ -3087,7 +3257,7 @@
       <c r="G20" s="23" t="s">
         <v>305</v>
       </c>
-      <c r="H20" s="98" t="s">
+      <c r="H20" s="97" t="s">
         <v>306</v>
       </c>
       <c r="I20" s="23" t="s">
@@ -3121,7 +3291,7 @@
       <c r="G21" s="23" t="s">
         <v>305</v>
       </c>
-      <c r="H21" s="98" t="s">
+      <c r="H21" s="97" t="s">
         <v>306</v>
       </c>
       <c r="I21" s="23" t="s">
@@ -3153,10 +3323,10 @@
       <c r="G22" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="H22" s="99" t="s">
-        <v>40</v>
-      </c>
-      <c r="I22" s="115" t="s">
+      <c r="H22" s="98" t="s">
+        <v>40</v>
+      </c>
+      <c r="I22" s="114" t="s">
         <v>184</v>
       </c>
       <c r="J22" s="20" t="s">
@@ -3187,7 +3357,7 @@
       <c r="G23" s="23" t="s">
         <v>305</v>
       </c>
-      <c r="H23" s="98" t="s">
+      <c r="H23" s="97" t="s">
         <v>306</v>
       </c>
       <c r="I23" s="23" t="s">
@@ -3218,19 +3388,19 @@
       <c r="F24" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="G24" s="85" t="s">
+      <c r="G24" s="84" t="s">
         <v>114</v>
       </c>
-      <c r="H24" s="100" t="s">
+      <c r="H24" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="I24" s="116" t="s">
+      <c r="I24" s="115" t="s">
         <v>203</v>
       </c>
-      <c r="J24" s="45" t="s">
+      <c r="J24" s="44" t="s">
         <v>202</v>
       </c>
-      <c r="K24" s="89" t="s">
+      <c r="K24" s="88" t="s">
         <v>40</v>
       </c>
       <c r="L24" s="3"/>
@@ -3252,19 +3422,19 @@
       <c r="F25" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="G25" s="85" t="s">
+      <c r="G25" s="84" t="s">
         <v>115</v>
       </c>
-      <c r="H25" s="100" t="s">
+      <c r="H25" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="I25" s="116" t="s">
+      <c r="I25" s="115" t="s">
         <v>205</v>
       </c>
-      <c r="J25" s="45" t="s">
+      <c r="J25" s="44" t="s">
         <v>202</v>
       </c>
-      <c r="K25" s="89" t="s">
+      <c r="K25" s="88" t="s">
         <v>40</v>
       </c>
       <c r="L25" s="3"/>
@@ -3286,19 +3456,19 @@
       <c r="F26" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="G26" s="85" t="s">
+      <c r="G26" s="84" t="s">
         <v>227</v>
       </c>
-      <c r="H26" s="100" t="s">
+      <c r="H26" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="I26" s="116" t="s">
+      <c r="I26" s="115" t="s">
         <v>225</v>
       </c>
-      <c r="J26" s="45" t="s">
+      <c r="J26" s="44" t="s">
         <v>229</v>
       </c>
-      <c r="K26" s="89" t="s">
+      <c r="K26" s="88" t="s">
         <v>40</v>
       </c>
       <c r="L26" s="3"/>
@@ -3314,15 +3484,15 @@
       <c r="D27" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="E27" s="147" t="s">
+      <c r="E27" s="157" t="s">
         <v>120</v>
       </c>
-      <c r="F27" s="148"/>
+      <c r="F27" s="158"/>
       <c r="G27" s="24"/>
-      <c r="H27" s="101"/>
+      <c r="H27" s="100"/>
       <c r="I27" s="24"/>
-      <c r="J27" s="90"/>
-      <c r="K27" s="90"/>
+      <c r="J27" s="89"/>
+      <c r="K27" s="89"/>
       <c r="L27" s="19"/>
       <c r="M27" s="15"/>
     </row>
@@ -3336,15 +3506,15 @@
       <c r="D28" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="E28" s="147" t="s">
+      <c r="E28" s="157" t="s">
         <v>121</v>
       </c>
-      <c r="F28" s="148"/>
+      <c r="F28" s="158"/>
       <c r="G28" s="24"/>
-      <c r="H28" s="101"/>
+      <c r="H28" s="100"/>
       <c r="I28" s="24"/>
-      <c r="J28" s="90"/>
-      <c r="K28" s="90"/>
+      <c r="J28" s="89"/>
+      <c r="K28" s="89"/>
       <c r="L28" s="19"/>
       <c r="M28" s="15"/>
     </row>
@@ -3367,7 +3537,7 @@
       <c r="G29" s="23" t="s">
         <v>305</v>
       </c>
-      <c r="H29" s="98" t="s">
+      <c r="H29" s="97" t="s">
         <v>306</v>
       </c>
       <c r="I29" s="23" t="s">
@@ -3401,7 +3571,7 @@
       <c r="G30" s="23" t="s">
         <v>305</v>
       </c>
-      <c r="H30" s="98" t="s">
+      <c r="H30" s="97" t="s">
         <v>306</v>
       </c>
       <c r="I30" s="23" t="s">
@@ -3435,7 +3605,7 @@
       <c r="G31" s="23" t="s">
         <v>305</v>
       </c>
-      <c r="H31" s="98" t="s">
+      <c r="H31" s="97" t="s">
         <v>306</v>
       </c>
       <c r="I31" s="23" t="s">
@@ -3469,7 +3639,7 @@
       <c r="G32" s="23" t="s">
         <v>305</v>
       </c>
-      <c r="H32" s="98" t="s">
+      <c r="H32" s="97" t="s">
         <v>306</v>
       </c>
       <c r="I32" s="23" t="s">
@@ -3494,15 +3664,15 @@
       <c r="D33" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="E33" s="147" t="s">
+      <c r="E33" s="157" t="s">
         <v>126</v>
       </c>
-      <c r="F33" s="148"/>
+      <c r="F33" s="158"/>
       <c r="G33" s="24"/>
-      <c r="H33" s="101"/>
+      <c r="H33" s="100"/>
       <c r="I33" s="24"/>
-      <c r="J33" s="90"/>
-      <c r="K33" s="90"/>
+      <c r="J33" s="89"/>
+      <c r="K33" s="89"/>
       <c r="L33" s="19"/>
       <c r="M33" s="15"/>
     </row>
@@ -3516,15 +3686,15 @@
       <c r="D34" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="E34" s="147" t="s">
+      <c r="E34" s="157" t="s">
         <v>107</v>
       </c>
-      <c r="F34" s="148"/>
+      <c r="F34" s="158"/>
       <c r="G34" s="24"/>
-      <c r="H34" s="101"/>
+      <c r="H34" s="100"/>
       <c r="I34" s="24"/>
-      <c r="J34" s="90"/>
-      <c r="K34" s="90"/>
+      <c r="J34" s="89"/>
+      <c r="K34" s="89"/>
       <c r="L34" s="19"/>
       <c r="M34" s="15"/>
     </row>
@@ -3547,7 +3717,7 @@
       <c r="G35" s="23" t="s">
         <v>305</v>
       </c>
-      <c r="H35" s="98" t="s">
+      <c r="H35" s="97" t="s">
         <v>306</v>
       </c>
       <c r="I35" s="23" t="s">
@@ -3581,7 +3751,7 @@
       <c r="G36" s="23" t="s">
         <v>305</v>
       </c>
-      <c r="H36" s="98" t="s">
+      <c r="H36" s="97" t="s">
         <v>306</v>
       </c>
       <c r="I36" s="23" t="s">
@@ -3606,28 +3776,28 @@
       <c r="D37" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="E37" s="46" t="s">
+      <c r="E37" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="F37" s="47" t="s">
+      <c r="F37" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="G37" s="88" t="s">
+      <c r="G37" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="H37" s="102" t="s">
+      <c r="H37" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="I37" s="117" t="s">
+      <c r="I37" s="116" t="s">
         <v>51</v>
       </c>
-      <c r="J37" s="87" t="s">
+      <c r="J37" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="K37" s="87" t="s">
+      <c r="K37" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="L37" s="118"/>
+      <c r="L37" s="117"/>
       <c r="M37" s="15"/>
     </row>
     <row r="38" spans="2:13" ht="49.5" x14ac:dyDescent="0.3">
@@ -3649,7 +3819,7 @@
       <c r="G38" s="23" t="s">
         <v>305</v>
       </c>
-      <c r="H38" s="98" t="s">
+      <c r="H38" s="97" t="s">
         <v>306</v>
       </c>
       <c r="I38" s="23" t="s">
@@ -3683,7 +3853,7 @@
       <c r="G39" s="23" t="s">
         <v>305</v>
       </c>
-      <c r="H39" s="98" t="s">
+      <c r="H39" s="97" t="s">
         <v>306</v>
       </c>
       <c r="I39" s="23" t="s">
@@ -3714,22 +3884,22 @@
       <c r="F40" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="G40" s="84" t="s">
+      <c r="G40" s="83" t="s">
         <v>245</v>
       </c>
-      <c r="H40" s="103" t="s">
+      <c r="H40" s="102" t="s">
         <v>247</v>
       </c>
-      <c r="I40" s="119" t="s">
+      <c r="I40" s="118" t="s">
         <v>196</v>
       </c>
-      <c r="J40" s="83" t="s">
+      <c r="J40" s="82" t="s">
         <v>188</v>
       </c>
-      <c r="K40" s="83" t="s">
+      <c r="K40" s="82" t="s">
         <v>189</v>
       </c>
-      <c r="L40" s="120"/>
+      <c r="L40" s="119"/>
       <c r="M40" s="15" t="s">
         <v>239</v>
       </c>
@@ -3750,22 +3920,22 @@
       <c r="F41" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="G41" s="74" t="s">
+      <c r="G41" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="H41" s="100" t="s">
+      <c r="H41" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="I41" s="116" t="s">
+      <c r="I41" s="115" t="s">
         <v>187</v>
       </c>
-      <c r="J41" s="45" t="s">
+      <c r="J41" s="44" t="s">
         <v>197</v>
       </c>
-      <c r="K41" s="45" t="s">
+      <c r="K41" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="L41" s="120"/>
+      <c r="L41" s="119"/>
       <c r="M41" s="15"/>
     </row>
     <row r="42" spans="2:13" ht="33" x14ac:dyDescent="0.3">
@@ -3784,23 +3954,23 @@
       <c r="F42" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G42" s="61" t="s">
+      <c r="G42" s="60" t="s">
         <v>240</v>
       </c>
-      <c r="H42" s="104" t="s">
+      <c r="H42" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="I42" s="121" t="s">
+      <c r="I42" s="120" t="s">
         <v>242</v>
       </c>
-      <c r="J42" s="62" t="s">
+      <c r="J42" s="61" t="s">
         <v>219</v>
       </c>
-      <c r="K42" s="62"/>
-      <c r="L42" s="122" t="s">
+      <c r="K42" s="61"/>
+      <c r="L42" s="121" t="s">
         <v>241</v>
       </c>
-      <c r="M42" s="123" t="s">
+      <c r="M42" s="122" t="s">
         <v>307</v>
       </c>
     </row>
@@ -3823,7 +3993,7 @@
       <c r="G43" s="23" t="s">
         <v>305</v>
       </c>
-      <c r="H43" s="98" t="s">
+      <c r="H43" s="97" t="s">
         <v>306</v>
       </c>
       <c r="I43" s="23" t="s">
@@ -3857,7 +4027,7 @@
       <c r="G44" s="23" t="s">
         <v>305</v>
       </c>
-      <c r="H44" s="98" t="s">
+      <c r="H44" s="97" t="s">
         <v>306</v>
       </c>
       <c r="I44" s="23" t="s">
@@ -3891,7 +4061,7 @@
       <c r="G45" s="23" t="s">
         <v>305</v>
       </c>
-      <c r="H45" s="98" t="s">
+      <c r="H45" s="97" t="s">
         <v>306</v>
       </c>
       <c r="I45" s="23" t="s">
@@ -3916,15 +4086,15 @@
       <c r="D46" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="E46" s="147" t="s">
+      <c r="E46" s="157" t="s">
         <v>126</v>
       </c>
-      <c r="F46" s="148"/>
+      <c r="F46" s="158"/>
       <c r="G46" s="24"/>
-      <c r="H46" s="101"/>
+      <c r="H46" s="100"/>
       <c r="I46" s="24"/>
-      <c r="J46" s="90"/>
-      <c r="K46" s="90"/>
+      <c r="J46" s="89"/>
+      <c r="K46" s="89"/>
       <c r="L46" s="19"/>
       <c r="M46" s="15"/>
     </row>
@@ -3938,15 +4108,15 @@
       <c r="D47" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="E47" s="147" t="s">
+      <c r="E47" s="157" t="s">
         <v>107</v>
       </c>
-      <c r="F47" s="148"/>
+      <c r="F47" s="158"/>
       <c r="G47" s="24"/>
-      <c r="H47" s="101"/>
+      <c r="H47" s="100"/>
       <c r="I47" s="24"/>
-      <c r="J47" s="90"/>
-      <c r="K47" s="90"/>
+      <c r="J47" s="89"/>
+      <c r="K47" s="89"/>
       <c r="L47" s="19"/>
       <c r="M47" s="15"/>
     </row>
@@ -3966,22 +4136,22 @@
       <c r="F48" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="G48" s="74" t="s">
+      <c r="G48" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="H48" s="100" t="s">
+      <c r="H48" s="99" t="s">
         <v>247</v>
       </c>
-      <c r="I48" s="116" t="s">
+      <c r="I48" s="115" t="s">
         <v>223</v>
       </c>
-      <c r="J48" s="45" t="s">
+      <c r="J48" s="44" t="s">
         <v>219</v>
       </c>
-      <c r="K48" s="45" t="s">
+      <c r="K48" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="L48" s="124"/>
+      <c r="L48" s="123"/>
       <c r="M48" s="15" t="s">
         <v>237</v>
       </c>
@@ -4005,7 +4175,7 @@
       <c r="G49" s="23" t="s">
         <v>305</v>
       </c>
-      <c r="H49" s="98" t="s">
+      <c r="H49" s="97" t="s">
         <v>306</v>
       </c>
       <c r="I49" s="23" t="s">
@@ -4039,7 +4209,7 @@
       <c r="G50" s="23" t="s">
         <v>305</v>
       </c>
-      <c r="H50" s="98" t="s">
+      <c r="H50" s="97" t="s">
         <v>306</v>
       </c>
       <c r="I50" s="23" t="s">
@@ -4070,22 +4240,22 @@
       <c r="F51" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="G51" s="85" t="s">
+      <c r="G51" s="84" t="s">
         <v>204</v>
       </c>
-      <c r="H51" s="100" t="s">
+      <c r="H51" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="I51" s="116" t="s">
+      <c r="I51" s="115" t="s">
         <v>218</v>
       </c>
-      <c r="J51" s="45" t="s">
+      <c r="J51" s="44" t="s">
         <v>201</v>
       </c>
-      <c r="K51" s="45" t="s">
+      <c r="K51" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="L51" s="124" t="s">
+      <c r="L51" s="123" t="s">
         <v>244</v>
       </c>
       <c r="M51" s="15" t="s">
@@ -4111,7 +4281,7 @@
       <c r="G52" s="23" t="s">
         <v>305</v>
       </c>
-      <c r="H52" s="98" t="s">
+      <c r="H52" s="97" t="s">
         <v>306</v>
       </c>
       <c r="I52" s="23" t="s">
@@ -4142,22 +4312,22 @@
       <c r="F53" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="G53" s="84" t="s">
+      <c r="G53" s="83" t="s">
         <v>246</v>
       </c>
-      <c r="H53" s="103" t="s">
+      <c r="H53" s="102" t="s">
         <v>308</v>
       </c>
-      <c r="I53" s="119" t="s">
+      <c r="I53" s="118" t="s">
         <v>243</v>
       </c>
-      <c r="J53" s="83" t="s">
+      <c r="J53" s="82" t="s">
         <v>201</v>
       </c>
-      <c r="K53" s="83" t="s">
+      <c r="K53" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="L53" s="125" t="s">
+      <c r="L53" s="124" t="s">
         <v>241</v>
       </c>
       <c r="M53" s="15" t="s">
@@ -4183,7 +4353,7 @@
       <c r="G54" s="23" t="s">
         <v>305</v>
       </c>
-      <c r="H54" s="98" t="s">
+      <c r="H54" s="97" t="s">
         <v>306</v>
       </c>
       <c r="I54" s="23" t="s">
@@ -4217,7 +4387,7 @@
       <c r="G55" s="23" t="s">
         <v>305</v>
       </c>
-      <c r="H55" s="98" t="s">
+      <c r="H55" s="97" t="s">
         <v>306</v>
       </c>
       <c r="I55" s="23" t="s">
@@ -4248,22 +4418,22 @@
       <c r="F56" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="G56" s="86" t="s">
+      <c r="G56" s="85" t="s">
         <v>212</v>
       </c>
-      <c r="H56" s="102" t="s">
+      <c r="H56" s="101" t="s">
         <v>309</v>
       </c>
-      <c r="I56" s="117" t="s">
+      <c r="I56" s="116" t="s">
         <v>216</v>
       </c>
-      <c r="J56" s="87" t="s">
+      <c r="J56" s="86" t="s">
         <v>215</v>
       </c>
-      <c r="K56" s="87" t="s">
+      <c r="K56" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="L56" s="118"/>
+      <c r="L56" s="117"/>
       <c r="M56" s="15"/>
     </row>
     <row r="57" spans="2:13" ht="33" x14ac:dyDescent="0.3">
@@ -4273,31 +4443,31 @@
       <c r="C57" s="12">
         <v>30</v>
       </c>
-      <c r="D57" s="48" t="s">
+      <c r="D57" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="E57" s="49" t="s">
+      <c r="E57" s="48" t="s">
         <v>159</v>
       </c>
-      <c r="F57" s="50" t="s">
+      <c r="F57" s="49" t="s">
         <v>112</v>
       </c>
-      <c r="G57" s="53" t="s">
+      <c r="G57" s="52" t="s">
         <v>209</v>
       </c>
-      <c r="H57" s="105" t="s">
+      <c r="H57" s="104" t="s">
         <v>58</v>
       </c>
-      <c r="I57" s="51" t="s">
+      <c r="I57" s="50" t="s">
         <v>209</v>
       </c>
-      <c r="J57" s="48" t="s">
+      <c r="J57" s="47" t="s">
         <v>200</v>
       </c>
-      <c r="K57" s="54" t="s">
+      <c r="K57" s="53" t="s">
         <v>199</v>
       </c>
-      <c r="L57" s="52"/>
+      <c r="L57" s="51"/>
       <c r="M57" s="15"/>
     </row>
     <row r="58" spans="2:13" ht="33" x14ac:dyDescent="0.3">
@@ -4307,31 +4477,31 @@
       <c r="C58" s="12">
         <v>31</v>
       </c>
-      <c r="D58" s="48" t="s">
+      <c r="D58" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="E58" s="49" t="s">
+      <c r="E58" s="48" t="s">
         <v>160</v>
       </c>
-      <c r="F58" s="50" t="s">
+      <c r="F58" s="49" t="s">
         <v>112</v>
       </c>
-      <c r="G58" s="53" t="s">
+      <c r="G58" s="52" t="s">
         <v>210</v>
       </c>
-      <c r="H58" s="105" t="s">
+      <c r="H58" s="104" t="s">
         <v>58</v>
       </c>
-      <c r="I58" s="51" t="s">
+      <c r="I58" s="50" t="s">
         <v>210</v>
       </c>
-      <c r="J58" s="48" t="s">
+      <c r="J58" s="47" t="s">
         <v>200</v>
       </c>
-      <c r="K58" s="54" t="s">
+      <c r="K58" s="53" t="s">
         <v>199</v>
       </c>
-      <c r="L58" s="52"/>
+      <c r="L58" s="51"/>
       <c r="M58" s="15"/>
     </row>
     <row r="59" spans="2:13" ht="33" x14ac:dyDescent="0.3">
@@ -4350,22 +4520,22 @@
       <c r="F59" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="G59" s="86" t="s">
+      <c r="G59" s="85" t="s">
         <v>213</v>
       </c>
-      <c r="H59" s="102" t="s">
+      <c r="H59" s="101" t="s">
         <v>309</v>
       </c>
-      <c r="I59" s="117" t="s">
+      <c r="I59" s="116" t="s">
         <v>217</v>
       </c>
-      <c r="J59" s="87" t="s">
+      <c r="J59" s="86" t="s">
         <v>215</v>
       </c>
-      <c r="K59" s="87" t="s">
+      <c r="K59" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="L59" s="118"/>
+      <c r="L59" s="117"/>
       <c r="M59" s="15"/>
     </row>
     <row r="60" spans="2:13" ht="33" x14ac:dyDescent="0.3">
@@ -4384,22 +4554,22 @@
       <c r="F60" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="G60" s="74" t="s">
+      <c r="G60" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="H60" s="100" t="s">
+      <c r="H60" s="99" t="s">
         <v>222</v>
       </c>
-      <c r="I60" s="116" t="s">
+      <c r="I60" s="115" t="s">
         <v>208</v>
       </c>
-      <c r="J60" s="45" t="s">
+      <c r="J60" s="44" t="s">
         <v>181</v>
       </c>
-      <c r="K60" s="45" t="s">
+      <c r="K60" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="L60" s="124"/>
+      <c r="L60" s="123"/>
       <c r="M60" s="15"/>
     </row>
     <row r="61" spans="2:13" x14ac:dyDescent="0.3">
@@ -4409,31 +4579,31 @@
       <c r="C61" s="12">
         <v>34</v>
       </c>
-      <c r="D61" s="55" t="s">
+      <c r="D61" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="E61" s="55" t="s">
+      <c r="E61" s="54" t="s">
         <v>182</v>
       </c>
-      <c r="F61" s="56" t="s">
+      <c r="F61" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="G61" s="57" t="s">
+      <c r="G61" s="56" t="s">
         <v>220</v>
       </c>
-      <c r="H61" s="106" t="s">
+      <c r="H61" s="105" t="s">
         <v>58</v>
       </c>
-      <c r="I61" s="58" t="s">
+      <c r="I61" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="J61" s="55" t="s">
+      <c r="J61" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="K61" s="60" t="s">
+      <c r="K61" s="59" t="s">
         <v>199</v>
       </c>
-      <c r="L61" s="59"/>
+      <c r="L61" s="58"/>
       <c r="M61" s="15"/>
     </row>
     <row r="62" spans="2:13" x14ac:dyDescent="0.3">
@@ -4446,15 +4616,15 @@
       <c r="D62" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="E62" s="147" t="s">
+      <c r="E62" s="157" t="s">
         <v>126</v>
       </c>
-      <c r="F62" s="148"/>
+      <c r="F62" s="158"/>
       <c r="G62" s="24"/>
-      <c r="H62" s="101"/>
+      <c r="H62" s="100"/>
       <c r="I62" s="24"/>
-      <c r="J62" s="90"/>
-      <c r="K62" s="90"/>
+      <c r="J62" s="89"/>
+      <c r="K62" s="89"/>
       <c r="L62" s="19"/>
       <c r="M62" s="15"/>
     </row>
@@ -4468,15 +4638,15 @@
       <c r="D63" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="E63" s="147" t="s">
+      <c r="E63" s="157" t="s">
         <v>107</v>
       </c>
-      <c r="F63" s="148"/>
+      <c r="F63" s="158"/>
       <c r="G63" s="24"/>
-      <c r="H63" s="101"/>
+      <c r="H63" s="100"/>
       <c r="I63" s="24"/>
-      <c r="J63" s="90"/>
-      <c r="K63" s="90"/>
+      <c r="J63" s="89"/>
+      <c r="K63" s="89"/>
       <c r="L63" s="19"/>
       <c r="M63" s="15"/>
     </row>
@@ -4487,31 +4657,31 @@
       <c r="C64" s="12">
         <v>37</v>
       </c>
-      <c r="D64" s="55" t="s">
+      <c r="D64" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="E64" s="55" t="s">
+      <c r="E64" s="54" t="s">
         <v>183</v>
       </c>
-      <c r="F64" s="56" t="s">
+      <c r="F64" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="G64" s="57" t="s">
+      <c r="G64" s="56" t="s">
         <v>221</v>
       </c>
-      <c r="H64" s="106" t="s">
+      <c r="H64" s="105" t="s">
         <v>58</v>
       </c>
-      <c r="I64" s="58" t="s">
+      <c r="I64" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="J64" s="55" t="s">
+      <c r="J64" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="K64" s="60" t="s">
+      <c r="K64" s="59" t="s">
         <v>198</v>
       </c>
-      <c r="L64" s="59"/>
+      <c r="L64" s="58"/>
       <c r="M64" s="15"/>
     </row>
     <row r="65" spans="2:13" ht="33" x14ac:dyDescent="0.3">
@@ -4533,7 +4703,7 @@
       <c r="G65" s="23" t="s">
         <v>305</v>
       </c>
-      <c r="H65" s="98" t="s">
+      <c r="H65" s="97" t="s">
         <v>306</v>
       </c>
       <c r="I65" s="23" t="s">
@@ -4564,22 +4734,22 @@
       <c r="F66" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="G66" s="74" t="s">
+      <c r="G66" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="H66" s="100" t="s">
+      <c r="H66" s="99" t="s">
         <v>222</v>
       </c>
-      <c r="I66" s="116" t="s">
+      <c r="I66" s="115" t="s">
         <v>192</v>
       </c>
-      <c r="J66" s="45" t="s">
+      <c r="J66" s="44" t="s">
         <v>195</v>
       </c>
-      <c r="K66" s="45" t="s">
+      <c r="K66" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="L66" s="124"/>
+      <c r="L66" s="123"/>
       <c r="M66" s="15"/>
     </row>
     <row r="67" spans="2:13" x14ac:dyDescent="0.3">
@@ -4598,22 +4768,22 @@
       <c r="F67" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="G67" s="74" t="s">
+      <c r="G67" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="H67" s="100" t="s">
+      <c r="H67" s="99" t="s">
         <v>222</v>
       </c>
-      <c r="I67" s="116" t="s">
+      <c r="I67" s="115" t="s">
         <v>191</v>
       </c>
-      <c r="J67" s="45" t="s">
+      <c r="J67" s="44" t="s">
         <v>194</v>
       </c>
-      <c r="K67" s="45" t="s">
+      <c r="K67" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="L67" s="124"/>
+      <c r="L67" s="123"/>
       <c r="M67" s="15"/>
     </row>
     <row r="68" spans="2:13" x14ac:dyDescent="0.3">
@@ -4632,22 +4802,22 @@
       <c r="F68" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="G68" s="74" t="s">
+      <c r="G68" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="H68" s="100" t="s">
+      <c r="H68" s="99" t="s">
         <v>222</v>
       </c>
-      <c r="I68" s="116" t="s">
+      <c r="I68" s="115" t="s">
         <v>190</v>
       </c>
-      <c r="J68" s="45" t="s">
+      <c r="J68" s="44" t="s">
         <v>193</v>
       </c>
-      <c r="K68" s="45" t="s">
+      <c r="K68" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="L68" s="124"/>
+      <c r="L68" s="123"/>
       <c r="M68" s="15"/>
     </row>
     <row r="69" spans="2:13" x14ac:dyDescent="0.3">
@@ -4669,7 +4839,7 @@
       <c r="G69" s="23" t="s">
         <v>305</v>
       </c>
-      <c r="H69" s="98" t="s">
+      <c r="H69" s="97" t="s">
         <v>306</v>
       </c>
       <c r="I69" s="23" t="s">
@@ -4703,7 +4873,7 @@
       <c r="G70" s="23" t="s">
         <v>305</v>
       </c>
-      <c r="H70" s="98" t="s">
+      <c r="H70" s="97" t="s">
         <v>306</v>
       </c>
       <c r="I70" s="23" t="s">
@@ -4737,7 +4907,7 @@
       <c r="G71" s="23" t="s">
         <v>305</v>
       </c>
-      <c r="H71" s="98" t="s">
+      <c r="H71" s="97" t="s">
         <v>306</v>
       </c>
       <c r="I71" s="23" t="s">
@@ -4771,7 +4941,7 @@
       <c r="G72" s="23" t="s">
         <v>305</v>
       </c>
-      <c r="H72" s="98" t="s">
+      <c r="H72" s="97" t="s">
         <v>306</v>
       </c>
       <c r="I72" s="23" t="s">
@@ -4805,7 +4975,7 @@
       <c r="G73" s="23" t="s">
         <v>305</v>
       </c>
-      <c r="H73" s="98" t="s">
+      <c r="H73" s="97" t="s">
         <v>306</v>
       </c>
       <c r="I73" s="23" t="s">
@@ -4839,7 +5009,7 @@
       <c r="G74" s="23" t="s">
         <v>305</v>
       </c>
-      <c r="H74" s="98" t="s">
+      <c r="H74" s="97" t="s">
         <v>306</v>
       </c>
       <c r="I74" s="23" t="s">
@@ -4864,19 +5034,19 @@
       <c r="D75" s="40" t="s">
         <v>156</v>
       </c>
-      <c r="E75" s="147" t="s">
+      <c r="E75" s="157" t="s">
         <v>175</v>
       </c>
-      <c r="F75" s="148"/>
+      <c r="F75" s="158"/>
       <c r="G75" s="24" t="s">
         <v>224</v>
       </c>
-      <c r="H75" s="101"/>
+      <c r="H75" s="100"/>
       <c r="I75" s="24" t="s">
         <v>224</v>
       </c>
-      <c r="J75" s="90"/>
-      <c r="K75" s="90"/>
+      <c r="J75" s="89"/>
+      <c r="K75" s="89"/>
       <c r="L75" s="3"/>
       <c r="M75" s="15"/>
     </row>
@@ -4896,22 +5066,22 @@
       <c r="F76" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="G76" s="74" t="s">
+      <c r="G76" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="H76" s="100" t="s">
+      <c r="H76" s="99" t="s">
         <v>222</v>
       </c>
-      <c r="I76" s="116" t="s">
+      <c r="I76" s="115" t="s">
         <v>234</v>
       </c>
-      <c r="J76" s="45" t="s">
+      <c r="J76" s="44" t="s">
         <v>214</v>
       </c>
-      <c r="K76" s="45" t="s">
+      <c r="K76" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="L76" s="45" t="s">
+      <c r="L76" s="44" t="s">
         <v>231</v>
       </c>
       <c r="M76" s="15" t="s">
@@ -4934,22 +5104,22 @@
       <c r="F77" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="G77" s="74" t="s">
+      <c r="G77" s="73" t="s">
         <v>232</v>
       </c>
-      <c r="H77" s="100" t="s">
+      <c r="H77" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="I77" s="116" t="s">
+      <c r="I77" s="115" t="s">
         <v>207</v>
       </c>
-      <c r="J77" s="45" t="s">
+      <c r="J77" s="44" t="s">
         <v>228</v>
       </c>
-      <c r="K77" s="45" t="s">
+      <c r="K77" s="44" t="s">
         <v>186</v>
       </c>
-      <c r="L77" s="124"/>
+      <c r="L77" s="123"/>
       <c r="M77" s="15" t="s">
         <v>235</v>
       </c>
@@ -4964,15 +5134,15 @@
       <c r="D78" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="E78" s="147" t="s">
+      <c r="E78" s="157" t="s">
         <v>126</v>
       </c>
-      <c r="F78" s="148"/>
+      <c r="F78" s="158"/>
       <c r="G78" s="24"/>
-      <c r="H78" s="101"/>
+      <c r="H78" s="100"/>
       <c r="I78" s="24"/>
-      <c r="J78" s="90"/>
-      <c r="K78" s="90"/>
+      <c r="J78" s="89"/>
+      <c r="K78" s="89"/>
       <c r="L78" s="19"/>
       <c r="M78" s="15"/>
     </row>
@@ -4986,16 +5156,16 @@
       <c r="D79" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="E79" s="149" t="s">
+      <c r="E79" s="159" t="s">
         <v>107</v>
       </c>
-      <c r="F79" s="150"/>
+      <c r="F79" s="160"/>
       <c r="G79" s="25"/>
-      <c r="H79" s="107"/>
+      <c r="H79" s="106"/>
       <c r="I79" s="25"/>
-      <c r="J79" s="91"/>
-      <c r="K79" s="91"/>
-      <c r="L79" s="44"/>
+      <c r="J79" s="90"/>
+      <c r="K79" s="90"/>
+      <c r="L79" s="43"/>
       <c r="M79" s="30"/>
     </row>
     <row r="84" spans="5:6" x14ac:dyDescent="0.3">
@@ -5049,6 +5219,21 @@
   </sheetData>
   <autoFilter ref="B15:T79"/>
   <mergeCells count="23">
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E27:F27"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="I14:M14"/>
     <mergeCell ref="B3:C3"/>
@@ -5057,21 +5242,6 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="E75:F75"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5083,8 +5253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J73" sqref="J73"/>
+    <sheetView tabSelected="1" topLeftCell="C24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5096,11 +5266,11 @@
     <col min="6" max="6" width="18.125" style="5" customWidth="1"/>
     <col min="7" max="7" width="25.25" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.625" style="5" customWidth="1"/>
     <col min="10" max="10" width="24.125" style="5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.625" style="5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="44.625" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -5123,10 +5293,10 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B3" s="162" t="s">
+      <c r="B3" s="143" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="163"/>
+      <c r="C3" s="144"/>
       <c r="D3" s="2">
         <v>128</v>
       </c>
@@ -5145,10 +5315,10 @@
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="164" t="s">
+      <c r="B4" s="145" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="165"/>
+      <c r="C4" s="146"/>
       <c r="D4" s="3">
         <v>16</v>
       </c>
@@ -5168,10 +5338,10 @@
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B5" s="164" t="s">
+      <c r="B5" s="145" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="165"/>
+      <c r="C5" s="146"/>
       <c r="D5" s="3">
         <v>48</v>
       </c>
@@ -5193,10 +5363,10 @@
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="164" t="s">
+      <c r="B6" s="145" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="165"/>
+      <c r="C6" s="146"/>
       <c r="D6" s="3" t="s">
         <v>10</v>
       </c>
@@ -5213,10 +5383,10 @@
       <c r="I6" s="15"/>
     </row>
     <row r="7" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="166" t="s">
+      <c r="B7" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="167"/>
+      <c r="C7" s="148"/>
       <c r="D7" s="4" t="s">
         <v>13</v>
       </c>
@@ -5288,35 +5458,35 @@
       <c r="B14" s="155" t="s">
         <v>109</v>
       </c>
-      <c r="C14" s="156"/>
-      <c r="D14" s="156" t="s">
+      <c r="C14" s="149"/>
+      <c r="D14" s="149" t="s">
         <v>94</v>
       </c>
-      <c r="E14" s="156" t="s">
+      <c r="E14" s="149" t="s">
         <v>96</v>
       </c>
-      <c r="F14" s="168"/>
-      <c r="G14" s="158" t="s">
+      <c r="F14" s="150"/>
+      <c r="G14" s="139" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="159"/>
-      <c r="I14" s="158" t="s">
-        <v>323</v>
-      </c>
-      <c r="J14" s="160"/>
-      <c r="K14" s="160"/>
-      <c r="L14" s="160"/>
-      <c r="M14" s="161"/>
+      <c r="H14" s="140"/>
+      <c r="I14" s="139" t="s">
+        <v>315</v>
+      </c>
+      <c r="J14" s="141"/>
+      <c r="K14" s="141"/>
+      <c r="L14" s="141"/>
+      <c r="M14" s="142"/>
     </row>
     <row r="15" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C15" s="142" t="s">
-        <v>325</v>
-      </c>
-      <c r="D15" s="157"/>
-      <c r="E15" s="95" t="s">
+      <c r="C15" s="136" t="s">
+        <v>317</v>
+      </c>
+      <c r="D15" s="156"/>
+      <c r="E15" s="94" t="s">
         <v>179</v>
       </c>
       <c r="F15" s="9" t="s">
@@ -5325,22 +5495,22 @@
       <c r="G15" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="H15" s="96" t="s">
+      <c r="H15" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="I15" s="108" t="s">
+      <c r="I15" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="109" t="s">
+      <c r="J15" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="K15" s="109" t="s">
+      <c r="K15" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="L15" s="109" t="s">
+      <c r="L15" s="108" t="s">
         <v>230</v>
       </c>
-      <c r="M15" s="110" t="s">
+      <c r="M15" s="109" t="s">
         <v>310</v>
       </c>
     </row>
@@ -5348,10 +5518,10 @@
       <c r="B16" s="17">
         <v>1</v>
       </c>
-      <c r="C16" s="134" t="s">
-        <v>326</v>
-      </c>
-      <c r="D16" s="92" t="s">
+      <c r="C16" s="129" t="s">
+        <v>318</v>
+      </c>
+      <c r="D16" s="91" t="s">
         <v>95</v>
       </c>
       <c r="E16" s="151" t="s">
@@ -5359,33 +5529,33 @@
       </c>
       <c r="F16" s="152"/>
       <c r="G16" s="41"/>
-      <c r="H16" s="97"/>
-      <c r="I16" s="111"/>
-      <c r="J16" s="112"/>
-      <c r="K16" s="112"/>
-      <c r="L16" s="113"/>
-      <c r="M16" s="114"/>
+      <c r="H16" s="96"/>
+      <c r="I16" s="110"/>
+      <c r="J16" s="111"/>
+      <c r="K16" s="111"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="113"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="22">
         <v>2</v>
       </c>
-      <c r="C17" s="138" t="s">
-        <v>327</v>
-      </c>
-      <c r="D17" s="93" t="s">
+      <c r="C17" s="132" t="s">
+        <v>319</v>
+      </c>
+      <c r="D17" s="92" t="s">
         <v>46</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="94" t="s">
+      <c r="F17" s="93" t="s">
         <v>105</v>
       </c>
       <c r="G17" s="23" t="s">
         <v>305</v>
       </c>
-      <c r="H17" s="98" t="s">
+      <c r="H17" s="97" t="s">
         <v>306</v>
       </c>
       <c r="I17" s="23" t="s">
@@ -5404,22 +5574,22 @@
       <c r="B18" s="22">
         <v>3</v>
       </c>
-      <c r="C18" s="138" t="s">
-        <v>327</v>
-      </c>
-      <c r="D18" s="93" t="s">
+      <c r="C18" s="132" t="s">
+        <v>319</v>
+      </c>
+      <c r="D18" s="92" t="s">
         <v>81</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="94" t="s">
+      <c r="F18" s="93" t="s">
         <v>97</v>
       </c>
       <c r="G18" s="23" t="s">
         <v>305</v>
       </c>
-      <c r="H18" s="98" t="s">
+      <c r="H18" s="97" t="s">
         <v>306</v>
       </c>
       <c r="I18" s="23" t="s">
@@ -5438,22 +5608,22 @@
       <c r="B19" s="22">
         <v>4</v>
       </c>
-      <c r="C19" s="138" t="s">
-        <v>327</v>
-      </c>
-      <c r="D19" s="93" t="s">
+      <c r="C19" s="132" t="s">
+        <v>319</v>
+      </c>
+      <c r="D19" s="92" t="s">
         <v>82</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F19" s="94" t="s">
+      <c r="F19" s="93" t="s">
         <v>98</v>
       </c>
       <c r="G19" s="23" t="s">
         <v>305</v>
       </c>
-      <c r="H19" s="98" t="s">
+      <c r="H19" s="97" t="s">
         <v>306</v>
       </c>
       <c r="I19" s="23" t="s">
@@ -5472,22 +5642,22 @@
       <c r="B20" s="22">
         <v>5</v>
       </c>
-      <c r="C20" s="139" t="s">
-        <v>328</v>
-      </c>
-      <c r="D20" s="93" t="s">
+      <c r="C20" s="133" t="s">
+        <v>320</v>
+      </c>
+      <c r="D20" s="92" t="s">
         <v>99</v>
       </c>
-      <c r="E20" s="93" t="s">
+      <c r="E20" s="92" t="s">
         <v>67</v>
       </c>
-      <c r="F20" s="94" t="s">
+      <c r="F20" s="93" t="s">
         <v>102</v>
       </c>
       <c r="G20" s="23" t="s">
         <v>305</v>
       </c>
-      <c r="H20" s="98" t="s">
+      <c r="H20" s="97" t="s">
         <v>306</v>
       </c>
       <c r="I20" s="23" t="s">
@@ -5506,22 +5676,22 @@
       <c r="B21" s="22">
         <v>6</v>
       </c>
-      <c r="C21" s="139" t="s">
-        <v>328</v>
-      </c>
-      <c r="D21" s="93" t="s">
+      <c r="C21" s="133" t="s">
+        <v>320</v>
+      </c>
+      <c r="D21" s="92" t="s">
         <v>100</v>
       </c>
-      <c r="E21" s="93" t="s">
+      <c r="E21" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="F21" s="94" t="s">
+      <c r="F21" s="93" t="s">
         <v>106</v>
       </c>
       <c r="G21" s="23" t="s">
         <v>305</v>
       </c>
-      <c r="H21" s="98" t="s">
+      <c r="H21" s="97" t="s">
         <v>306</v>
       </c>
       <c r="I21" s="23" t="s">
@@ -5537,32 +5707,32 @@
       <c r="M21" s="15"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B22" s="22">
+      <c r="B22" s="114">
         <v>7</v>
       </c>
-      <c r="C22" s="137" t="s">
-        <v>329</v>
-      </c>
-      <c r="D22" s="93" t="s">
+      <c r="C22" s="20" t="s">
+        <v>321</v>
+      </c>
+      <c r="D22" s="20" t="s">
         <v>101</v>
       </c>
       <c r="E22" s="153" t="s">
         <v>108</v>
       </c>
       <c r="F22" s="154"/>
-      <c r="G22" s="39" t="s">
+      <c r="G22" s="84" t="s">
         <v>101</v>
       </c>
-      <c r="H22" s="99" t="s">
-        <v>40</v>
-      </c>
-      <c r="I22" s="115" t="s">
+      <c r="H22" s="170" t="s">
+        <v>40</v>
+      </c>
+      <c r="I22" s="181" t="s">
         <v>101</v>
       </c>
-      <c r="J22" s="20" t="s">
+      <c r="J22" s="174" t="s">
         <v>185</v>
       </c>
-      <c r="K22" s="20" t="s">
+      <c r="K22" s="44" t="s">
         <v>27</v>
       </c>
       <c r="L22" s="3"/>
@@ -5572,42 +5742,42 @@
       <c r="B23" s="22">
         <v>8</v>
       </c>
-      <c r="C23" s="140" t="s">
-        <v>330</v>
-      </c>
-      <c r="D23" s="93" t="s">
+      <c r="C23" s="134" t="s">
+        <v>322</v>
+      </c>
+      <c r="D23" s="92" t="s">
         <v>23</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F23" s="94" t="s">
+      <c r="F23" s="93" t="s">
         <v>113</v>
       </c>
-      <c r="G23" s="126" t="s">
-        <v>204</v>
-      </c>
-      <c r="H23" s="127" t="s">
-        <v>319</v>
-      </c>
-      <c r="I23" s="128" t="s">
-        <v>322</v>
-      </c>
-      <c r="J23" s="129" t="s">
-        <v>320</v>
-      </c>
-      <c r="K23" s="129" t="s">
-        <v>321</v>
+      <c r="G23" s="23" t="s">
+        <v>305</v>
+      </c>
+      <c r="H23" s="97" t="s">
+        <v>306</v>
+      </c>
+      <c r="I23" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="L23" s="3"/>
       <c r="M23" s="15"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B24" s="22">
+      <c r="B24" s="114">
         <v>9</v>
       </c>
-      <c r="C24" s="140" t="s">
-        <v>330</v>
+      <c r="C24" s="192" t="s">
+        <v>322</v>
       </c>
       <c r="D24" s="20" t="s">
         <v>22</v>
@@ -5615,91 +5785,91 @@
       <c r="E24" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F24" s="94" t="s">
+      <c r="F24" s="93" t="s">
         <v>114</v>
       </c>
-      <c r="G24" s="85" t="s">
-        <v>114</v>
-      </c>
-      <c r="H24" s="100" t="s">
+      <c r="G24" s="130" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="I24" s="116" t="s">
-        <v>203</v>
-      </c>
-      <c r="J24" s="45" t="s">
-        <v>202</v>
-      </c>
-      <c r="K24" s="89" t="s">
-        <v>40</v>
+      <c r="I24" s="181" t="s">
+        <v>325</v>
+      </c>
+      <c r="J24" s="174" t="s">
+        <v>195</v>
+      </c>
+      <c r="K24" s="44" t="s">
+        <v>27</v>
       </c>
       <c r="L24" s="3"/>
       <c r="M24" s="15"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B25" s="22">
+      <c r="B25" s="114">
         <v>10</v>
       </c>
-      <c r="C25" s="140" t="s">
-        <v>330</v>
+      <c r="C25" s="192" t="s">
+        <v>322</v>
       </c>
       <c r="D25" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E25" s="93" t="s">
+      <c r="E25" s="92" t="s">
         <v>116</v>
       </c>
-      <c r="F25" s="94" t="s">
+      <c r="F25" s="93" t="s">
         <v>115</v>
       </c>
-      <c r="G25" s="85" t="s">
-        <v>115</v>
-      </c>
-      <c r="H25" s="100" t="s">
+      <c r="G25" s="130" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="I25" s="116" t="s">
-        <v>205</v>
-      </c>
-      <c r="J25" s="45" t="s">
-        <v>202</v>
-      </c>
-      <c r="K25" s="89" t="s">
-        <v>40</v>
+      <c r="I25" s="181" t="s">
+        <v>326</v>
+      </c>
+      <c r="J25" s="174" t="s">
+        <v>193</v>
+      </c>
+      <c r="K25" s="44" t="s">
+        <v>27</v>
       </c>
       <c r="L25" s="3"/>
       <c r="M25" s="15"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B26" s="22">
+      <c r="B26" s="114">
         <v>11</v>
       </c>
-      <c r="C26" s="140" t="s">
-        <v>330</v>
+      <c r="C26" s="192" t="s">
+        <v>322</v>
       </c>
       <c r="D26" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="E26" s="93" t="s">
+      <c r="E26" s="92" t="s">
         <v>117</v>
       </c>
-      <c r="F26" s="94" t="s">
+      <c r="F26" s="93" t="s">
         <v>226</v>
       </c>
-      <c r="G26" s="85" t="s">
-        <v>226</v>
-      </c>
-      <c r="H26" s="100" t="s">
+      <c r="G26" s="130" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="I26" s="116" t="s">
-        <v>225</v>
-      </c>
-      <c r="J26" s="45" t="s">
-        <v>229</v>
-      </c>
-      <c r="K26" s="89" t="s">
-        <v>40</v>
+      <c r="I26" s="181" t="s">
+        <v>327</v>
+      </c>
+      <c r="J26" s="174" t="s">
+        <v>328</v>
+      </c>
+      <c r="K26" s="44" t="s">
+        <v>27</v>
       </c>
       <c r="L26" s="3"/>
       <c r="M26" s="15"/>
@@ -5708,66 +5878,66 @@
       <c r="B27" s="24">
         <v>12</v>
       </c>
-      <c r="C27" s="133" t="s">
-        <v>326</v>
-      </c>
-      <c r="D27" s="90" t="s">
+      <c r="C27" s="128" t="s">
+        <v>318</v>
+      </c>
+      <c r="D27" s="89" t="s">
         <v>118</v>
       </c>
-      <c r="E27" s="147" t="s">
+      <c r="E27" s="157" t="s">
         <v>120</v>
       </c>
-      <c r="F27" s="148"/>
+      <c r="F27" s="158"/>
       <c r="G27" s="24"/>
-      <c r="H27" s="101"/>
+      <c r="H27" s="100"/>
       <c r="I27" s="24"/>
-      <c r="J27" s="90"/>
-      <c r="K27" s="90"/>
-      <c r="L27" s="19"/>
+      <c r="J27" s="89"/>
+      <c r="K27" s="89"/>
+      <c r="L27" s="3"/>
       <c r="M27" s="15"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="24">
         <v>13</v>
       </c>
-      <c r="C28" s="133" t="s">
-        <v>326</v>
-      </c>
-      <c r="D28" s="90" t="s">
+      <c r="C28" s="128" t="s">
+        <v>318</v>
+      </c>
+      <c r="D28" s="89" t="s">
         <v>119</v>
       </c>
-      <c r="E28" s="147" t="s">
+      <c r="E28" s="157" t="s">
         <v>121</v>
       </c>
-      <c r="F28" s="148"/>
+      <c r="F28" s="158"/>
       <c r="G28" s="24"/>
-      <c r="H28" s="101"/>
+      <c r="H28" s="100"/>
       <c r="I28" s="24"/>
-      <c r="J28" s="90"/>
-      <c r="K28" s="90"/>
-      <c r="L28" s="19"/>
+      <c r="J28" s="89"/>
+      <c r="K28" s="89"/>
+      <c r="L28" s="3"/>
       <c r="M28" s="15"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="22">
         <v>14</v>
       </c>
-      <c r="C29" s="140" t="s">
-        <v>330</v>
-      </c>
-      <c r="D29" s="93" t="s">
+      <c r="C29" s="134" t="s">
+        <v>322</v>
+      </c>
+      <c r="D29" s="92" t="s">
         <v>72</v>
       </c>
       <c r="E29" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="F29" s="94" t="s">
+      <c r="F29" s="93" t="s">
         <v>122</v>
       </c>
       <c r="G29" s="23" t="s">
         <v>305</v>
       </c>
-      <c r="H29" s="98" t="s">
+      <c r="H29" s="97" t="s">
         <v>306</v>
       </c>
       <c r="I29" s="23" t="s">
@@ -5783,97 +5953,93 @@
       <c r="M29" s="15"/>
     </row>
     <row r="30" spans="2:13" ht="33" x14ac:dyDescent="0.3">
-      <c r="B30" s="22">
+      <c r="B30" s="114">
         <v>15</v>
       </c>
-      <c r="C30" s="140" t="s">
-        <v>330</v>
-      </c>
-      <c r="D30" s="93" t="s">
+      <c r="C30" s="192" t="s">
+        <v>322</v>
+      </c>
+      <c r="D30" s="20" t="s">
         <v>73</v>
       </c>
       <c r="E30" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="F30" s="94" t="s">
+      <c r="F30" s="93" t="s">
         <v>123</v>
       </c>
-      <c r="G30" s="126" t="s">
+      <c r="G30" s="131" t="s">
         <v>204</v>
       </c>
-      <c r="H30" s="127" t="s">
+      <c r="H30" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="I30" s="128" t="s">
+      <c r="I30" s="182" t="s">
+        <v>347</v>
+      </c>
+      <c r="J30" s="175" t="s">
         <v>311</v>
       </c>
-      <c r="J30" s="129" t="s">
-        <v>313</v>
-      </c>
-      <c r="K30" s="129" t="s">
-        <v>314</v>
+      <c r="K30" s="82" t="s">
+        <v>312</v>
       </c>
       <c r="L30" s="3"/>
-      <c r="M30" s="43" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="22">
+      <c r="M30" s="15"/>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B31" s="114">
         <v>16</v>
       </c>
-      <c r="C31" s="143" t="s">
-        <v>330</v>
-      </c>
-      <c r="D31" s="93" t="s">
+      <c r="C31" s="192" t="s">
+        <v>322</v>
+      </c>
+      <c r="D31" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="E31" s="93" t="s">
+      <c r="E31" s="92" t="s">
         <v>134</v>
       </c>
-      <c r="F31" s="94" t="s">
+      <c r="F31" s="93" t="s">
         <v>124</v>
       </c>
-      <c r="G31" s="126" t="s">
+      <c r="G31" s="131" t="s">
         <v>204</v>
       </c>
-      <c r="H31" s="127" t="s">
+      <c r="H31" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="I31" s="128" t="s">
+      <c r="I31" s="182" t="s">
+        <v>348</v>
+      </c>
+      <c r="J31" s="175" t="s">
+        <v>311</v>
+      </c>
+      <c r="K31" s="82" t="s">
         <v>312</v>
       </c>
-      <c r="J31" s="129" t="s">
-        <v>313</v>
-      </c>
-      <c r="K31" s="129" t="s">
-        <v>314</v>
-      </c>
       <c r="L31" s="3"/>
-      <c r="M31" s="43" t="s">
-        <v>315</v>
-      </c>
+      <c r="M31" s="15"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" s="22">
         <v>17</v>
       </c>
-      <c r="C32" s="145" t="s">
-        <v>330</v>
-      </c>
-      <c r="D32" s="93" t="s">
+      <c r="C32" s="134" t="s">
+        <v>322</v>
+      </c>
+      <c r="D32" s="92" t="s">
         <v>75</v>
       </c>
-      <c r="E32" s="93" t="s">
+      <c r="E32" s="92" t="s">
         <v>137</v>
       </c>
-      <c r="F32" s="94" t="s">
+      <c r="F32" s="93" t="s">
         <v>125</v>
       </c>
       <c r="G32" s="23" t="s">
         <v>305</v>
       </c>
-      <c r="H32" s="98" t="s">
+      <c r="H32" s="97" t="s">
         <v>306</v>
       </c>
       <c r="I32" s="23" t="s">
@@ -5892,66 +6058,66 @@
       <c r="B33" s="24">
         <v>18</v>
       </c>
-      <c r="C33" s="133" t="s">
-        <v>326</v>
-      </c>
-      <c r="D33" s="90" t="s">
+      <c r="C33" s="128" t="s">
+        <v>318</v>
+      </c>
+      <c r="D33" s="89" t="s">
         <v>150</v>
       </c>
-      <c r="E33" s="147" t="s">
+      <c r="E33" s="157" t="s">
         <v>126</v>
       </c>
-      <c r="F33" s="148"/>
+      <c r="F33" s="158"/>
       <c r="G33" s="24"/>
-      <c r="H33" s="101"/>
+      <c r="H33" s="100"/>
       <c r="I33" s="24"/>
-      <c r="J33" s="90"/>
-      <c r="K33" s="90"/>
-      <c r="L33" s="19"/>
+      <c r="J33" s="89"/>
+      <c r="K33" s="89"/>
+      <c r="L33" s="3"/>
       <c r="M33" s="15"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="24">
         <v>19</v>
       </c>
-      <c r="C34" s="133" t="s">
-        <v>326</v>
-      </c>
-      <c r="D34" s="90" t="s">
+      <c r="C34" s="128" t="s">
+        <v>318</v>
+      </c>
+      <c r="D34" s="89" t="s">
         <v>95</v>
       </c>
-      <c r="E34" s="147" t="s">
+      <c r="E34" s="157" t="s">
         <v>107</v>
       </c>
-      <c r="F34" s="148"/>
+      <c r="F34" s="158"/>
       <c r="G34" s="24"/>
-      <c r="H34" s="101"/>
+      <c r="H34" s="100"/>
       <c r="I34" s="24"/>
-      <c r="J34" s="90"/>
-      <c r="K34" s="90"/>
-      <c r="L34" s="19"/>
+      <c r="J34" s="89"/>
+      <c r="K34" s="89"/>
+      <c r="L34" s="3"/>
       <c r="M34" s="15"/>
     </row>
     <row r="35" spans="2:13" ht="33" x14ac:dyDescent="0.3">
       <c r="B35" s="22">
         <v>20</v>
       </c>
-      <c r="C35" s="140" t="s">
-        <v>330</v>
-      </c>
-      <c r="D35" s="93" t="s">
+      <c r="C35" s="134" t="s">
+        <v>322</v>
+      </c>
+      <c r="D35" s="92" t="s">
         <v>24</v>
       </c>
       <c r="E35" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="F35" s="94" t="s">
+      <c r="F35" s="93" t="s">
         <v>127</v>
       </c>
       <c r="G35" s="23" t="s">
         <v>305</v>
       </c>
-      <c r="H35" s="98" t="s">
+      <c r="H35" s="97" t="s">
         <v>306</v>
       </c>
       <c r="I35" s="23" t="s">
@@ -5970,22 +6136,22 @@
       <c r="B36" s="22">
         <v>21</v>
       </c>
-      <c r="C36" s="140" t="s">
-        <v>330</v>
-      </c>
-      <c r="D36" s="93" t="s">
+      <c r="C36" s="134" t="s">
+        <v>322</v>
+      </c>
+      <c r="D36" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="E36" s="93" t="s">
+      <c r="E36" s="92" t="s">
         <v>133</v>
       </c>
-      <c r="F36" s="94" t="s">
+      <c r="F36" s="93" t="s">
         <v>128</v>
       </c>
       <c r="G36" s="23" t="s">
         <v>305</v>
       </c>
-      <c r="H36" s="98" t="s">
+      <c r="H36" s="97" t="s">
         <v>306</v>
       </c>
       <c r="I36" s="23" t="s">
@@ -6004,146 +6170,146 @@
       <c r="B37" s="22">
         <v>22</v>
       </c>
-      <c r="C37" s="140" t="s">
-        <v>330</v>
-      </c>
-      <c r="D37" s="27" t="s">
+      <c r="C37" s="134" t="s">
+        <v>322</v>
+      </c>
+      <c r="D37" s="137" t="s">
         <v>49</v>
       </c>
-      <c r="E37" s="46" t="s">
+      <c r="E37" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="F37" s="47" t="s">
+      <c r="F37" s="138" t="s">
         <v>129</v>
       </c>
-      <c r="G37" s="88" t="s">
-        <v>50</v>
-      </c>
-      <c r="H37" s="102" t="s">
-        <v>20</v>
-      </c>
-      <c r="I37" s="117" t="s">
-        <v>51</v>
-      </c>
-      <c r="J37" s="87" t="s">
-        <v>52</v>
-      </c>
-      <c r="K37" s="87" t="s">
-        <v>21</v>
-      </c>
-      <c r="L37" s="118"/>
+      <c r="G37" s="23" t="s">
+        <v>305</v>
+      </c>
+      <c r="H37" s="97" t="s">
+        <v>306</v>
+      </c>
+      <c r="I37" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L37" s="3"/>
       <c r="M37" s="15"/>
     </row>
     <row r="38" spans="2:13" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B38" s="22">
+      <c r="B38" s="196">
         <v>23</v>
       </c>
-      <c r="C38" s="140" t="s">
-        <v>330</v>
-      </c>
-      <c r="D38" s="93" t="s">
+      <c r="C38" s="197" t="s">
+        <v>322</v>
+      </c>
+      <c r="D38" s="198" t="s">
         <v>68</v>
       </c>
       <c r="E38" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="F38" s="94" t="s">
-        <v>130</v>
-      </c>
-      <c r="G38" s="23" t="s">
-        <v>305</v>
-      </c>
-      <c r="H38" s="98" t="s">
-        <v>306</v>
-      </c>
-      <c r="I38" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K38" s="7" t="s">
+      <c r="F38" s="93" t="s">
+        <v>330</v>
+      </c>
+      <c r="G38" s="173" t="s">
+        <v>330</v>
+      </c>
+      <c r="H38" s="165" t="s">
+        <v>332</v>
+      </c>
+      <c r="I38" s="183" t="s">
+        <v>350</v>
+      </c>
+      <c r="J38" s="176" t="s">
+        <v>202</v>
+      </c>
+      <c r="K38" s="161" t="s">
         <v>40</v>
       </c>
       <c r="L38" s="3"/>
       <c r="M38" s="15"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B39" s="22">
+      <c r="B39" s="196">
         <v>24</v>
       </c>
-      <c r="C39" s="140" t="s">
-        <v>330</v>
-      </c>
-      <c r="D39" s="93" t="s">
+      <c r="C39" s="197" t="s">
+        <v>322</v>
+      </c>
+      <c r="D39" s="198" t="s">
         <v>69</v>
       </c>
-      <c r="E39" s="93" t="s">
+      <c r="E39" s="92" t="s">
         <v>141</v>
       </c>
-      <c r="F39" s="94" t="s">
-        <v>142</v>
-      </c>
-      <c r="G39" s="23" t="s">
-        <v>305</v>
-      </c>
-      <c r="H39" s="98" t="s">
-        <v>306</v>
-      </c>
-      <c r="I39" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="J39" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K39" s="7" t="s">
+      <c r="F39" s="93" t="s">
+        <v>331</v>
+      </c>
+      <c r="G39" s="173" t="s">
+        <v>331</v>
+      </c>
+      <c r="H39" s="165" t="s">
+        <v>332</v>
+      </c>
+      <c r="I39" s="183" t="s">
+        <v>351</v>
+      </c>
+      <c r="J39" s="176" t="s">
+        <v>202</v>
+      </c>
+      <c r="K39" s="161" t="s">
         <v>40</v>
       </c>
       <c r="L39" s="3"/>
       <c r="M39" s="15"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B40" s="22">
+      <c r="B40" s="114">
         <v>25</v>
       </c>
-      <c r="C40" s="140" t="s">
-        <v>330</v>
+      <c r="C40" s="192" t="s">
+        <v>322</v>
       </c>
       <c r="D40" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E40" s="93" t="s">
+      <c r="E40" s="92" t="s">
         <v>143</v>
       </c>
-      <c r="F40" s="94" t="s">
+      <c r="F40" s="93" t="s">
         <v>144</v>
       </c>
-      <c r="G40" s="84" t="s">
+      <c r="G40" s="83" t="s">
         <v>245</v>
       </c>
-      <c r="H40" s="103" t="s">
-        <v>222</v>
-      </c>
-      <c r="I40" s="119" t="s">
-        <v>196</v>
-      </c>
-      <c r="J40" s="83" t="s">
-        <v>324</v>
-      </c>
-      <c r="K40" s="83" t="s">
+      <c r="H40" s="99" t="s">
+        <v>332</v>
+      </c>
+      <c r="I40" s="182" t="s">
+        <v>349</v>
+      </c>
+      <c r="J40" s="175" t="s">
+        <v>316</v>
+      </c>
+      <c r="K40" s="82" t="s">
         <v>189</v>
       </c>
-      <c r="L40" s="120"/>
+      <c r="L40" s="166"/>
       <c r="M40" s="15" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="41" spans="2:13" ht="33" x14ac:dyDescent="0.3">
-      <c r="B41" s="22">
+      <c r="B41" s="114">
         <v>26</v>
       </c>
-      <c r="C41" s="140" t="s">
-        <v>330</v>
+      <c r="C41" s="192" t="s">
+        <v>322</v>
       </c>
       <c r="D41" s="20" t="s">
         <v>26</v>
@@ -6151,33 +6317,33 @@
       <c r="E41" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="F41" s="94" t="s">
+      <c r="F41" s="93" t="s">
         <v>146</v>
       </c>
-      <c r="G41" s="74" t="s">
+      <c r="G41" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="H41" s="100" t="s">
-        <v>20</v>
-      </c>
-      <c r="I41" s="116" t="s">
+      <c r="H41" s="99" t="s">
+        <v>332</v>
+      </c>
+      <c r="I41" s="181" t="s">
         <v>187</v>
       </c>
-      <c r="J41" s="45" t="s">
+      <c r="J41" s="174" t="s">
         <v>197</v>
       </c>
-      <c r="K41" s="45" t="s">
+      <c r="K41" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="L41" s="120"/>
+      <c r="L41" s="166"/>
       <c r="M41" s="15"/>
     </row>
     <row r="42" spans="2:13" ht="33" x14ac:dyDescent="0.3">
-      <c r="B42" s="22">
+      <c r="B42" s="114">
         <v>27</v>
       </c>
-      <c r="C42" s="140" t="s">
-        <v>330</v>
+      <c r="C42" s="192" t="s">
+        <v>322</v>
       </c>
       <c r="D42" s="20" t="s">
         <v>28</v>
@@ -6185,37 +6351,37 @@
       <c r="E42" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="F42" s="94" t="s">
+      <c r="F42" s="93" t="s">
         <v>240</v>
       </c>
-      <c r="G42" s="85" t="s">
+      <c r="G42" s="84" t="s">
         <v>204</v>
       </c>
-      <c r="H42" s="100" t="s">
+      <c r="H42" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="I42" s="119" t="s">
-        <v>316</v>
-      </c>
-      <c r="J42" s="83" t="s">
+      <c r="I42" s="182" t="s">
+        <v>313</v>
+      </c>
+      <c r="J42" s="175" t="s">
         <v>219</v>
       </c>
-      <c r="K42" s="130" t="s">
-        <v>40</v>
-      </c>
-      <c r="L42" s="122" t="s">
-        <v>317</v>
-      </c>
-      <c r="M42" s="123"/>
+      <c r="K42" s="125" t="s">
+        <v>40</v>
+      </c>
+      <c r="L42" s="167" t="s">
+        <v>314</v>
+      </c>
+      <c r="M42" s="122"/>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B43" s="22">
+      <c r="B43" s="114">
         <v>28</v>
       </c>
-      <c r="C43" s="141" t="s">
-        <v>328</v>
-      </c>
-      <c r="D43" s="93" t="s">
+      <c r="C43" s="44" t="s">
+        <v>320</v>
+      </c>
+      <c r="D43" s="20" t="s">
         <v>29</v>
       </c>
       <c r="E43" s="7" t="s">
@@ -6224,66 +6390,66 @@
       <c r="F43" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G43" s="23" t="s">
-        <v>305</v>
-      </c>
-      <c r="H43" s="98" t="s">
-        <v>306</v>
-      </c>
-      <c r="I43" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="J43" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L43" s="3"/>
+      <c r="G43" s="130" t="s">
+        <v>19</v>
+      </c>
+      <c r="H43" s="99" t="s">
+        <v>332</v>
+      </c>
+      <c r="I43" s="199" t="s">
+        <v>333</v>
+      </c>
+      <c r="J43" s="177" t="s">
+        <v>336</v>
+      </c>
+      <c r="K43" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="L43" s="166"/>
       <c r="M43" s="15"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B44" s="22">
+      <c r="B44" s="114">
         <v>29</v>
       </c>
-      <c r="C44" s="141" t="s">
-        <v>328</v>
-      </c>
-      <c r="D44" s="93" t="s">
+      <c r="C44" s="44" t="s">
+        <v>320</v>
+      </c>
+      <c r="D44" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E44" s="93" t="s">
+      <c r="E44" s="92" t="s">
         <v>148</v>
       </c>
       <c r="F44" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G44" s="23" t="s">
-        <v>305</v>
-      </c>
-      <c r="H44" s="98" t="s">
-        <v>306</v>
-      </c>
-      <c r="I44" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="J44" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L44" s="3"/>
+      <c r="G44" s="130" t="s">
+        <v>19</v>
+      </c>
+      <c r="H44" s="99" t="s">
+        <v>332</v>
+      </c>
+      <c r="I44" s="199" t="s">
+        <v>334</v>
+      </c>
+      <c r="J44" s="177" t="s">
+        <v>337</v>
+      </c>
+      <c r="K44" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="L44" s="166"/>
       <c r="M44" s="15"/>
     </row>
     <row r="45" spans="2:13" ht="33" x14ac:dyDescent="0.3">
-      <c r="B45" s="22">
+      <c r="B45" s="114">
         <v>30</v>
       </c>
-      <c r="C45" s="141" t="s">
-        <v>328</v>
-      </c>
-      <c r="D45" s="93" t="s">
+      <c r="C45" s="44" t="s">
+        <v>320</v>
+      </c>
+      <c r="D45" s="20" t="s">
         <v>70</v>
       </c>
       <c r="E45" s="10" t="s">
@@ -6292,74 +6458,74 @@
       <c r="F45" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G45" s="23" t="s">
-        <v>305</v>
-      </c>
-      <c r="H45" s="98" t="s">
-        <v>306</v>
-      </c>
-      <c r="I45" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="J45" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L45" s="3"/>
+      <c r="G45" s="130" t="s">
+        <v>19</v>
+      </c>
+      <c r="H45" s="99" t="s">
+        <v>332</v>
+      </c>
+      <c r="I45" s="199" t="s">
+        <v>335</v>
+      </c>
+      <c r="J45" s="177" t="s">
+        <v>338</v>
+      </c>
+      <c r="K45" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="L45" s="166"/>
       <c r="M45" s="15"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B46" s="24">
         <v>31</v>
       </c>
-      <c r="C46" s="131" t="s">
-        <v>326</v>
-      </c>
-      <c r="D46" s="90" t="s">
+      <c r="C46" s="126" t="s">
+        <v>318</v>
+      </c>
+      <c r="D46" s="89" t="s">
         <v>150</v>
       </c>
-      <c r="E46" s="147" t="s">
+      <c r="E46" s="157" t="s">
         <v>126</v>
       </c>
-      <c r="F46" s="148"/>
+      <c r="F46" s="158"/>
       <c r="G46" s="24"/>
-      <c r="H46" s="101"/>
+      <c r="H46" s="100"/>
       <c r="I46" s="24"/>
-      <c r="J46" s="90"/>
-      <c r="K46" s="90"/>
-      <c r="L46" s="19"/>
+      <c r="J46" s="89"/>
+      <c r="K46" s="89"/>
+      <c r="L46" s="166"/>
       <c r="M46" s="15"/>
     </row>
     <row r="47" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B47" s="24">
         <v>32</v>
       </c>
-      <c r="C47" s="132" t="s">
-        <v>326</v>
-      </c>
-      <c r="D47" s="90" t="s">
+      <c r="C47" s="127" t="s">
+        <v>318</v>
+      </c>
+      <c r="D47" s="89" t="s">
         <v>95</v>
       </c>
-      <c r="E47" s="147" t="s">
+      <c r="E47" s="157" t="s">
         <v>107</v>
       </c>
-      <c r="F47" s="148"/>
+      <c r="F47" s="158"/>
       <c r="G47" s="24"/>
-      <c r="H47" s="101"/>
+      <c r="H47" s="100"/>
       <c r="I47" s="24"/>
-      <c r="J47" s="90"/>
-      <c r="K47" s="90"/>
-      <c r="L47" s="19"/>
+      <c r="J47" s="89"/>
+      <c r="K47" s="89"/>
+      <c r="L47" s="166"/>
       <c r="M47" s="15"/>
     </row>
     <row r="48" spans="2:13" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B48" s="22">
+      <c r="B48" s="114">
         <v>33</v>
       </c>
-      <c r="C48" s="146" t="s">
-        <v>328</v>
+      <c r="C48" s="193" t="s">
+        <v>320</v>
       </c>
       <c r="D48" s="20" t="s">
         <v>77</v>
@@ -6370,34 +6536,34 @@
       <c r="F48" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G48" s="74" t="s">
+      <c r="G48" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="H48" s="100" t="s">
+      <c r="H48" s="99" t="s">
         <v>222</v>
       </c>
-      <c r="I48" s="116" t="s">
+      <c r="I48" s="181" t="s">
         <v>223</v>
       </c>
-      <c r="J48" s="45" t="s">
+      <c r="J48" s="174" t="s">
         <v>219</v>
       </c>
-      <c r="K48" s="45" t="s">
+      <c r="K48" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="L48" s="124"/>
+      <c r="L48" s="168"/>
       <c r="M48" s="15" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="49" spans="2:13" ht="33" x14ac:dyDescent="0.3">
-      <c r="B49" s="22">
+      <c r="B49" s="114">
         <v>34</v>
       </c>
-      <c r="C49" s="141" t="s">
-        <v>331</v>
-      </c>
-      <c r="D49" s="93" t="s">
+      <c r="C49" s="44" t="s">
+        <v>323</v>
+      </c>
+      <c r="D49" s="20" t="s">
         <v>78</v>
       </c>
       <c r="E49" s="10" t="s">
@@ -6406,32 +6572,32 @@
       <c r="F49" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G49" s="23" t="s">
-        <v>305</v>
-      </c>
-      <c r="H49" s="98" t="s">
-        <v>306</v>
-      </c>
-      <c r="I49" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="J49" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K49" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L49" s="3"/>
+      <c r="G49" s="130" t="s">
+        <v>19</v>
+      </c>
+      <c r="H49" s="99" t="s">
+        <v>222</v>
+      </c>
+      <c r="I49" s="184" t="s">
+        <v>339</v>
+      </c>
+      <c r="J49" s="177" t="s">
+        <v>340</v>
+      </c>
+      <c r="K49" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="L49" s="166"/>
       <c r="M49" s="15"/>
     </row>
     <row r="50" spans="2:13" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B50" s="22">
         <v>35</v>
       </c>
-      <c r="C50" s="141" t="s">
-        <v>331</v>
-      </c>
-      <c r="D50" s="93" t="s">
+      <c r="C50" s="135" t="s">
+        <v>323</v>
+      </c>
+      <c r="D50" s="92" t="s">
         <v>79</v>
       </c>
       <c r="E50" s="10" t="s">
@@ -6443,7 +6609,7 @@
       <c r="G50" s="23" t="s">
         <v>305</v>
       </c>
-      <c r="H50" s="98" t="s">
+      <c r="H50" s="97" t="s">
         <v>306</v>
       </c>
       <c r="I50" s="23" t="s">
@@ -6455,15 +6621,15 @@
       <c r="K50" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="L50" s="3"/>
+      <c r="L50" s="166"/>
       <c r="M50" s="15"/>
     </row>
     <row r="51" spans="2:13" ht="33" x14ac:dyDescent="0.3">
-      <c r="B51" s="22">
+      <c r="B51" s="114">
         <v>36</v>
       </c>
-      <c r="C51" s="141" t="s">
-        <v>328</v>
+      <c r="C51" s="44" t="s">
+        <v>320</v>
       </c>
       <c r="D51" s="20" t="s">
         <v>38</v>
@@ -6474,22 +6640,22 @@
       <c r="F51" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="G51" s="85" t="s">
+      <c r="G51" s="84" t="s">
         <v>204</v>
       </c>
-      <c r="H51" s="100" t="s">
+      <c r="H51" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="I51" s="116" t="s">
+      <c r="I51" s="181" t="s">
         <v>218</v>
       </c>
-      <c r="J51" s="45" t="s">
+      <c r="J51" s="174" t="s">
         <v>201</v>
       </c>
-      <c r="K51" s="45" t="s">
+      <c r="K51" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="L51" s="124" t="s">
+      <c r="L51" s="168" t="s">
         <v>233</v>
       </c>
       <c r="M51" s="15" t="s">
@@ -6500,13 +6666,13 @@
       <c r="B52" s="22">
         <v>37</v>
       </c>
-      <c r="C52" s="141" t="s">
-        <v>328</v>
-      </c>
-      <c r="D52" s="93" t="s">
+      <c r="C52" s="135" t="s">
+        <v>320</v>
+      </c>
+      <c r="D52" s="92" t="s">
         <v>33</v>
       </c>
-      <c r="E52" s="93" t="s">
+      <c r="E52" s="92" t="s">
         <v>50</v>
       </c>
       <c r="F52" s="8" t="s">
@@ -6515,7 +6681,7 @@
       <c r="G52" s="23" t="s">
         <v>305</v>
       </c>
-      <c r="H52" s="98" t="s">
+      <c r="H52" s="97" t="s">
         <v>306</v>
       </c>
       <c r="I52" s="23" t="s">
@@ -6531,37 +6697,37 @@
       <c r="M52" s="15"/>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B53" s="22">
+      <c r="B53" s="114">
         <v>38</v>
       </c>
-      <c r="C53" s="141" t="s">
-        <v>328</v>
+      <c r="C53" s="44" t="s">
+        <v>320</v>
       </c>
       <c r="D53" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="E53" s="93" t="s">
+      <c r="E53" s="92" t="s">
         <v>132</v>
       </c>
       <c r="F53" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G53" s="84" t="s">
+      <c r="G53" s="83" t="s">
         <v>246</v>
       </c>
-      <c r="H53" s="103" t="s">
+      <c r="H53" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="I53" s="119" t="s">
+      <c r="I53" s="182" t="s">
         <v>243</v>
       </c>
-      <c r="J53" s="83" t="s">
+      <c r="J53" s="175" t="s">
         <v>201</v>
       </c>
-      <c r="K53" s="83" t="s">
+      <c r="K53" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="L53" s="125" t="s">
+      <c r="L53" s="172" t="s">
         <v>241</v>
       </c>
       <c r="M53" s="15" t="s">
@@ -6572,13 +6738,13 @@
       <c r="B54" s="22">
         <v>39</v>
       </c>
-      <c r="C54" s="141" t="s">
-        <v>328</v>
-      </c>
-      <c r="D54" s="93" t="s">
+      <c r="C54" s="135" t="s">
+        <v>320</v>
+      </c>
+      <c r="D54" s="92" t="s">
         <v>35</v>
       </c>
-      <c r="E54" s="93" t="s">
+      <c r="E54" s="92" t="s">
         <v>157</v>
       </c>
       <c r="F54" s="8" t="s">
@@ -6587,7 +6753,7 @@
       <c r="G54" s="23" t="s">
         <v>305</v>
       </c>
-      <c r="H54" s="98" t="s">
+      <c r="H54" s="97" t="s">
         <v>306</v>
       </c>
       <c r="I54" s="23" t="s">
@@ -6606,13 +6772,13 @@
       <c r="B55" s="22">
         <v>40</v>
       </c>
-      <c r="C55" s="141" t="s">
-        <v>328</v>
-      </c>
-      <c r="D55" s="93" t="s">
+      <c r="C55" s="135" t="s">
+        <v>320</v>
+      </c>
+      <c r="D55" s="92" t="s">
         <v>36</v>
       </c>
-      <c r="E55" s="93" t="s">
+      <c r="E55" s="92" t="s">
         <v>158</v>
       </c>
       <c r="F55" s="8" t="s">
@@ -6621,7 +6787,7 @@
       <c r="G55" s="23" t="s">
         <v>305</v>
       </c>
-      <c r="H55" s="98" t="s">
+      <c r="H55" s="97" t="s">
         <v>306</v>
       </c>
       <c r="I55" s="23" t="s">
@@ -6637,11 +6803,11 @@
       <c r="M55" s="15"/>
     </row>
     <row r="56" spans="2:13" ht="33" x14ac:dyDescent="0.3">
-      <c r="B56" s="22">
+      <c r="B56" s="194">
         <v>41</v>
       </c>
-      <c r="C56" s="141" t="s">
-        <v>328</v>
+      <c r="C56" s="86" t="s">
+        <v>320</v>
       </c>
       <c r="D56" s="27" t="s">
         <v>76</v>
@@ -6652,98 +6818,98 @@
       <c r="F56" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G56" s="86" t="s">
+      <c r="G56" s="85" t="s">
         <v>212</v>
       </c>
-      <c r="H56" s="102" t="s">
+      <c r="H56" s="101" t="s">
         <v>309</v>
       </c>
-      <c r="I56" s="117" t="s">
+      <c r="I56" s="185" t="s">
         <v>216</v>
       </c>
-      <c r="J56" s="87" t="s">
+      <c r="J56" s="178" t="s">
         <v>215</v>
       </c>
-      <c r="K56" s="87" t="s">
+      <c r="K56" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="L56" s="118"/>
+      <c r="L56" s="3"/>
       <c r="M56" s="15"/>
     </row>
     <row r="57" spans="2:13" ht="33" x14ac:dyDescent="0.3">
-      <c r="B57" s="22">
+      <c r="B57" s="50">
         <v>42</v>
       </c>
-      <c r="C57" s="141" t="s">
-        <v>328</v>
-      </c>
-      <c r="D57" s="48" t="s">
+      <c r="C57" s="162" t="s">
+        <v>320</v>
+      </c>
+      <c r="D57" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="E57" s="49" t="s">
+      <c r="E57" s="48" t="s">
         <v>159</v>
       </c>
-      <c r="F57" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="G57" s="53" t="s">
+      <c r="F57" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="G57" s="52" t="s">
         <v>209</v>
       </c>
-      <c r="H57" s="105" t="s">
+      <c r="H57" s="104" t="s">
         <v>58</v>
       </c>
-      <c r="I57" s="51" t="s">
-        <v>209</v>
-      </c>
-      <c r="J57" s="48" t="s">
+      <c r="I57" s="186" t="s">
+        <v>352</v>
+      </c>
+      <c r="J57" s="179" t="s">
         <v>200</v>
       </c>
-      <c r="K57" s="54" t="s">
+      <c r="K57" s="53" t="s">
         <v>199</v>
       </c>
-      <c r="L57" s="52"/>
+      <c r="L57" s="3"/>
       <c r="M57" s="15"/>
     </row>
     <row r="58" spans="2:13" ht="33" x14ac:dyDescent="0.3">
-      <c r="B58" s="22">
+      <c r="B58" s="50">
         <v>43</v>
       </c>
-      <c r="C58" s="141" t="s">
-        <v>328</v>
-      </c>
-      <c r="D58" s="48" t="s">
+      <c r="C58" s="162" t="s">
+        <v>320</v>
+      </c>
+      <c r="D58" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="E58" s="49" t="s">
+      <c r="E58" s="48" t="s">
         <v>160</v>
       </c>
-      <c r="F58" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="G58" s="53" t="s">
+      <c r="F58" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="G58" s="52" t="s">
         <v>210</v>
       </c>
-      <c r="H58" s="105" t="s">
+      <c r="H58" s="104" t="s">
         <v>58</v>
       </c>
-      <c r="I58" s="51" t="s">
+      <c r="I58" s="186" t="s">
         <v>210</v>
       </c>
-      <c r="J58" s="48" t="s">
+      <c r="J58" s="179" t="s">
         <v>200</v>
       </c>
-      <c r="K58" s="54" t="s">
+      <c r="K58" s="53" t="s">
         <v>199</v>
       </c>
-      <c r="L58" s="52"/>
+      <c r="L58" s="3"/>
       <c r="M58" s="15"/>
     </row>
     <row r="59" spans="2:13" ht="33" x14ac:dyDescent="0.3">
-      <c r="B59" s="22">
+      <c r="B59" s="194">
         <v>44</v>
       </c>
-      <c r="C59" s="141" t="s">
-        <v>328</v>
+      <c r="C59" s="86" t="s">
+        <v>320</v>
       </c>
       <c r="D59" s="27" t="s">
         <v>44</v>
@@ -6751,33 +6917,33 @@
       <c r="E59" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="F59" s="94" t="s">
+      <c r="F59" s="93" t="s">
         <v>162</v>
       </c>
-      <c r="G59" s="86" t="s">
+      <c r="G59" s="85" t="s">
         <v>213</v>
       </c>
-      <c r="H59" s="102" t="s">
+      <c r="H59" s="101" t="s">
         <v>309</v>
       </c>
-      <c r="I59" s="117" t="s">
+      <c r="I59" s="185" t="s">
         <v>217</v>
       </c>
-      <c r="J59" s="87" t="s">
+      <c r="J59" s="178" t="s">
         <v>215</v>
       </c>
-      <c r="K59" s="87" t="s">
+      <c r="K59" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="L59" s="118"/>
+      <c r="L59" s="3"/>
       <c r="M59" s="15"/>
     </row>
     <row r="60" spans="2:13" ht="33" x14ac:dyDescent="0.3">
-      <c r="B60" s="22">
+      <c r="B60" s="114">
         <v>45</v>
       </c>
-      <c r="C60" s="141" t="s">
-        <v>328</v>
+      <c r="C60" s="44" t="s">
+        <v>320</v>
       </c>
       <c r="D60" s="20" t="s">
         <v>39</v>
@@ -6785,147 +6951,147 @@
       <c r="E60" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="F60" s="94" t="s">
+      <c r="F60" s="93" t="s">
         <v>164</v>
       </c>
-      <c r="G60" s="74" t="s">
+      <c r="G60" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="H60" s="100" t="s">
+      <c r="H60" s="99" t="s">
         <v>222</v>
       </c>
-      <c r="I60" s="116" t="s">
+      <c r="I60" s="181" t="s">
         <v>208</v>
       </c>
-      <c r="J60" s="45" t="s">
+      <c r="J60" s="174" t="s">
         <v>181</v>
       </c>
-      <c r="K60" s="45" t="s">
+      <c r="K60" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="L60" s="124"/>
+      <c r="L60" s="3"/>
       <c r="M60" s="15"/>
     </row>
     <row r="61" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B61" s="22">
+      <c r="B61" s="57">
         <v>46</v>
       </c>
-      <c r="C61" s="141" t="s">
-        <v>328</v>
-      </c>
-      <c r="D61" s="55" t="s">
+      <c r="C61" s="163" t="s">
+        <v>320</v>
+      </c>
+      <c r="D61" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="E61" s="55" t="s">
+      <c r="E61" s="54" t="s">
         <v>182</v>
       </c>
-      <c r="F61" s="56" t="s">
-        <v>40</v>
-      </c>
-      <c r="G61" s="57" t="s">
+      <c r="F61" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="G61" s="188" t="s">
         <v>61</v>
       </c>
-      <c r="H61" s="106" t="s">
+      <c r="H61" s="189" t="s">
         <v>58</v>
       </c>
-      <c r="I61" s="58" t="s">
+      <c r="I61" s="190" t="s">
         <v>61</v>
       </c>
-      <c r="J61" s="55" t="s">
+      <c r="J61" s="191" t="s">
         <v>59</v>
       </c>
-      <c r="K61" s="60" t="s">
+      <c r="K61" s="164" t="s">
         <v>199</v>
       </c>
-      <c r="L61" s="59"/>
+      <c r="L61" s="3"/>
       <c r="M61" s="15"/>
     </row>
     <row r="62" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B62" s="24">
         <v>47</v>
       </c>
-      <c r="C62" s="131" t="s">
-        <v>326</v>
-      </c>
-      <c r="D62" s="90" t="s">
+      <c r="C62" s="126" t="s">
+        <v>318</v>
+      </c>
+      <c r="D62" s="89" t="s">
         <v>150</v>
       </c>
-      <c r="E62" s="147" t="s">
+      <c r="E62" s="157" t="s">
         <v>126</v>
       </c>
-      <c r="F62" s="148"/>
+      <c r="F62" s="158"/>
       <c r="G62" s="24"/>
-      <c r="H62" s="101"/>
+      <c r="H62" s="100"/>
       <c r="I62" s="24"/>
-      <c r="J62" s="90"/>
-      <c r="K62" s="90"/>
-      <c r="L62" s="19"/>
+      <c r="J62" s="89"/>
+      <c r="K62" s="89"/>
+      <c r="L62" s="3"/>
       <c r="M62" s="15"/>
     </row>
     <row r="63" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B63" s="24">
         <v>48</v>
       </c>
-      <c r="C63" s="132" t="s">
-        <v>326</v>
-      </c>
-      <c r="D63" s="90" t="s">
+      <c r="C63" s="127" t="s">
+        <v>318</v>
+      </c>
+      <c r="D63" s="89" t="s">
         <v>95</v>
       </c>
-      <c r="E63" s="147" t="s">
+      <c r="E63" s="157" t="s">
         <v>107</v>
       </c>
-      <c r="F63" s="148"/>
+      <c r="F63" s="158"/>
       <c r="G63" s="24"/>
-      <c r="H63" s="101"/>
+      <c r="H63" s="100"/>
       <c r="I63" s="24"/>
-      <c r="J63" s="90"/>
-      <c r="K63" s="90"/>
-      <c r="L63" s="19"/>
+      <c r="J63" s="89"/>
+      <c r="K63" s="89"/>
+      <c r="L63" s="3"/>
       <c r="M63" s="15"/>
     </row>
     <row r="64" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B64" s="22">
+      <c r="B64" s="57">
         <v>49</v>
       </c>
-      <c r="C64" s="144" t="s">
-        <v>328</v>
-      </c>
-      <c r="D64" s="55" t="s">
+      <c r="C64" s="195" t="s">
+        <v>320</v>
+      </c>
+      <c r="D64" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="E64" s="55" t="s">
+      <c r="E64" s="54" t="s">
         <v>183</v>
       </c>
-      <c r="F64" s="56" t="s">
-        <v>40</v>
-      </c>
-      <c r="G64" s="57" t="s">
+      <c r="F64" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="G64" s="188" t="s">
         <v>57</v>
       </c>
-      <c r="H64" s="106" t="s">
+      <c r="H64" s="189" t="s">
         <v>58</v>
       </c>
-      <c r="I64" s="58" t="s">
+      <c r="I64" s="190" t="s">
         <v>57</v>
       </c>
-      <c r="J64" s="55" t="s">
+      <c r="J64" s="191" t="s">
         <v>59</v>
       </c>
-      <c r="K64" s="60" t="s">
+      <c r="K64" s="164" t="s">
         <v>198</v>
       </c>
-      <c r="L64" s="59"/>
+      <c r="L64" s="3"/>
       <c r="M64" s="15"/>
     </row>
     <row r="65" spans="2:13" ht="33" x14ac:dyDescent="0.3">
       <c r="B65" s="22">
         <v>50</v>
       </c>
-      <c r="C65" s="141" t="s">
-        <v>328</v>
-      </c>
-      <c r="D65" s="93" t="s">
+      <c r="C65" s="135" t="s">
+        <v>320</v>
+      </c>
+      <c r="D65" s="92" t="s">
         <v>53</v>
       </c>
       <c r="E65" s="10" t="s">
@@ -6937,7 +7103,7 @@
       <c r="G65" s="23" t="s">
         <v>305</v>
       </c>
-      <c r="H65" s="98" t="s">
+      <c r="H65" s="97" t="s">
         <v>306</v>
       </c>
       <c r="I65" s="23" t="s">
@@ -6956,78 +7122,78 @@
       <c r="B66" s="22">
         <v>51</v>
       </c>
-      <c r="C66" s="141" t="s">
-        <v>328</v>
-      </c>
-      <c r="D66" s="20" t="s">
+      <c r="C66" s="135" t="s">
+        <v>320</v>
+      </c>
+      <c r="D66" s="137" t="s">
         <v>45</v>
       </c>
-      <c r="E66" s="93" t="s">
+      <c r="E66" s="92" t="s">
         <v>166</v>
       </c>
       <c r="F66" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G66" s="74" t="s">
-        <v>19</v>
-      </c>
-      <c r="H66" s="100" t="s">
-        <v>222</v>
-      </c>
-      <c r="I66" s="116" t="s">
-        <v>192</v>
-      </c>
-      <c r="J66" s="45" t="s">
-        <v>195</v>
-      </c>
-      <c r="K66" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="L66" s="124"/>
+      <c r="G66" s="23" t="s">
+        <v>305</v>
+      </c>
+      <c r="H66" s="97" t="s">
+        <v>306</v>
+      </c>
+      <c r="I66" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="J66" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K66" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L66" s="3"/>
       <c r="M66" s="15"/>
     </row>
     <row r="67" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B67" s="22">
         <v>52</v>
       </c>
-      <c r="C67" s="141" t="s">
-        <v>328</v>
-      </c>
-      <c r="D67" s="20" t="s">
+      <c r="C67" s="135" t="s">
+        <v>320</v>
+      </c>
+      <c r="D67" s="137" t="s">
         <v>42</v>
       </c>
-      <c r="E67" s="93" t="s">
+      <c r="E67" s="92" t="s">
         <v>167</v>
       </c>
       <c r="F67" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G67" s="74" t="s">
-        <v>19</v>
-      </c>
-      <c r="H67" s="100" t="s">
-        <v>222</v>
-      </c>
-      <c r="I67" s="116" t="s">
-        <v>191</v>
-      </c>
-      <c r="J67" s="45" t="s">
-        <v>194</v>
-      </c>
-      <c r="K67" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="L67" s="124"/>
+      <c r="G67" s="23" t="s">
+        <v>305</v>
+      </c>
+      <c r="H67" s="97" t="s">
+        <v>306</v>
+      </c>
+      <c r="I67" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="J67" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K67" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L67" s="3"/>
       <c r="M67" s="15"/>
     </row>
     <row r="68" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B68" s="22">
         <v>53</v>
       </c>
-      <c r="C68" s="141" t="s">
-        <v>328</v>
-      </c>
-      <c r="D68" s="20" t="s">
+      <c r="C68" s="135" t="s">
+        <v>320</v>
+      </c>
+      <c r="D68" s="137" t="s">
         <v>41</v>
       </c>
       <c r="E68" s="10" t="s">
@@ -7036,35 +7202,35 @@
       <c r="F68" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G68" s="74" t="s">
-        <v>19</v>
-      </c>
-      <c r="H68" s="100" t="s">
-        <v>222</v>
-      </c>
-      <c r="I68" s="116" t="s">
-        <v>190</v>
-      </c>
-      <c r="J68" s="45" t="s">
-        <v>193</v>
-      </c>
-      <c r="K68" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="L68" s="124"/>
+      <c r="G68" s="23" t="s">
+        <v>305</v>
+      </c>
+      <c r="H68" s="97" t="s">
+        <v>306</v>
+      </c>
+      <c r="I68" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="J68" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K68" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L68" s="3"/>
       <c r="M68" s="15"/>
     </row>
     <row r="69" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B69" s="22">
         <v>54</v>
       </c>
-      <c r="C69" s="141" t="s">
-        <v>328</v>
-      </c>
-      <c r="D69" s="93" t="s">
+      <c r="C69" s="135" t="s">
+        <v>320</v>
+      </c>
+      <c r="D69" s="92" t="s">
         <v>71</v>
       </c>
-      <c r="E69" s="93" t="s">
+      <c r="E69" s="92" t="s">
         <v>169</v>
       </c>
       <c r="F69" s="8" t="s">
@@ -7073,7 +7239,7 @@
       <c r="G69" s="23" t="s">
         <v>305</v>
       </c>
-      <c r="H69" s="98" t="s">
+      <c r="H69" s="97" t="s">
         <v>306</v>
       </c>
       <c r="I69" s="23" t="s">
@@ -7092,13 +7258,13 @@
       <c r="B70" s="22">
         <v>55</v>
       </c>
-      <c r="C70" s="141" t="s">
-        <v>328</v>
-      </c>
-      <c r="D70" s="93" t="s">
+      <c r="C70" s="135" t="s">
+        <v>320</v>
+      </c>
+      <c r="D70" s="92" t="s">
         <v>54</v>
       </c>
-      <c r="E70" s="93" t="s">
+      <c r="E70" s="92" t="s">
         <v>170</v>
       </c>
       <c r="F70" s="8" t="s">
@@ -7107,7 +7273,7 @@
       <c r="G70" s="23" t="s">
         <v>305</v>
       </c>
-      <c r="H70" s="98" t="s">
+      <c r="H70" s="97" t="s">
         <v>306</v>
       </c>
       <c r="I70" s="23" t="s">
@@ -7123,13 +7289,13 @@
       <c r="M70" s="15"/>
     </row>
     <row r="71" spans="2:13" ht="33" x14ac:dyDescent="0.3">
-      <c r="B71" s="22">
+      <c r="B71" s="114">
         <v>56</v>
       </c>
-      <c r="C71" s="141" t="s">
-        <v>328</v>
-      </c>
-      <c r="D71" s="93" t="s">
+      <c r="C71" s="44" t="s">
+        <v>320</v>
+      </c>
+      <c r="D71" s="20" t="s">
         <v>55</v>
       </c>
       <c r="E71" s="10" t="s">
@@ -7138,44 +7304,46 @@
       <c r="F71" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G71" s="23" t="s">
-        <v>305</v>
-      </c>
-      <c r="H71" s="98" t="s">
-        <v>306</v>
-      </c>
-      <c r="I71" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="J71" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K71" s="7" t="s">
-        <v>40</v>
+      <c r="G71" s="130" t="s">
+        <v>346</v>
+      </c>
+      <c r="H71" s="99" t="s">
+        <v>329</v>
+      </c>
+      <c r="I71" s="184" t="s">
+        <v>342</v>
+      </c>
+      <c r="J71" s="177" t="s">
+        <v>344</v>
+      </c>
+      <c r="K71" s="88" t="s">
+        <v>345</v>
       </c>
       <c r="L71" s="3"/>
-      <c r="M71" s="15"/>
+      <c r="M71" s="15" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="72" spans="2:13" ht="33" x14ac:dyDescent="0.3">
       <c r="B72" s="22">
         <v>57</v>
       </c>
-      <c r="C72" s="141" t="s">
-        <v>328</v>
-      </c>
-      <c r="D72" s="93" t="s">
+      <c r="C72" s="135" t="s">
+        <v>320</v>
+      </c>
+      <c r="D72" s="92" t="s">
         <v>63</v>
       </c>
       <c r="E72" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="F72" s="94" t="s">
+      <c r="F72" s="93" t="s">
         <v>177</v>
       </c>
       <c r="G72" s="23" t="s">
         <v>305</v>
       </c>
-      <c r="H72" s="98" t="s">
+      <c r="H72" s="97" t="s">
         <v>306</v>
       </c>
       <c r="I72" s="23" t="s">
@@ -7191,13 +7359,13 @@
       <c r="M72" s="15"/>
     </row>
     <row r="73" spans="2:13" ht="33" x14ac:dyDescent="0.3">
-      <c r="B73" s="22">
+      <c r="B73" s="114">
         <v>58</v>
       </c>
-      <c r="C73" s="141" t="s">
-        <v>331</v>
-      </c>
-      <c r="D73" s="93" t="s">
+      <c r="C73" s="44" t="s">
+        <v>323</v>
+      </c>
+      <c r="D73" s="20" t="s">
         <v>64</v>
       </c>
       <c r="E73" s="10" t="s">
@@ -7206,32 +7374,34 @@
       <c r="F73" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G73" s="23" t="s">
-        <v>305</v>
-      </c>
-      <c r="H73" s="98" t="s">
-        <v>306</v>
-      </c>
-      <c r="I73" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="J73" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K73" s="7" t="s">
-        <v>40</v>
+      <c r="G73" s="130" t="s">
+        <v>341</v>
+      </c>
+      <c r="H73" s="99" t="s">
+        <v>329</v>
+      </c>
+      <c r="I73" s="184" t="s">
+        <v>343</v>
+      </c>
+      <c r="J73" s="177" t="s">
+        <v>344</v>
+      </c>
+      <c r="K73" s="88" t="s">
+        <v>345</v>
       </c>
       <c r="L73" s="3"/>
-      <c r="M73" s="15"/>
+      <c r="M73" s="15" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="74" spans="2:13" ht="33" x14ac:dyDescent="0.3">
       <c r="B74" s="22">
         <v>59</v>
       </c>
-      <c r="C74" s="141" t="s">
-        <v>331</v>
-      </c>
-      <c r="D74" s="93" t="s">
+      <c r="C74" s="135" t="s">
+        <v>323</v>
+      </c>
+      <c r="D74" s="92" t="s">
         <v>66</v>
       </c>
       <c r="E74" s="10" t="s">
@@ -7243,7 +7413,7 @@
       <c r="G74" s="23" t="s">
         <v>305</v>
       </c>
-      <c r="H74" s="98" t="s">
+      <c r="H74" s="97" t="s">
         <v>306</v>
       </c>
       <c r="I74" s="23" t="s">
@@ -7255,67 +7425,67 @@
       <c r="K74" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="L74" s="3"/>
+      <c r="L74" s="166"/>
       <c r="M74" s="15"/>
     </row>
     <row r="75" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B75" s="24">
         <v>60</v>
       </c>
-      <c r="C75" s="131" t="s">
-        <v>332</v>
-      </c>
-      <c r="D75" s="90" t="s">
+      <c r="C75" s="126" t="s">
+        <v>324</v>
+      </c>
+      <c r="D75" s="89" t="s">
         <v>156</v>
       </c>
-      <c r="E75" s="147" t="s">
+      <c r="E75" s="157" t="s">
         <v>175</v>
       </c>
-      <c r="F75" s="148"/>
+      <c r="F75" s="158"/>
       <c r="G75" s="24" t="s">
         <v>224</v>
       </c>
-      <c r="H75" s="101"/>
-      <c r="I75" s="24" t="s">
+      <c r="H75" s="100"/>
+      <c r="I75" s="187" t="s">
         <v>224</v>
       </c>
-      <c r="J75" s="90"/>
-      <c r="K75" s="90"/>
-      <c r="L75" s="3"/>
+      <c r="J75" s="180"/>
+      <c r="K75" s="89"/>
+      <c r="L75" s="166"/>
       <c r="M75" s="15"/>
     </row>
     <row r="76" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B76" s="22">
+      <c r="B76" s="114">
         <v>61</v>
       </c>
-      <c r="C76" s="141" t="s">
-        <v>331</v>
+      <c r="C76" s="44" t="s">
+        <v>323</v>
       </c>
       <c r="D76" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="E76" s="93" t="s">
+      <c r="E76" s="92" t="s">
         <v>176</v>
       </c>
       <c r="F76" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G76" s="74" t="s">
+      <c r="G76" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="H76" s="100" t="s">
-        <v>222</v>
-      </c>
-      <c r="I76" s="116" t="s">
+      <c r="H76" s="99" t="s">
+        <v>20</v>
+      </c>
+      <c r="I76" s="181" t="s">
         <v>234</v>
       </c>
-      <c r="J76" s="45" t="s">
+      <c r="J76" s="174" t="s">
         <v>214</v>
       </c>
-      <c r="K76" s="45" t="s">
+      <c r="K76" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="L76" s="45" t="s">
+      <c r="L76" s="135" t="s">
         <v>231</v>
       </c>
       <c r="M76" s="15" t="s">
@@ -7323,11 +7493,11 @@
       </c>
     </row>
     <row r="77" spans="2:13" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B77" s="22">
+      <c r="B77" s="114">
         <v>62</v>
       </c>
-      <c r="C77" s="141" t="s">
-        <v>331</v>
+      <c r="C77" s="44" t="s">
+        <v>323</v>
       </c>
       <c r="D77" s="20" t="s">
         <v>47</v>
@@ -7338,22 +7508,22 @@
       <c r="F77" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G77" s="74" t="s">
+      <c r="G77" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="H77" s="100" t="s">
-        <v>318</v>
-      </c>
-      <c r="I77" s="116" t="s">
+      <c r="H77" s="99" t="s">
+        <v>329</v>
+      </c>
+      <c r="I77" s="181" t="s">
         <v>207</v>
       </c>
-      <c r="J77" s="45" t="s">
+      <c r="J77" s="174" t="s">
         <v>228</v>
       </c>
-      <c r="K77" s="45" t="s">
+      <c r="K77" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="L77" s="124"/>
+      <c r="L77" s="168"/>
       <c r="M77" s="15" t="s">
         <v>235</v>
       </c>
@@ -7362,21 +7532,21 @@
       <c r="B78" s="24">
         <v>63</v>
       </c>
-      <c r="C78" s="131" t="s">
-        <v>326</v>
-      </c>
-      <c r="D78" s="90" t="s">
+      <c r="C78" s="126" t="s">
+        <v>318</v>
+      </c>
+      <c r="D78" s="89" t="s">
         <v>150</v>
       </c>
-      <c r="E78" s="147" t="s">
+      <c r="E78" s="157" t="s">
         <v>126</v>
       </c>
-      <c r="F78" s="148"/>
+      <c r="F78" s="158"/>
       <c r="G78" s="24"/>
-      <c r="H78" s="101"/>
+      <c r="H78" s="100"/>
       <c r="I78" s="24"/>
-      <c r="J78" s="90"/>
-      <c r="K78" s="90"/>
+      <c r="J78" s="89"/>
+      <c r="K78" s="89"/>
       <c r="L78" s="19"/>
       <c r="M78" s="15"/>
     </row>
@@ -7384,110 +7554,156 @@
       <c r="B79" s="25">
         <v>64</v>
       </c>
-      <c r="C79" s="132" t="s">
-        <v>326</v>
-      </c>
-      <c r="D79" s="91" t="s">
+      <c r="C79" s="127" t="s">
+        <v>318</v>
+      </c>
+      <c r="D79" s="90" t="s">
         <v>95</v>
       </c>
-      <c r="E79" s="149" t="s">
+      <c r="E79" s="159" t="s">
         <v>107</v>
       </c>
-      <c r="F79" s="150"/>
+      <c r="F79" s="160"/>
       <c r="G79" s="25"/>
-      <c r="H79" s="107"/>
+      <c r="H79" s="106"/>
       <c r="I79" s="25"/>
-      <c r="J79" s="91"/>
-      <c r="K79" s="91"/>
-      <c r="L79" s="44"/>
+      <c r="J79" s="90"/>
+      <c r="K79" s="90"/>
+      <c r="L79" s="43"/>
       <c r="M79" s="30"/>
     </row>
-    <row r="83" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="G83" s="136" t="s">
-        <v>245</v>
-      </c>
-      <c r="H83" s="103" t="s">
-        <v>222</v>
-      </c>
-      <c r="I83" s="119" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="84" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
-      <c r="G84" s="136" t="s">
-        <v>246</v>
-      </c>
-      <c r="H84" s="103" t="s">
-        <v>20</v>
-      </c>
-      <c r="I84" s="119" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="85" spans="5:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
-      <c r="G85" s="135" t="s">
-        <v>37</v>
-      </c>
-      <c r="H85" s="100" t="s">
-        <v>318</v>
-      </c>
-      <c r="I85" s="116" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="86" spans="5:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
-    </row>
-    <row r="87" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="G86" s="130" t="s">
+        <v>346</v>
+      </c>
+      <c r="H86" s="99" t="s">
+        <v>329</v>
+      </c>
+      <c r="I86" s="171" t="s">
+        <v>342</v>
+      </c>
+      <c r="J86" s="88" t="s">
+        <v>344</v>
+      </c>
+      <c r="K86" s="88" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="87" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
-    </row>
-    <row r="88" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="G87" s="131" t="s">
+        <v>245</v>
+      </c>
+      <c r="H87" s="99" t="s">
+        <v>332</v>
+      </c>
+      <c r="I87" s="118" t="s">
+        <v>196</v>
+      </c>
+      <c r="J87" s="169" t="s">
+        <v>316</v>
+      </c>
+      <c r="K87" s="82" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="88" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
-    </row>
-    <row r="89" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="G88" s="130" t="s">
+        <v>341</v>
+      </c>
+      <c r="H88" s="99" t="s">
+        <v>329</v>
+      </c>
+      <c r="I88" s="171" t="s">
+        <v>343</v>
+      </c>
+      <c r="J88" s="88" t="s">
+        <v>344</v>
+      </c>
+      <c r="K88" s="88" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="89" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
-    </row>
-    <row r="90" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="G89" s="131" t="s">
+        <v>246</v>
+      </c>
+      <c r="H89" s="102" t="s">
+        <v>20</v>
+      </c>
+      <c r="I89" s="118" t="s">
+        <v>243</v>
+      </c>
+      <c r="J89" s="82" t="s">
+        <v>201</v>
+      </c>
+      <c r="K89" s="82" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="90" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
-    </row>
-    <row r="91" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="G90" s="130" t="s">
+        <v>37</v>
+      </c>
+      <c r="H90" s="99" t="s">
+        <v>329</v>
+      </c>
+      <c r="I90" s="115" t="s">
+        <v>207</v>
+      </c>
+      <c r="J90" s="44" t="s">
+        <v>228</v>
+      </c>
+      <c r="K90" s="44" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="91" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
     </row>
-    <row r="92" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
     </row>
-    <row r="93" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
     </row>
-    <row r="94" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
     </row>
-    <row r="95" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="B15:O79"/>
   <mergeCells count="23">
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="I14:M14"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="E78:F78"/>
     <mergeCell ref="E46:F46"/>
     <mergeCell ref="E47:F47"/>
     <mergeCell ref="D14:D15"/>
@@ -7499,12 +7715,12 @@
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="E33:F33"/>
     <mergeCell ref="E34:F34"/>
-    <mergeCell ref="I14:M14"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7532,7 +7748,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="72" t="s">
         <v>268</v>
       </c>
     </row>
@@ -7552,332 +7768,332 @@
       </c>
     </row>
     <row r="6" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="73" t="s">
+      <c r="C6" s="72" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="D7" s="64"/>
-      <c r="E7" s="71" t="s">
+      <c r="D7" s="63"/>
+      <c r="E7" s="70" t="s">
         <v>275</v>
       </c>
-      <c r="F7" s="71" t="s">
+      <c r="F7" s="70" t="s">
         <v>270</v>
       </c>
-      <c r="G7" s="71" t="s">
+      <c r="G7" s="70" t="s">
         <v>293</v>
       </c>
-      <c r="H7" s="71" t="s">
+      <c r="H7" s="70" t="s">
         <v>269</v>
       </c>
-      <c r="I7" s="71" t="s">
+      <c r="I7" s="70" t="s">
         <v>294</v>
       </c>
-      <c r="J7" s="71" t="s">
+      <c r="J7" s="70" t="s">
         <v>277</v>
       </c>
-      <c r="K7" s="72" t="s">
+      <c r="K7" s="71" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="D8" s="77" t="s">
+      <c r="D8" s="76" t="s">
         <v>249</v>
       </c>
-      <c r="E8" s="67">
+      <c r="E8" s="66">
         <v>8000000</v>
       </c>
-      <c r="F8" s="67">
+      <c r="F8" s="66">
         <v>8000000</v>
       </c>
-      <c r="G8" s="67">
+      <c r="G8" s="66">
         <v>8000000</v>
       </c>
-      <c r="H8" s="67">
+      <c r="H8" s="66">
         <v>8000000</v>
       </c>
-      <c r="I8" s="67">
+      <c r="I8" s="66">
         <v>8000000</v>
       </c>
-      <c r="J8" s="67" t="s">
+      <c r="J8" s="66" t="s">
         <v>258</v>
       </c>
-      <c r="K8" s="68" t="s">
+      <c r="K8" s="67" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="D9" s="77" t="s">
+      <c r="D9" s="76" t="s">
         <v>250</v>
       </c>
-      <c r="E9" s="67">
+      <c r="E9" s="66">
         <v>2</v>
       </c>
-      <c r="F9" s="67">
+      <c r="F9" s="66">
         <v>2</v>
       </c>
-      <c r="G9" s="67">
+      <c r="G9" s="66">
         <v>2</v>
       </c>
-      <c r="H9" s="67">
+      <c r="H9" s="66">
         <v>1</v>
       </c>
-      <c r="I9" s="67">
+      <c r="I9" s="66">
         <v>2</v>
       </c>
-      <c r="J9" s="67"/>
-      <c r="K9" s="68"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="67"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="D10" s="77" t="s">
+      <c r="D10" s="76" t="s">
         <v>252</v>
       </c>
-      <c r="E10" s="67">
+      <c r="E10" s="66">
         <f>E8/E9</f>
         <v>4000000</v>
       </c>
-      <c r="F10" s="67">
+      <c r="F10" s="66">
         <f>F8/F9</f>
         <v>4000000</v>
       </c>
-      <c r="G10" s="67">
+      <c r="G10" s="66">
         <f>G8/G9</f>
         <v>4000000</v>
       </c>
-      <c r="H10" s="67">
+      <c r="H10" s="66">
         <f>H8/H9</f>
         <v>8000000</v>
       </c>
-      <c r="I10" s="67">
+      <c r="I10" s="66">
         <f>I8/I9</f>
         <v>4000000</v>
       </c>
-      <c r="J10" s="67" t="s">
+      <c r="J10" s="66" t="s">
         <v>258</v>
       </c>
-      <c r="K10" s="68" t="s">
+      <c r="K10" s="67" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="D11" s="77" t="s">
+      <c r="D11" s="76" t="s">
         <v>251</v>
       </c>
-      <c r="E11" s="67">
+      <c r="E11" s="66">
         <v>12</v>
       </c>
-      <c r="F11" s="67">
+      <c r="F11" s="66">
         <v>12</v>
       </c>
-      <c r="G11" s="67">
+      <c r="G11" s="66">
         <v>12</v>
       </c>
-      <c r="H11" s="67">
+      <c r="H11" s="66">
         <v>6</v>
       </c>
-      <c r="I11" s="67">
+      <c r="I11" s="66">
         <v>12</v>
       </c>
-      <c r="J11" s="67"/>
-      <c r="K11" s="68"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="67"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="D12" s="77" t="s">
+      <c r="D12" s="76" t="s">
         <v>253</v>
       </c>
-      <c r="E12" s="67">
+      <c r="E12" s="66">
         <f>E10*E11</f>
         <v>48000000</v>
       </c>
-      <c r="F12" s="67">
+      <c r="F12" s="66">
         <f>F10*F11</f>
         <v>48000000</v>
       </c>
-      <c r="G12" s="67">
+      <c r="G12" s="66">
         <f>G10*G11</f>
         <v>48000000</v>
       </c>
-      <c r="H12" s="67">
+      <c r="H12" s="66">
         <f>H10*H11</f>
         <v>48000000</v>
       </c>
-      <c r="I12" s="67">
+      <c r="I12" s="66">
         <f>I10*I11</f>
         <v>48000000</v>
       </c>
-      <c r="J12" s="67" t="s">
+      <c r="J12" s="66" t="s">
         <v>258</v>
       </c>
-      <c r="K12" s="68" t="s">
+      <c r="K12" s="67" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="D13" s="77" t="s">
+      <c r="D13" s="76" t="s">
         <v>254</v>
       </c>
-      <c r="E13" s="67">
+      <c r="E13" s="66">
         <v>1</v>
       </c>
-      <c r="F13" s="67">
+      <c r="F13" s="66">
         <v>1</v>
       </c>
-      <c r="G13" s="67">
+      <c r="G13" s="66">
         <v>1</v>
       </c>
-      <c r="H13" s="67">
+      <c r="H13" s="66">
         <v>1</v>
       </c>
-      <c r="I13" s="67">
+      <c r="I13" s="66">
         <v>1</v>
       </c>
-      <c r="J13" s="67"/>
-      <c r="K13" s="68"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="67"/>
     </row>
     <row r="14" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D14" s="78" t="s">
+      <c r="D14" s="77" t="s">
         <v>255</v>
       </c>
-      <c r="E14" s="69">
+      <c r="E14" s="68">
         <f>E12/E13</f>
         <v>48000000</v>
       </c>
-      <c r="F14" s="69">
+      <c r="F14" s="68">
         <f>F12/F13</f>
         <v>48000000</v>
       </c>
-      <c r="G14" s="69">
+      <c r="G14" s="68">
         <f>G12/G13</f>
         <v>48000000</v>
       </c>
-      <c r="H14" s="69">
+      <c r="H14" s="68">
         <f>H12/H13</f>
         <v>48000000</v>
       </c>
-      <c r="I14" s="69">
+      <c r="I14" s="68">
         <f>I12/I13</f>
         <v>48000000</v>
       </c>
-      <c r="J14" s="69" t="s">
+      <c r="J14" s="68" t="s">
         <v>258</v>
       </c>
-      <c r="K14" s="70"/>
+      <c r="K14" s="69"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C16" s="73" t="s">
+      <c r="C16" s="72" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="17" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="73" t="s">
+      <c r="C17" s="72" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="D18" s="75" t="s">
+      <c r="D18" s="74" t="s">
         <v>248</v>
       </c>
-      <c r="E18" s="65">
+      <c r="E18" s="64">
         <v>1</v>
       </c>
-      <c r="F18" s="65">
+      <c r="F18" s="64">
         <v>1</v>
       </c>
-      <c r="G18" s="65">
+      <c r="G18" s="64">
         <v>1</v>
       </c>
-      <c r="H18" s="65">
+      <c r="H18" s="64">
         <v>4</v>
       </c>
-      <c r="I18" s="65">
+      <c r="I18" s="64">
         <v>1</v>
       </c>
-      <c r="J18" s="65"/>
-      <c r="K18" s="66"/>
+      <c r="J18" s="64"/>
+      <c r="K18" s="65"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="D19" s="76" t="s">
+      <c r="D19" s="75" t="s">
         <v>256</v>
       </c>
-      <c r="E19" s="67">
+      <c r="E19" s="66">
         <f>E14/E18</f>
         <v>48000000</v>
       </c>
-      <c r="F19" s="67">
+      <c r="F19" s="66">
         <f>F14/F18</f>
         <v>48000000</v>
       </c>
-      <c r="G19" s="67">
+      <c r="G19" s="66">
         <f>G14/G18</f>
         <v>48000000</v>
       </c>
-      <c r="H19" s="67">
+      <c r="H19" s="66">
         <f>H14/H18</f>
         <v>12000000</v>
       </c>
-      <c r="I19" s="67">
+      <c r="I19" s="66">
         <f>I14/I18</f>
         <v>48000000</v>
       </c>
-      <c r="J19" s="67" t="s">
+      <c r="J19" s="66" t="s">
         <v>258</v>
       </c>
-      <c r="K19" s="68" t="s">
+      <c r="K19" s="67" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="D20" s="77" t="s">
+      <c r="D20" s="76" t="s">
         <v>257</v>
       </c>
-      <c r="E20" s="67">
+      <c r="E20" s="66">
         <v>1</v>
       </c>
-      <c r="F20" s="67">
+      <c r="F20" s="66">
         <v>1</v>
       </c>
-      <c r="G20" s="67">
+      <c r="G20" s="66">
         <v>1</v>
       </c>
-      <c r="H20" s="67">
+      <c r="H20" s="66">
         <v>2</v>
       </c>
-      <c r="I20" s="67">
+      <c r="I20" s="66">
         <v>1</v>
       </c>
-      <c r="J20" s="67"/>
+      <c r="J20" s="66"/>
       <c r="K20" s="15" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="21" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D21" s="78" t="s">
+      <c r="D21" s="77" t="s">
         <v>295</v>
       </c>
-      <c r="E21" s="69">
+      <c r="E21" s="68">
         <f>E19*E20</f>
         <v>48000000</v>
       </c>
-      <c r="F21" s="69">
+      <c r="F21" s="68">
         <f>F19*F20</f>
         <v>48000000</v>
       </c>
-      <c r="G21" s="69">
+      <c r="G21" s="68">
         <f>G19*G20</f>
         <v>48000000</v>
       </c>
-      <c r="H21" s="69">
+      <c r="H21" s="68">
         <f>H19*H20</f>
         <v>24000000</v>
       </c>
-      <c r="I21" s="69">
+      <c r="I21" s="68">
         <f>I19*I20</f>
         <v>48000000</v>
       </c>
-      <c r="J21" s="69" t="s">
+      <c r="J21" s="68" t="s">
         <v>258</v>
       </c>
-      <c r="K21" s="70" t="s">
+      <c r="K21" s="69" t="s">
         <v>264</v>
       </c>
       <c r="L21" t="s">
@@ -7885,250 +8101,250 @@
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B23" s="73" t="s">
+      <c r="B23" s="72" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B24" s="73"/>
+      <c r="B24" s="72"/>
       <c r="C24" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="25" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C25" s="73" t="s">
+      <c r="C25" s="72" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="D26" s="75" t="s">
+      <c r="D26" s="74" t="s">
         <v>260</v>
       </c>
-      <c r="E26" s="65">
+      <c r="E26" s="64">
         <v>16000000</v>
       </c>
-      <c r="F26" s="65">
+      <c r="F26" s="64">
         <v>16000000</v>
       </c>
-      <c r="G26" s="65">
+      <c r="G26" s="64">
         <v>8000000</v>
       </c>
-      <c r="H26" s="65">
+      <c r="H26" s="64">
         <v>8000000</v>
       </c>
-      <c r="I26" s="65">
+      <c r="I26" s="64">
         <v>1000000</v>
       </c>
-      <c r="J26" s="65" t="s">
+      <c r="J26" s="64" t="s">
         <v>258</v>
       </c>
-      <c r="K26" s="66" t="s">
+      <c r="K26" s="65" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="27" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D27" s="79" t="s">
+      <c r="D27" s="78" t="s">
         <v>262</v>
       </c>
-      <c r="E27" s="69">
+      <c r="E27" s="68">
         <f>(E21/E26)-1</f>
         <v>2</v>
       </c>
-      <c r="F27" s="69">
+      <c r="F27" s="68">
         <f>(F21/F26)-1</f>
         <v>2</v>
       </c>
-      <c r="G27" s="69">
+      <c r="G27" s="68">
         <f>(G21/G26)-1</f>
         <v>5</v>
       </c>
-      <c r="H27" s="69">
+      <c r="H27" s="68">
         <f>(H21/H26)-1</f>
         <v>2</v>
       </c>
-      <c r="I27" s="69">
+      <c r="I27" s="68">
         <f>(I21/I26)-1</f>
         <v>47</v>
       </c>
-      <c r="J27" s="69"/>
-      <c r="K27" s="81" t="s">
+      <c r="J27" s="68"/>
+      <c r="K27" s="80" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="D28" s="63"/>
+      <c r="D28" s="62"/>
     </row>
     <row r="29" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C29" s="73" t="s">
+      <c r="C29" s="72" t="s">
         <v>283</v>
       </c>
-      <c r="D29" s="63"/>
+      <c r="D29" s="62"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="D30" s="75" t="s">
+      <c r="D30" s="74" t="s">
         <v>265</v>
       </c>
-      <c r="E30" s="65">
+      <c r="E30" s="64">
         <v>24000</v>
       </c>
-      <c r="F30" s="65">
+      <c r="F30" s="64">
         <v>80000</v>
       </c>
-      <c r="G30" s="65">
+      <c r="G30" s="64">
         <v>80000</v>
       </c>
-      <c r="H30" s="65">
+      <c r="H30" s="64">
         <v>80000</v>
       </c>
-      <c r="I30" s="65">
+      <c r="I30" s="64">
         <v>80000</v>
       </c>
-      <c r="J30" s="65" t="s">
+      <c r="J30" s="64" t="s">
         <v>258</v>
       </c>
-      <c r="K30" s="66"/>
+      <c r="K30" s="65"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="D31" s="76" t="s">
+      <c r="D31" s="75" t="s">
         <v>285</v>
       </c>
-      <c r="E31" s="67">
+      <c r="E31" s="66">
         <f>INT(E26/E30-1)</f>
         <v>665</v>
       </c>
-      <c r="F31" s="67">
+      <c r="F31" s="66">
         <f>INT(F26/F30-1)</f>
         <v>199</v>
       </c>
-      <c r="G31" s="67">
+      <c r="G31" s="66">
         <f>INT(G26/G30-1)</f>
         <v>99</v>
       </c>
-      <c r="H31" s="67">
+      <c r="H31" s="66">
         <f>INT(H26/H30-1)</f>
         <v>99</v>
       </c>
-      <c r="I31" s="67">
+      <c r="I31" s="66">
         <f>INT(I26/I30-1)</f>
         <v>11</v>
       </c>
-      <c r="J31" s="67"/>
-      <c r="K31" s="82" t="s">
+      <c r="J31" s="66"/>
+      <c r="K31" s="81" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="D32" s="76" t="s">
+      <c r="D32" s="75" t="s">
         <v>286</v>
       </c>
-      <c r="E32" s="80">
+      <c r="E32" s="79">
         <f>E26/(65535+1)</f>
         <v>244.140625</v>
       </c>
-      <c r="F32" s="80">
+      <c r="F32" s="79">
         <f>F26/(65535+1)</f>
         <v>244.140625</v>
       </c>
-      <c r="G32" s="80">
+      <c r="G32" s="79">
         <f>G26/(65535+1)</f>
         <v>122.0703125</v>
       </c>
-      <c r="H32" s="80">
+      <c r="H32" s="79">
         <f>H26/(65535+1)</f>
         <v>122.0703125</v>
       </c>
-      <c r="I32" s="80">
+      <c r="I32" s="79">
         <f>I26/(65535+1)</f>
         <v>15.2587890625</v>
       </c>
-      <c r="J32" s="67" t="s">
+      <c r="J32" s="66" t="s">
         <v>258</v>
       </c>
-      <c r="K32" s="68" t="s">
+      <c r="K32" s="67" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="33" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D33" s="76" t="s">
+      <c r="D33" s="75" t="s">
         <v>288</v>
       </c>
-      <c r="E33" s="80">
+      <c r="E33" s="79">
         <f>E26/(0+1)</f>
         <v>16000000</v>
       </c>
-      <c r="F33" s="80">
+      <c r="F33" s="79">
         <f>F26/(0+1)</f>
         <v>16000000</v>
       </c>
-      <c r="G33" s="80">
+      <c r="G33" s="79">
         <f>G26/(0+1)</f>
         <v>8000000</v>
       </c>
-      <c r="H33" s="80">
+      <c r="H33" s="79">
         <f>H26/(0+1)</f>
         <v>8000000</v>
       </c>
-      <c r="I33" s="80">
+      <c r="I33" s="79">
         <f>I26/(0+1)</f>
         <v>1000000</v>
       </c>
-      <c r="J33" s="67" t="s">
+      <c r="J33" s="66" t="s">
         <v>258</v>
       </c>
-      <c r="K33" s="68" t="s">
+      <c r="K33" s="67" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="34" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D34" s="76" t="s">
+      <c r="D34" s="75" t="s">
         <v>266</v>
       </c>
-      <c r="E34" s="67">
+      <c r="E34" s="66">
         <v>50</v>
       </c>
-      <c r="F34" s="67">
+      <c r="F34" s="66">
         <v>50</v>
       </c>
-      <c r="G34" s="67">
+      <c r="G34" s="66">
         <v>50</v>
       </c>
-      <c r="H34" s="67">
+      <c r="H34" s="66">
         <v>50</v>
       </c>
-      <c r="I34" s="67">
+      <c r="I34" s="66">
         <v>50</v>
       </c>
-      <c r="J34" s="67" t="s">
+      <c r="J34" s="66" t="s">
         <v>267</v>
       </c>
-      <c r="K34" s="68"/>
+      <c r="K34" s="67"/>
     </row>
     <row r="35" spans="4:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D35" s="79" t="s">
+      <c r="D35" s="78" t="s">
         <v>90</v>
       </c>
-      <c r="E35" s="69">
+      <c r="E35" s="68">
         <f>INT(E31*E34/100)</f>
         <v>332</v>
       </c>
-      <c r="F35" s="69">
+      <c r="F35" s="68">
         <f>INT(F31*F34/100)</f>
         <v>99</v>
       </c>
-      <c r="G35" s="69">
+      <c r="G35" s="68">
         <f>INT(G31*G34/100)</f>
         <v>49</v>
       </c>
-      <c r="H35" s="69">
+      <c r="H35" s="68">
         <f>INT(H31*H34/100)</f>
         <v>49</v>
       </c>
-      <c r="I35" s="69">
+      <c r="I35" s="68">
         <f>INT(I31*I34/100)</f>
         <v>5</v>
       </c>
-      <c r="J35" s="69"/>
-      <c r="K35" s="81" t="s">
+      <c r="J35" s="68"/>
+      <c r="K35" s="80" t="s">
         <v>290</v>
       </c>
     </row>

--- a/1_Plasma_Pipette/3_Firmware/Plasma_Gen_MCU_PinMap_20171227.xlsx
+++ b/1_Plasma_Pipette/3_Firmware/Plasma_Gen_MCU_PinMap_20171227.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12975" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12975"/>
   </bookViews>
   <sheets>
     <sheet name="Pin-map V1.0" sheetId="6" r:id="rId1"/>
@@ -16,12 +16,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Pin-map V1.0'!$B$15:$T$79</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Pipette V1.0'!$B$15:$O$79</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="353">
   <si>
     <t>Function</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2184,188 +2184,188 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2604,7 +2604,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2639,7 +2639,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2850,7 +2850,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M95"/>
   <sheetViews>
-    <sheetView topLeftCell="D4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
@@ -2893,10 +2893,10 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B3" s="143" t="s">
+      <c r="B3" s="193" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="144"/>
+      <c r="C3" s="194"/>
       <c r="D3" s="2">
         <v>128</v>
       </c>
@@ -2915,10 +2915,10 @@
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="145" t="s">
+      <c r="B4" s="195" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="146"/>
+      <c r="C4" s="196"/>
       <c r="D4" s="3">
         <v>16</v>
       </c>
@@ -2938,10 +2938,10 @@
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B5" s="145" t="s">
+      <c r="B5" s="195" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="146"/>
+      <c r="C5" s="196"/>
       <c r="D5" s="3">
         <v>48</v>
       </c>
@@ -2963,10 +2963,10 @@
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="145" t="s">
+      <c r="B6" s="195" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="146"/>
+      <c r="C6" s="196"/>
       <c r="D6" s="3" t="s">
         <v>10</v>
       </c>
@@ -2983,10 +2983,10 @@
       <c r="I6" s="15"/>
     </row>
     <row r="7" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="147" t="s">
+      <c r="B7" s="197" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="148"/>
+      <c r="C7" s="198"/>
       <c r="D7" s="4" t="s">
         <v>13</v>
       </c>
@@ -3055,28 +3055,28 @@
     </row>
     <row r="13" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="14" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="155" t="s">
+      <c r="B14" s="186" t="s">
         <v>109</v>
       </c>
-      <c r="C14" s="149"/>
-      <c r="D14" s="149" t="s">
+      <c r="C14" s="187"/>
+      <c r="D14" s="187" t="s">
         <v>94</v>
       </c>
-      <c r="E14" s="149" t="s">
+      <c r="E14" s="187" t="s">
         <v>96</v>
       </c>
-      <c r="F14" s="150"/>
-      <c r="G14" s="139" t="s">
+      <c r="F14" s="199"/>
+      <c r="G14" s="189" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="140"/>
-      <c r="I14" s="139" t="s">
+      <c r="H14" s="190"/>
+      <c r="I14" s="189" t="s">
         <v>93</v>
       </c>
-      <c r="J14" s="141"/>
-      <c r="K14" s="141"/>
-      <c r="L14" s="141"/>
-      <c r="M14" s="142"/>
+      <c r="J14" s="191"/>
+      <c r="K14" s="191"/>
+      <c r="L14" s="191"/>
+      <c r="M14" s="192"/>
     </row>
     <row r="15" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="6" t="s">
@@ -3085,7 +3085,7 @@
       <c r="C15" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="D15" s="156"/>
+      <c r="D15" s="188"/>
       <c r="E15" s="14" t="s">
         <v>179</v>
       </c>
@@ -3124,10 +3124,10 @@
       <c r="D16" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="E16" s="151" t="s">
+      <c r="E16" s="182" t="s">
         <v>107</v>
       </c>
-      <c r="F16" s="152"/>
+      <c r="F16" s="183"/>
       <c r="G16" s="41"/>
       <c r="H16" s="96"/>
       <c r="I16" s="110"/>
@@ -3316,10 +3316,10 @@
       <c r="D22" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="E22" s="153" t="s">
+      <c r="E22" s="184" t="s">
         <v>108</v>
       </c>
-      <c r="F22" s="154"/>
+      <c r="F22" s="185"/>
       <c r="G22" s="39" t="s">
         <v>206</v>
       </c>
@@ -3484,10 +3484,10 @@
       <c r="D27" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="E27" s="157" t="s">
+      <c r="E27" s="178" t="s">
         <v>120</v>
       </c>
-      <c r="F27" s="158"/>
+      <c r="F27" s="179"/>
       <c r="G27" s="24"/>
       <c r="H27" s="100"/>
       <c r="I27" s="24"/>
@@ -3506,10 +3506,10 @@
       <c r="D28" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="E28" s="157" t="s">
+      <c r="E28" s="178" t="s">
         <v>121</v>
       </c>
-      <c r="F28" s="158"/>
+      <c r="F28" s="179"/>
       <c r="G28" s="24"/>
       <c r="H28" s="100"/>
       <c r="I28" s="24"/>
@@ -3664,10 +3664,10 @@
       <c r="D33" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="E33" s="157" t="s">
+      <c r="E33" s="178" t="s">
         <v>126</v>
       </c>
-      <c r="F33" s="158"/>
+      <c r="F33" s="179"/>
       <c r="G33" s="24"/>
       <c r="H33" s="100"/>
       <c r="I33" s="24"/>
@@ -3686,10 +3686,10 @@
       <c r="D34" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="E34" s="157" t="s">
+      <c r="E34" s="178" t="s">
         <v>107</v>
       </c>
-      <c r="F34" s="158"/>
+      <c r="F34" s="179"/>
       <c r="G34" s="24"/>
       <c r="H34" s="100"/>
       <c r="I34" s="24"/>
@@ -4086,10 +4086,10 @@
       <c r="D46" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="E46" s="157" t="s">
+      <c r="E46" s="178" t="s">
         <v>126</v>
       </c>
-      <c r="F46" s="158"/>
+      <c r="F46" s="179"/>
       <c r="G46" s="24"/>
       <c r="H46" s="100"/>
       <c r="I46" s="24"/>
@@ -4108,10 +4108,10 @@
       <c r="D47" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="E47" s="157" t="s">
+      <c r="E47" s="178" t="s">
         <v>107</v>
       </c>
-      <c r="F47" s="158"/>
+      <c r="F47" s="179"/>
       <c r="G47" s="24"/>
       <c r="H47" s="100"/>
       <c r="I47" s="24"/>
@@ -4616,10 +4616,10 @@
       <c r="D62" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="E62" s="157" t="s">
+      <c r="E62" s="178" t="s">
         <v>126</v>
       </c>
-      <c r="F62" s="158"/>
+      <c r="F62" s="179"/>
       <c r="G62" s="24"/>
       <c r="H62" s="100"/>
       <c r="I62" s="24"/>
@@ -4638,10 +4638,10 @@
       <c r="D63" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="E63" s="157" t="s">
+      <c r="E63" s="178" t="s">
         <v>107</v>
       </c>
-      <c r="F63" s="158"/>
+      <c r="F63" s="179"/>
       <c r="G63" s="24"/>
       <c r="H63" s="100"/>
       <c r="I63" s="24"/>
@@ -5034,10 +5034,10 @@
       <c r="D75" s="40" t="s">
         <v>156</v>
       </c>
-      <c r="E75" s="157" t="s">
+      <c r="E75" s="178" t="s">
         <v>175</v>
       </c>
-      <c r="F75" s="158"/>
+      <c r="F75" s="179"/>
       <c r="G75" s="24" t="s">
         <v>224</v>
       </c>
@@ -5134,10 +5134,10 @@
       <c r="D78" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="E78" s="157" t="s">
+      <c r="E78" s="178" t="s">
         <v>126</v>
       </c>
-      <c r="F78" s="158"/>
+      <c r="F78" s="179"/>
       <c r="G78" s="24"/>
       <c r="H78" s="100"/>
       <c r="I78" s="24"/>
@@ -5156,10 +5156,10 @@
       <c r="D79" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="E79" s="159" t="s">
+      <c r="E79" s="180" t="s">
         <v>107</v>
       </c>
-      <c r="F79" s="160"/>
+      <c r="F79" s="181"/>
       <c r="G79" s="25"/>
       <c r="H79" s="106"/>
       <c r="I79" s="25"/>
@@ -5219,21 +5219,6 @@
   </sheetData>
   <autoFilter ref="B15:T79"/>
   <mergeCells count="23">
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E27:F27"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="I14:M14"/>
     <mergeCell ref="B3:C3"/>
@@ -5242,6 +5227,21 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="E75:F75"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5253,8 +5253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42:K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5293,10 +5293,10 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B3" s="143" t="s">
+      <c r="B3" s="193" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="144"/>
+      <c r="C3" s="194"/>
       <c r="D3" s="2">
         <v>128</v>
       </c>
@@ -5315,10 +5315,10 @@
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="145" t="s">
+      <c r="B4" s="195" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="146"/>
+      <c r="C4" s="196"/>
       <c r="D4" s="3">
         <v>16</v>
       </c>
@@ -5338,10 +5338,10 @@
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B5" s="145" t="s">
+      <c r="B5" s="195" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="146"/>
+      <c r="C5" s="196"/>
       <c r="D5" s="3">
         <v>48</v>
       </c>
@@ -5363,10 +5363,10 @@
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="145" t="s">
+      <c r="B6" s="195" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="146"/>
+      <c r="C6" s="196"/>
       <c r="D6" s="3" t="s">
         <v>10</v>
       </c>
@@ -5383,10 +5383,10 @@
       <c r="I6" s="15"/>
     </row>
     <row r="7" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="147" t="s">
+      <c r="B7" s="197" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="148"/>
+      <c r="C7" s="198"/>
       <c r="D7" s="4" t="s">
         <v>13</v>
       </c>
@@ -5455,28 +5455,28 @@
     </row>
     <row r="13" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="14" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="155" t="s">
+      <c r="B14" s="186" t="s">
         <v>109</v>
       </c>
-      <c r="C14" s="149"/>
-      <c r="D14" s="149" t="s">
+      <c r="C14" s="187"/>
+      <c r="D14" s="187" t="s">
         <v>94</v>
       </c>
-      <c r="E14" s="149" t="s">
+      <c r="E14" s="187" t="s">
         <v>96</v>
       </c>
-      <c r="F14" s="150"/>
-      <c r="G14" s="139" t="s">
+      <c r="F14" s="199"/>
+      <c r="G14" s="189" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="140"/>
-      <c r="I14" s="139" t="s">
+      <c r="H14" s="190"/>
+      <c r="I14" s="189" t="s">
         <v>315</v>
       </c>
-      <c r="J14" s="141"/>
-      <c r="K14" s="141"/>
-      <c r="L14" s="141"/>
-      <c r="M14" s="142"/>
+      <c r="J14" s="191"/>
+      <c r="K14" s="191"/>
+      <c r="L14" s="191"/>
+      <c r="M14" s="192"/>
     </row>
     <row r="15" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="6" t="s">
@@ -5485,7 +5485,7 @@
       <c r="C15" s="136" t="s">
         <v>317</v>
       </c>
-      <c r="D15" s="156"/>
+      <c r="D15" s="188"/>
       <c r="E15" s="94" t="s">
         <v>179</v>
       </c>
@@ -5524,10 +5524,10 @@
       <c r="D16" s="91" t="s">
         <v>95</v>
       </c>
-      <c r="E16" s="151" t="s">
+      <c r="E16" s="182" t="s">
         <v>107</v>
       </c>
-      <c r="F16" s="152"/>
+      <c r="F16" s="183"/>
       <c r="G16" s="41"/>
       <c r="H16" s="96"/>
       <c r="I16" s="110"/>
@@ -5716,20 +5716,20 @@
       <c r="D22" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="E22" s="153" t="s">
+      <c r="E22" s="184" t="s">
         <v>108</v>
       </c>
-      <c r="F22" s="154"/>
+      <c r="F22" s="185"/>
       <c r="G22" s="84" t="s">
         <v>101</v>
       </c>
-      <c r="H22" s="170" t="s">
-        <v>40</v>
-      </c>
-      <c r="I22" s="181" t="s">
+      <c r="H22" s="149" t="s">
+        <v>40</v>
+      </c>
+      <c r="I22" s="160" t="s">
         <v>101</v>
       </c>
-      <c r="J22" s="174" t="s">
+      <c r="J22" s="153" t="s">
         <v>185</v>
       </c>
       <c r="K22" s="44" t="s">
@@ -5776,7 +5776,7 @@
       <c r="B24" s="114">
         <v>9</v>
       </c>
-      <c r="C24" s="192" t="s">
+      <c r="C24" s="171" t="s">
         <v>322</v>
       </c>
       <c r="D24" s="20" t="s">
@@ -5794,10 +5794,10 @@
       <c r="H24" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="I24" s="181" t="s">
+      <c r="I24" s="160" t="s">
         <v>325</v>
       </c>
-      <c r="J24" s="174" t="s">
+      <c r="J24" s="153" t="s">
         <v>195</v>
       </c>
       <c r="K24" s="44" t="s">
@@ -5810,7 +5810,7 @@
       <c r="B25" s="114">
         <v>10</v>
       </c>
-      <c r="C25" s="192" t="s">
+      <c r="C25" s="171" t="s">
         <v>322</v>
       </c>
       <c r="D25" s="20" t="s">
@@ -5828,10 +5828,10 @@
       <c r="H25" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="I25" s="181" t="s">
+      <c r="I25" s="160" t="s">
         <v>326</v>
       </c>
-      <c r="J25" s="174" t="s">
+      <c r="J25" s="153" t="s">
         <v>193</v>
       </c>
       <c r="K25" s="44" t="s">
@@ -5844,7 +5844,7 @@
       <c r="B26" s="114">
         <v>11</v>
       </c>
-      <c r="C26" s="192" t="s">
+      <c r="C26" s="171" t="s">
         <v>322</v>
       </c>
       <c r="D26" s="20" t="s">
@@ -5862,10 +5862,10 @@
       <c r="H26" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="I26" s="181" t="s">
+      <c r="I26" s="160" t="s">
         <v>327</v>
       </c>
-      <c r="J26" s="174" t="s">
+      <c r="J26" s="153" t="s">
         <v>328</v>
       </c>
       <c r="K26" s="44" t="s">
@@ -5884,10 +5884,10 @@
       <c r="D27" s="89" t="s">
         <v>118</v>
       </c>
-      <c r="E27" s="157" t="s">
+      <c r="E27" s="178" t="s">
         <v>120</v>
       </c>
-      <c r="F27" s="158"/>
+      <c r="F27" s="179"/>
       <c r="G27" s="24"/>
       <c r="H27" s="100"/>
       <c r="I27" s="24"/>
@@ -5906,10 +5906,10 @@
       <c r="D28" s="89" t="s">
         <v>119</v>
       </c>
-      <c r="E28" s="157" t="s">
+      <c r="E28" s="178" t="s">
         <v>121</v>
       </c>
-      <c r="F28" s="158"/>
+      <c r="F28" s="179"/>
       <c r="G28" s="24"/>
       <c r="H28" s="100"/>
       <c r="I28" s="24"/>
@@ -5956,7 +5956,7 @@
       <c r="B30" s="114">
         <v>15</v>
       </c>
-      <c r="C30" s="192" t="s">
+      <c r="C30" s="171" t="s">
         <v>322</v>
       </c>
       <c r="D30" s="20" t="s">
@@ -5974,10 +5974,10 @@
       <c r="H30" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="I30" s="182" t="s">
+      <c r="I30" s="161" t="s">
         <v>347</v>
       </c>
-      <c r="J30" s="175" t="s">
+      <c r="J30" s="154" t="s">
         <v>311</v>
       </c>
       <c r="K30" s="82" t="s">
@@ -5990,7 +5990,7 @@
       <c r="B31" s="114">
         <v>16</v>
       </c>
-      <c r="C31" s="192" t="s">
+      <c r="C31" s="171" t="s">
         <v>322</v>
       </c>
       <c r="D31" s="20" t="s">
@@ -6008,10 +6008,10 @@
       <c r="H31" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="I31" s="182" t="s">
+      <c r="I31" s="161" t="s">
         <v>348</v>
       </c>
-      <c r="J31" s="175" t="s">
+      <c r="J31" s="154" t="s">
         <v>311</v>
       </c>
       <c r="K31" s="82" t="s">
@@ -6064,10 +6064,10 @@
       <c r="D33" s="89" t="s">
         <v>150</v>
       </c>
-      <c r="E33" s="157" t="s">
+      <c r="E33" s="178" t="s">
         <v>126</v>
       </c>
-      <c r="F33" s="158"/>
+      <c r="F33" s="179"/>
       <c r="G33" s="24"/>
       <c r="H33" s="100"/>
       <c r="I33" s="24"/>
@@ -6086,10 +6086,10 @@
       <c r="D34" s="89" t="s">
         <v>95</v>
       </c>
-      <c r="E34" s="157" t="s">
+      <c r="E34" s="178" t="s">
         <v>107</v>
       </c>
-      <c r="F34" s="158"/>
+      <c r="F34" s="179"/>
       <c r="G34" s="24"/>
       <c r="H34" s="100"/>
       <c r="I34" s="24"/>
@@ -6201,13 +6201,13 @@
       <c r="M37" s="15"/>
     </row>
     <row r="38" spans="2:13" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B38" s="196">
+      <c r="B38" s="174">
         <v>23</v>
       </c>
-      <c r="C38" s="197" t="s">
+      <c r="C38" s="175" t="s">
         <v>322</v>
       </c>
-      <c r="D38" s="198" t="s">
+      <c r="D38" s="176" t="s">
         <v>68</v>
       </c>
       <c r="E38" s="10" t="s">
@@ -6216,32 +6216,32 @@
       <c r="F38" s="93" t="s">
         <v>330</v>
       </c>
-      <c r="G38" s="173" t="s">
+      <c r="G38" s="152" t="s">
         <v>330</v>
       </c>
-      <c r="H38" s="165" t="s">
+      <c r="H38" s="144" t="s">
         <v>332</v>
       </c>
-      <c r="I38" s="183" t="s">
+      <c r="I38" s="162" t="s">
         <v>350</v>
       </c>
-      <c r="J38" s="176" t="s">
+      <c r="J38" s="155" t="s">
         <v>202</v>
       </c>
-      <c r="K38" s="161" t="s">
+      <c r="K38" s="140" t="s">
         <v>40</v>
       </c>
       <c r="L38" s="3"/>
       <c r="M38" s="15"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B39" s="196">
+      <c r="B39" s="174">
         <v>24</v>
       </c>
-      <c r="C39" s="197" t="s">
+      <c r="C39" s="175" t="s">
         <v>322</v>
       </c>
-      <c r="D39" s="198" t="s">
+      <c r="D39" s="176" t="s">
         <v>69</v>
       </c>
       <c r="E39" s="92" t="s">
@@ -6250,19 +6250,19 @@
       <c r="F39" s="93" t="s">
         <v>331</v>
       </c>
-      <c r="G39" s="173" t="s">
+      <c r="G39" s="152" t="s">
         <v>331</v>
       </c>
-      <c r="H39" s="165" t="s">
+      <c r="H39" s="144" t="s">
         <v>332</v>
       </c>
-      <c r="I39" s="183" t="s">
+      <c r="I39" s="162" t="s">
         <v>351</v>
       </c>
-      <c r="J39" s="176" t="s">
+      <c r="J39" s="155" t="s">
         <v>202</v>
       </c>
-      <c r="K39" s="161" t="s">
+      <c r="K39" s="140" t="s">
         <v>40</v>
       </c>
       <c r="L39" s="3"/>
@@ -6272,7 +6272,7 @@
       <c r="B40" s="114">
         <v>25</v>
       </c>
-      <c r="C40" s="192" t="s">
+      <c r="C40" s="171" t="s">
         <v>322</v>
       </c>
       <c r="D40" s="20" t="s">
@@ -6290,16 +6290,16 @@
       <c r="H40" s="99" t="s">
         <v>332</v>
       </c>
-      <c r="I40" s="182" t="s">
+      <c r="I40" s="161" t="s">
         <v>349</v>
       </c>
-      <c r="J40" s="175" t="s">
+      <c r="J40" s="154" t="s">
         <v>316</v>
       </c>
       <c r="K40" s="82" t="s">
         <v>189</v>
       </c>
-      <c r="L40" s="166"/>
+      <c r="L40" s="145"/>
       <c r="M40" s="15" t="s">
         <v>239</v>
       </c>
@@ -6308,7 +6308,7 @@
       <c r="B41" s="114">
         <v>26</v>
       </c>
-      <c r="C41" s="192" t="s">
+      <c r="C41" s="171" t="s">
         <v>322</v>
       </c>
       <c r="D41" s="20" t="s">
@@ -6326,23 +6326,23 @@
       <c r="H41" s="99" t="s">
         <v>332</v>
       </c>
-      <c r="I41" s="181" t="s">
+      <c r="I41" s="160" t="s">
         <v>187</v>
       </c>
-      <c r="J41" s="174" t="s">
+      <c r="J41" s="153" t="s">
         <v>197</v>
       </c>
       <c r="K41" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="L41" s="166"/>
+      <c r="L41" s="145"/>
       <c r="M41" s="15"/>
     </row>
     <row r="42" spans="2:13" ht="33" x14ac:dyDescent="0.3">
       <c r="B42" s="114">
         <v>27</v>
       </c>
-      <c r="C42" s="192" t="s">
+      <c r="C42" s="171" t="s">
         <v>322</v>
       </c>
       <c r="D42" s="20" t="s">
@@ -6360,16 +6360,16 @@
       <c r="H42" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="I42" s="182" t="s">
+      <c r="I42" s="161" t="s">
         <v>313</v>
       </c>
-      <c r="J42" s="175" t="s">
+      <c r="J42" s="154" t="s">
         <v>219</v>
       </c>
       <c r="K42" s="125" t="s">
         <v>40</v>
       </c>
-      <c r="L42" s="167" t="s">
+      <c r="L42" s="146" t="s">
         <v>314</v>
       </c>
       <c r="M42" s="122"/>
@@ -6390,23 +6390,6 @@
       <c r="F43" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G43" s="130" t="s">
-        <v>19</v>
-      </c>
-      <c r="H43" s="99" t="s">
-        <v>332</v>
-      </c>
-      <c r="I43" s="199" t="s">
-        <v>333</v>
-      </c>
-      <c r="J43" s="177" t="s">
-        <v>336</v>
-      </c>
-      <c r="K43" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="L43" s="166"/>
-      <c r="M43" s="15"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B44" s="114">
@@ -6424,23 +6407,6 @@
       <c r="F44" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G44" s="130" t="s">
-        <v>19</v>
-      </c>
-      <c r="H44" s="99" t="s">
-        <v>332</v>
-      </c>
-      <c r="I44" s="199" t="s">
-        <v>334</v>
-      </c>
-      <c r="J44" s="177" t="s">
-        <v>337</v>
-      </c>
-      <c r="K44" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="L44" s="166"/>
-      <c r="M44" s="15"/>
     </row>
     <row r="45" spans="2:13" ht="33" x14ac:dyDescent="0.3">
       <c r="B45" s="114">
@@ -6458,23 +6424,6 @@
       <c r="F45" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G45" s="130" t="s">
-        <v>19</v>
-      </c>
-      <c r="H45" s="99" t="s">
-        <v>332</v>
-      </c>
-      <c r="I45" s="199" t="s">
-        <v>335</v>
-      </c>
-      <c r="J45" s="177" t="s">
-        <v>338</v>
-      </c>
-      <c r="K45" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="L45" s="166"/>
-      <c r="M45" s="15"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B46" s="24">
@@ -6486,16 +6435,16 @@
       <c r="D46" s="89" t="s">
         <v>150</v>
       </c>
-      <c r="E46" s="157" t="s">
+      <c r="E46" s="178" t="s">
         <v>126</v>
       </c>
-      <c r="F46" s="158"/>
+      <c r="F46" s="179"/>
       <c r="G46" s="24"/>
       <c r="H46" s="100"/>
       <c r="I46" s="24"/>
       <c r="J46" s="89"/>
       <c r="K46" s="89"/>
-      <c r="L46" s="166"/>
+      <c r="L46" s="145"/>
       <c r="M46" s="15"/>
     </row>
     <row r="47" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -6508,23 +6457,23 @@
       <c r="D47" s="89" t="s">
         <v>95</v>
       </c>
-      <c r="E47" s="157" t="s">
+      <c r="E47" s="178" t="s">
         <v>107</v>
       </c>
-      <c r="F47" s="158"/>
+      <c r="F47" s="179"/>
       <c r="G47" s="24"/>
       <c r="H47" s="100"/>
       <c r="I47" s="24"/>
       <c r="J47" s="89"/>
       <c r="K47" s="89"/>
-      <c r="L47" s="166"/>
+      <c r="L47" s="145"/>
       <c r="M47" s="15"/>
     </row>
     <row r="48" spans="2:13" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B48" s="114">
         <v>33</v>
       </c>
-      <c r="C48" s="193" t="s">
+      <c r="C48" s="172" t="s">
         <v>320</v>
       </c>
       <c r="D48" s="20" t="s">
@@ -6542,16 +6491,16 @@
       <c r="H48" s="99" t="s">
         <v>222</v>
       </c>
-      <c r="I48" s="181" t="s">
+      <c r="I48" s="160" t="s">
         <v>223</v>
       </c>
-      <c r="J48" s="174" t="s">
+      <c r="J48" s="153" t="s">
         <v>219</v>
       </c>
       <c r="K48" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="L48" s="168"/>
+      <c r="L48" s="147"/>
       <c r="M48" s="15" t="s">
         <v>237</v>
       </c>
@@ -6578,16 +6527,16 @@
       <c r="H49" s="99" t="s">
         <v>222</v>
       </c>
-      <c r="I49" s="184" t="s">
+      <c r="I49" s="163" t="s">
         <v>339</v>
       </c>
-      <c r="J49" s="177" t="s">
+      <c r="J49" s="156" t="s">
         <v>340</v>
       </c>
       <c r="K49" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="L49" s="166"/>
+      <c r="L49" s="145"/>
       <c r="M49" s="15"/>
     </row>
     <row r="50" spans="2:13" ht="49.5" x14ac:dyDescent="0.3">
@@ -6606,22 +6555,22 @@
       <c r="F50" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G50" s="23" t="s">
-        <v>305</v>
-      </c>
-      <c r="H50" s="97" t="s">
-        <v>306</v>
-      </c>
-      <c r="I50" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="J50" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K50" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L50" s="166"/>
+      <c r="G50" s="130" t="s">
+        <v>19</v>
+      </c>
+      <c r="H50" s="99" t="s">
+        <v>332</v>
+      </c>
+      <c r="I50" s="177" t="s">
+        <v>335</v>
+      </c>
+      <c r="J50" s="156" t="s">
+        <v>338</v>
+      </c>
+      <c r="K50" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="L50" s="145"/>
       <c r="M50" s="15"/>
     </row>
     <row r="51" spans="2:13" ht="33" x14ac:dyDescent="0.3">
@@ -6640,27 +6589,23 @@
       <c r="F51" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="G51" s="84" t="s">
-        <v>204</v>
+      <c r="G51" s="130" t="s">
+        <v>19</v>
       </c>
       <c r="H51" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="I51" s="181" t="s">
-        <v>218</v>
-      </c>
-      <c r="J51" s="174" t="s">
-        <v>201</v>
+        <v>332</v>
+      </c>
+      <c r="I51" s="177" t="s">
+        <v>334</v>
+      </c>
+      <c r="J51" s="156" t="s">
+        <v>337</v>
       </c>
       <c r="K51" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="L51" s="168" t="s">
-        <v>233</v>
-      </c>
-      <c r="M51" s="15" t="s">
-        <v>238</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="L51" s="145"/>
+      <c r="M51" s="15"/>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B52" s="22">
@@ -6678,22 +6623,22 @@
       <c r="F52" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G52" s="23" t="s">
-        <v>305</v>
-      </c>
-      <c r="H52" s="97" t="s">
-        <v>306</v>
-      </c>
-      <c r="I52" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="J52" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K52" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L52" s="3"/>
+      <c r="G52" s="130" t="s">
+        <v>19</v>
+      </c>
+      <c r="H52" s="99" t="s">
+        <v>332</v>
+      </c>
+      <c r="I52" s="177" t="s">
+        <v>333</v>
+      </c>
+      <c r="J52" s="156" t="s">
+        <v>336</v>
+      </c>
+      <c r="K52" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="L52" s="145"/>
       <c r="M52" s="15"/>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.3">
@@ -6718,16 +6663,16 @@
       <c r="H53" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="I53" s="182" t="s">
+      <c r="I53" s="161" t="s">
         <v>243</v>
       </c>
-      <c r="J53" s="175" t="s">
+      <c r="J53" s="154" t="s">
         <v>201</v>
       </c>
       <c r="K53" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="L53" s="172" t="s">
+      <c r="L53" s="151" t="s">
         <v>241</v>
       </c>
       <c r="M53" s="15" t="s">
@@ -6803,7 +6748,7 @@
       <c r="M55" s="15"/>
     </row>
     <row r="56" spans="2:13" ht="33" x14ac:dyDescent="0.3">
-      <c r="B56" s="194">
+      <c r="B56" s="173">
         <v>41</v>
       </c>
       <c r="C56" s="86" t="s">
@@ -6824,10 +6769,10 @@
       <c r="H56" s="101" t="s">
         <v>309</v>
       </c>
-      <c r="I56" s="185" t="s">
+      <c r="I56" s="164" t="s">
         <v>216</v>
       </c>
-      <c r="J56" s="178" t="s">
+      <c r="J56" s="157" t="s">
         <v>215</v>
       </c>
       <c r="K56" s="86" t="s">
@@ -6840,7 +6785,7 @@
       <c r="B57" s="50">
         <v>42</v>
       </c>
-      <c r="C57" s="162" t="s">
+      <c r="C57" s="141" t="s">
         <v>320</v>
       </c>
       <c r="D57" s="47" t="s">
@@ -6858,10 +6803,10 @@
       <c r="H57" s="104" t="s">
         <v>58</v>
       </c>
-      <c r="I57" s="186" t="s">
+      <c r="I57" s="165" t="s">
         <v>352</v>
       </c>
-      <c r="J57" s="179" t="s">
+      <c r="J57" s="158" t="s">
         <v>200</v>
       </c>
       <c r="K57" s="53" t="s">
@@ -6874,7 +6819,7 @@
       <c r="B58" s="50">
         <v>43</v>
       </c>
-      <c r="C58" s="162" t="s">
+      <c r="C58" s="141" t="s">
         <v>320</v>
       </c>
       <c r="D58" s="47" t="s">
@@ -6892,10 +6837,10 @@
       <c r="H58" s="104" t="s">
         <v>58</v>
       </c>
-      <c r="I58" s="186" t="s">
+      <c r="I58" s="165" t="s">
         <v>210</v>
       </c>
-      <c r="J58" s="179" t="s">
+      <c r="J58" s="158" t="s">
         <v>200</v>
       </c>
       <c r="K58" s="53" t="s">
@@ -6905,7 +6850,7 @@
       <c r="M58" s="15"/>
     </row>
     <row r="59" spans="2:13" ht="33" x14ac:dyDescent="0.3">
-      <c r="B59" s="194">
+      <c r="B59" s="173">
         <v>44</v>
       </c>
       <c r="C59" s="86" t="s">
@@ -6926,10 +6871,10 @@
       <c r="H59" s="101" t="s">
         <v>309</v>
       </c>
-      <c r="I59" s="185" t="s">
+      <c r="I59" s="164" t="s">
         <v>217</v>
       </c>
-      <c r="J59" s="178" t="s">
+      <c r="J59" s="157" t="s">
         <v>215</v>
       </c>
       <c r="K59" s="86" t="s">
@@ -6960,10 +6905,10 @@
       <c r="H60" s="99" t="s">
         <v>222</v>
       </c>
-      <c r="I60" s="181" t="s">
+      <c r="I60" s="160" t="s">
         <v>208</v>
       </c>
-      <c r="J60" s="174" t="s">
+      <c r="J60" s="153" t="s">
         <v>181</v>
       </c>
       <c r="K60" s="44" t="s">
@@ -6976,7 +6921,7 @@
       <c r="B61" s="57">
         <v>46</v>
       </c>
-      <c r="C61" s="163" t="s">
+      <c r="C61" s="142" t="s">
         <v>320</v>
       </c>
       <c r="D61" s="54" t="s">
@@ -6988,19 +6933,19 @@
       <c r="F61" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="G61" s="188" t="s">
+      <c r="G61" s="167" t="s">
         <v>61</v>
       </c>
-      <c r="H61" s="189" t="s">
+      <c r="H61" s="168" t="s">
         <v>58</v>
       </c>
-      <c r="I61" s="190" t="s">
+      <c r="I61" s="169" t="s">
         <v>61</v>
       </c>
-      <c r="J61" s="191" t="s">
+      <c r="J61" s="170" t="s">
         <v>59</v>
       </c>
-      <c r="K61" s="164" t="s">
+      <c r="K61" s="143" t="s">
         <v>199</v>
       </c>
       <c r="L61" s="3"/>
@@ -7016,10 +6961,10 @@
       <c r="D62" s="89" t="s">
         <v>150</v>
       </c>
-      <c r="E62" s="157" t="s">
+      <c r="E62" s="178" t="s">
         <v>126</v>
       </c>
-      <c r="F62" s="158"/>
+      <c r="F62" s="179"/>
       <c r="G62" s="24"/>
       <c r="H62" s="100"/>
       <c r="I62" s="24"/>
@@ -7028,20 +6973,20 @@
       <c r="L62" s="3"/>
       <c r="M62" s="15"/>
     </row>
-    <row r="63" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B63" s="24">
         <v>48</v>
       </c>
-      <c r="C63" s="127" t="s">
+      <c r="C63" s="139" t="s">
         <v>318</v>
       </c>
-      <c r="D63" s="89" t="s">
+      <c r="D63" s="139" t="s">
         <v>95</v>
       </c>
-      <c r="E63" s="157" t="s">
+      <c r="E63" s="178" t="s">
         <v>107</v>
       </c>
-      <c r="F63" s="158"/>
+      <c r="F63" s="179"/>
       <c r="G63" s="24"/>
       <c r="H63" s="100"/>
       <c r="I63" s="24"/>
@@ -7054,7 +6999,7 @@
       <c r="B64" s="57">
         <v>49</v>
       </c>
-      <c r="C64" s="195" t="s">
+      <c r="C64" s="142" t="s">
         <v>320</v>
       </c>
       <c r="D64" s="54" t="s">
@@ -7066,19 +7011,19 @@
       <c r="F64" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="G64" s="188" t="s">
+      <c r="G64" s="167" t="s">
         <v>57</v>
       </c>
-      <c r="H64" s="189" t="s">
+      <c r="H64" s="168" t="s">
         <v>58</v>
       </c>
-      <c r="I64" s="190" t="s">
+      <c r="I64" s="169" t="s">
         <v>57</v>
       </c>
-      <c r="J64" s="191" t="s">
+      <c r="J64" s="170" t="s">
         <v>59</v>
       </c>
-      <c r="K64" s="164" t="s">
+      <c r="K64" s="143" t="s">
         <v>198</v>
       </c>
       <c r="L64" s="3"/>
@@ -7100,23 +7045,27 @@
       <c r="F65" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G65" s="23" t="s">
-        <v>305</v>
-      </c>
-      <c r="H65" s="97" t="s">
-        <v>306</v>
-      </c>
-      <c r="I65" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="J65" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K65" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L65" s="3"/>
-      <c r="M65" s="15"/>
+      <c r="G65" s="84" t="s">
+        <v>204</v>
+      </c>
+      <c r="H65" s="99" t="s">
+        <v>20</v>
+      </c>
+      <c r="I65" s="160" t="s">
+        <v>218</v>
+      </c>
+      <c r="J65" s="153" t="s">
+        <v>201</v>
+      </c>
+      <c r="K65" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="L65" s="147" t="s">
+        <v>233</v>
+      </c>
+      <c r="M65" s="15" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="66" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B66" s="22">
@@ -7310,10 +7259,10 @@
       <c r="H71" s="99" t="s">
         <v>329</v>
       </c>
-      <c r="I71" s="184" t="s">
+      <c r="I71" s="163" t="s">
         <v>342</v>
       </c>
-      <c r="J71" s="177" t="s">
+      <c r="J71" s="156" t="s">
         <v>344</v>
       </c>
       <c r="K71" s="88" t="s">
@@ -7380,10 +7329,10 @@
       <c r="H73" s="99" t="s">
         <v>329</v>
       </c>
-      <c r="I73" s="184" t="s">
+      <c r="I73" s="163" t="s">
         <v>343</v>
       </c>
-      <c r="J73" s="177" t="s">
+      <c r="J73" s="156" t="s">
         <v>344</v>
       </c>
       <c r="K73" s="88" t="s">
@@ -7425,7 +7374,7 @@
       <c r="K74" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="L74" s="166"/>
+      <c r="L74" s="145"/>
       <c r="M74" s="15"/>
     </row>
     <row r="75" spans="2:13" x14ac:dyDescent="0.3">
@@ -7438,20 +7387,20 @@
       <c r="D75" s="89" t="s">
         <v>156</v>
       </c>
-      <c r="E75" s="157" t="s">
+      <c r="E75" s="178" t="s">
         <v>175</v>
       </c>
-      <c r="F75" s="158"/>
+      <c r="F75" s="179"/>
       <c r="G75" s="24" t="s">
         <v>224</v>
       </c>
       <c r="H75" s="100"/>
-      <c r="I75" s="187" t="s">
+      <c r="I75" s="166" t="s">
         <v>224</v>
       </c>
-      <c r="J75" s="180"/>
+      <c r="J75" s="159"/>
       <c r="K75" s="89"/>
-      <c r="L75" s="166"/>
+      <c r="L75" s="145"/>
       <c r="M75" s="15"/>
     </row>
     <row r="76" spans="2:13" x14ac:dyDescent="0.3">
@@ -7476,10 +7425,10 @@
       <c r="H76" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="I76" s="181" t="s">
+      <c r="I76" s="160" t="s">
         <v>234</v>
       </c>
-      <c r="J76" s="174" t="s">
+      <c r="J76" s="153" t="s">
         <v>214</v>
       </c>
       <c r="K76" s="44" t="s">
@@ -7514,16 +7463,16 @@
       <c r="H77" s="99" t="s">
         <v>329</v>
       </c>
-      <c r="I77" s="181" t="s">
+      <c r="I77" s="160" t="s">
         <v>207</v>
       </c>
-      <c r="J77" s="174" t="s">
+      <c r="J77" s="153" t="s">
         <v>228</v>
       </c>
       <c r="K77" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="L77" s="168"/>
+      <c r="L77" s="147"/>
       <c r="M77" s="15" t="s">
         <v>235</v>
       </c>
@@ -7538,10 +7487,10 @@
       <c r="D78" s="89" t="s">
         <v>150</v>
       </c>
-      <c r="E78" s="157" t="s">
+      <c r="E78" s="178" t="s">
         <v>126</v>
       </c>
-      <c r="F78" s="158"/>
+      <c r="F78" s="179"/>
       <c r="G78" s="24"/>
       <c r="H78" s="100"/>
       <c r="I78" s="24"/>
@@ -7560,10 +7509,10 @@
       <c r="D79" s="90" t="s">
         <v>95</v>
       </c>
-      <c r="E79" s="159" t="s">
+      <c r="E79" s="180" t="s">
         <v>107</v>
       </c>
-      <c r="F79" s="160"/>
+      <c r="F79" s="181"/>
       <c r="G79" s="25"/>
       <c r="H79" s="106"/>
       <c r="I79" s="25"/>
@@ -7589,7 +7538,7 @@
       <c r="H86" s="99" t="s">
         <v>329</v>
       </c>
-      <c r="I86" s="171" t="s">
+      <c r="I86" s="150" t="s">
         <v>342</v>
       </c>
       <c r="J86" s="88" t="s">
@@ -7611,7 +7560,7 @@
       <c r="I87" s="118" t="s">
         <v>196</v>
       </c>
-      <c r="J87" s="169" t="s">
+      <c r="J87" s="148" t="s">
         <v>316</v>
       </c>
       <c r="K87" s="82" t="s">
@@ -7627,7 +7576,7 @@
       <c r="H88" s="99" t="s">
         <v>329</v>
       </c>
-      <c r="I88" s="171" t="s">
+      <c r="I88" s="150" t="s">
         <v>343</v>
       </c>
       <c r="J88" s="88" t="s">
@@ -7698,6 +7647,17 @@
   </sheetData>
   <autoFilter ref="B15:O79"/>
   <mergeCells count="23">
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E22:F22"/>
     <mergeCell ref="E79:F79"/>
     <mergeCell ref="I14:M14"/>
     <mergeCell ref="E62:F62"/>
@@ -7706,21 +7666,10 @@
     <mergeCell ref="E78:F78"/>
     <mergeCell ref="E46:F46"/>
     <mergeCell ref="E47:F47"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E22:F22"/>
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="E33:F33"/>
     <mergeCell ref="E34:F34"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
